--- a/BackTest/2019-10-16 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-16 BackTest LOOM.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.9999999999999964</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-33.3333333333336</v>
+      </c>
       <c r="L12" t="n">
         <v>28.96</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.9999999999999964</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-33.3333333333336</v>
+      </c>
       <c r="L13" t="n">
         <v>28.93</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.199999999999996</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-45.45454545454569</v>
+      </c>
       <c r="L14" t="n">
         <v>28.88</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.199999999999996</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-40.00000000000036</v>
+      </c>
       <c r="L15" t="n">
         <v>28.82999999999999</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.199999999999996</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-40.00000000000036</v>
+      </c>
       <c r="L16" t="n">
         <v>28.78999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.399999999999995</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-40.00000000000014</v>
+      </c>
       <c r="L17" t="n">
         <v>28.72999999999999</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.499999999999996</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-11.11111111111093</v>
+      </c>
       <c r="L18" t="n">
         <v>28.7</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.499999999999996</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-11.11111111111093</v>
+      </c>
       <c r="L19" t="n">
         <v>28.69</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.599999999999994</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>11.11111111111093</v>
+      </c>
       <c r="L20" t="n">
         <v>28.69</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.599999999999994</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>28.7</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.599999999999994</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-33.33333333333333</v>
+      </c>
       <c r="L22" t="n">
         <v>28.68</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.599999999999994</v>
       </c>
       <c r="K23" t="n">
-        <v>-33.33333333333349</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>28.66</v>
@@ -1466,7 +1488,7 @@
         <v>1.699999999999992</v>
       </c>
       <c r="K24" t="n">
-        <v>-37.50000000000009</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L24" t="n">
         <v>28.65</v>
@@ -1515,7 +1537,7 @@
         <v>1.899999999999991</v>
       </c>
       <c r="K25" t="n">
-        <v>-22.22222222222226</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L25" t="n">
         <v>28.66</v>
@@ -1564,7 +1586,7 @@
         <v>2.199999999999992</v>
       </c>
       <c r="K26" t="n">
-        <v>-30.00000000000018</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>28.64</v>
@@ -1613,7 +1635,7 @@
         <v>2.399999999999991</v>
       </c>
       <c r="K27" t="n">
-        <v>-18.18181818181834</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L27" t="n">
         <v>28.66</v>
@@ -1662,7 +1684,7 @@
         <v>2.499999999999993</v>
       </c>
       <c r="K28" t="n">
-        <v>-4.761904761904681</v>
+        <v>20</v>
       </c>
       <c r="L28" t="n">
         <v>28.68</v>
@@ -1711,7 +1733,7 @@
         <v>2.499999999999993</v>
       </c>
       <c r="K29" t="n">
-        <v>5.26315789473694</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L29" t="n">
         <v>28.7</v>
@@ -1809,7 +1831,7 @@
         <v>2.699999999999996</v>
       </c>
       <c r="K31" t="n">
-        <v>9.999999999999982</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L31" t="n">
         <v>28.71</v>
@@ -1860,7 +1882,7 @@
         <v>2.799999999999994</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>16.66666666666662</v>
       </c>
       <c r="L32" t="n">
         <v>28.73</v>
@@ -1911,7 +1933,7 @@
         <v>2.799999999999994</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>27.27272727272697</v>
       </c>
       <c r="L33" t="n">
         <v>28.75</v>
@@ -1962,7 +1984,7 @@
         <v>2.799999999999994</v>
       </c>
       <c r="K34" t="n">
-        <v>12.49999999999997</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L34" t="n">
         <v>28.77999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>2.799999999999994</v>
       </c>
       <c r="K35" t="n">
-        <v>12.49999999999997</v>
+        <v>66.66666666666627</v>
       </c>
       <c r="L35" t="n">
         <v>28.78999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>2.799999999999994</v>
       </c>
       <c r="K36" t="n">
-        <v>12.49999999999997</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L36" t="n">
         <v>28.82999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>2.999999999999993</v>
       </c>
       <c r="K37" t="n">
-        <v>12.49999999999997</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L37" t="n">
         <v>28.82999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>3.299999999999994</v>
       </c>
       <c r="K38" t="n">
-        <v>22.22222222222218</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L38" t="n">
         <v>28.84999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>3.399999999999995</v>
       </c>
       <c r="K39" t="n">
-        <v>26.31578947368423</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L39" t="n">
         <v>28.87999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>3.399999999999995</v>
       </c>
       <c r="K40" t="n">
-        <v>22.22222222222233</v>
+        <v>42.857142857143</v>
       </c>
       <c r="L40" t="n">
         <v>28.91999999999999</v>
@@ -2319,7 +2341,7 @@
         <v>3.399999999999995</v>
       </c>
       <c r="K41" t="n">
-        <v>22.22222222222233</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L41" t="n">
         <v>28.95</v>
@@ -2370,7 +2392,7 @@
         <v>3.599999999999998</v>
       </c>
       <c r="K42" t="n">
-        <v>9.999999999999947</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>28.95</v>
@@ -2421,7 +2443,7 @@
         <v>3.800000000000001</v>
       </c>
       <c r="K43" t="n">
-        <v>18.18181818181823</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L43" t="n">
         <v>28.97</v>
@@ -2472,7 +2494,7 @@
         <v>3.899999999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>27.2727272727271</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L44" t="n">
         <v>29</v>
@@ -2523,7 +2545,7 @@
         <v>4.199999999999999</v>
       </c>
       <c r="K45" t="n">
-        <v>30.43478260869551</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L45" t="n">
         <v>29.06</v>
@@ -2574,7 +2596,7 @@
         <v>4.5</v>
       </c>
       <c r="K46" t="n">
-        <v>30.43478260869551</v>
+        <v>33.33333333333318</v>
       </c>
       <c r="L46" t="n">
         <v>29.09</v>
@@ -2625,7 +2647,7 @@
         <v>4.600000000000001</v>
       </c>
       <c r="K47" t="n">
-        <v>27.27272727272722</v>
+        <v>23.07692307692299</v>
       </c>
       <c r="L47" t="n">
         <v>29.15000000000001</v>
@@ -2676,7 +2698,7 @@
         <v>4.900000000000002</v>
       </c>
       <c r="K48" t="n">
-        <v>8.333333333333272</v>
+        <v>-6.66666666666673</v>
       </c>
       <c r="L48" t="n">
         <v>29.15000000000001</v>
@@ -2727,7 +2749,7 @@
         <v>5.000000000000004</v>
       </c>
       <c r="K49" t="n">
-        <v>11.99999999999998</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>29.15000000000001</v>
@@ -2778,7 +2800,7 @@
         <v>5.100000000000001</v>
       </c>
       <c r="K50" t="n">
-        <v>19.99999999999994</v>
+        <v>5.882352941176324</v>
       </c>
       <c r="L50" t="n">
         <v>29.16</v>
@@ -2829,7 +2851,7 @@
         <v>5.100000000000001</v>
       </c>
       <c r="K51" t="n">
-        <v>16.66666666666657</v>
+        <v>20</v>
       </c>
       <c r="L51" t="n">
         <v>29.17</v>
@@ -2880,7 +2902,7 @@
         <v>5.100000000000001</v>
       </c>
       <c r="K52" t="n">
-        <v>13.04347826086955</v>
+        <v>7.692307692307525</v>
       </c>
       <c r="L52" t="n">
         <v>29.2</v>
@@ -2931,7 +2953,7 @@
         <v>5.100000000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>13.04347826086955</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>29.21</v>
@@ -2982,7 +3004,7 @@
         <v>5.100000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>13.04347826086955</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L54" t="n">
         <v>29.21</v>
@@ -3033,7 +3055,7 @@
         <v>5.100000000000001</v>
       </c>
       <c r="K55" t="n">
-        <v>13.04347826086955</v>
+        <v>0</v>
       </c>
       <c r="L55" t="n">
         <v>29.18</v>
@@ -3084,7 +3106,7 @@
         <v>5.199999999999999</v>
       </c>
       <c r="K56" t="n">
-        <v>8.333333333333432</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L56" t="n">
         <v>29.17</v>
@@ -3135,7 +3157,7 @@
         <v>5.199999999999999</v>
       </c>
       <c r="K57" t="n">
-        <v>18.18181818181823</v>
+        <v>33.33333333333412</v>
       </c>
       <c r="L57" t="n">
         <v>29.15</v>
@@ -3186,7 +3208,7 @@
         <v>5.199999999999999</v>
       </c>
       <c r="K58" t="n">
-        <v>5.263157894736901</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>29.16</v>
@@ -3237,7 +3259,7 @@
         <v>5.400000000000002</v>
       </c>
       <c r="K59" t="n">
-        <v>-10.00000000000011</v>
+        <v>-100</v>
       </c>
       <c r="L59" t="n">
         <v>29.14</v>
@@ -3288,7 +3310,7 @@
         <v>5.700000000000003</v>
       </c>
       <c r="K60" t="n">
-        <v>4.347826086956414</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>29.14</v>
@@ -3339,7 +3361,7 @@
         <v>5.800000000000001</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>-14.285714285714</v>
       </c>
       <c r="L61" t="n">
         <v>29.13</v>
@@ -3390,7 +3412,7 @@
         <v>6.000000000000004</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L62" t="n">
         <v>29.1</v>
@@ -3441,7 +3463,7 @@
         <v>6.000000000000004</v>
       </c>
       <c r="K63" t="n">
-        <v>-9.090909090909207</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L63" t="n">
         <v>29.07</v>
@@ -3492,7 +3514,7 @@
         <v>6.100000000000005</v>
       </c>
       <c r="K64" t="n">
-        <v>-9.090909090909033</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L64" t="n">
         <v>29.05</v>
@@ -3543,7 +3565,7 @@
         <v>6.100000000000005</v>
       </c>
       <c r="K65" t="n">
-        <v>-26.31578947368413</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L65" t="n">
         <v>29.03</v>
@@ -3594,7 +3616,7 @@
         <v>6.200000000000006</v>
       </c>
       <c r="K66" t="n">
-        <v>-5.882352941176324</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>29.03</v>
@@ -3645,7 +3667,7 @@
         <v>6.200000000000006</v>
       </c>
       <c r="K67" t="n">
-        <v>-12.49999999999992</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>29.03</v>
@@ -3696,7 +3718,7 @@
         <v>6.300000000000008</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L68" t="n">
         <v>29.02</v>
@@ -3747,7 +3769,7 @@
         <v>6.500000000000007</v>
       </c>
       <c r="K69" t="n">
-        <v>6.666666666666508</v>
+        <v>0</v>
       </c>
       <c r="L69" t="n">
         <v>29.05</v>
@@ -3798,7 +3820,7 @@
         <v>6.600000000000009</v>
       </c>
       <c r="K70" t="n">
-        <v>6.66666666666673</v>
+        <v>24.99999999999967</v>
       </c>
       <c r="L70" t="n">
         <v>29.06</v>
@@ -3849,7 +3871,7 @@
         <v>6.600000000000009</v>
       </c>
       <c r="K71" t="n">
-        <v>6.66666666666673</v>
+        <v>66.66666666666647</v>
       </c>
       <c r="L71" t="n">
         <v>29.08</v>
@@ -3900,7 +3922,7 @@
         <v>6.600000000000009</v>
       </c>
       <c r="K72" t="n">
-        <v>6.66666666666673</v>
+        <v>66.66666666666647</v>
       </c>
       <c r="L72" t="n">
         <v>29.12</v>
@@ -3951,7 +3973,7 @@
         <v>6.600000000000009</v>
       </c>
       <c r="K73" t="n">
-        <v>6.66666666666673</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L73" t="n">
         <v>29.16000000000001</v>
@@ -4002,7 +4024,7 @@
         <v>6.600000000000009</v>
       </c>
       <c r="K74" t="n">
-        <v>6.66666666666673</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L74" t="n">
         <v>29.19000000000001</v>
@@ -4053,7 +4075,7 @@
         <v>6.600000000000009</v>
       </c>
       <c r="K75" t="n">
-        <v>6.66666666666673</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L75" t="n">
         <v>29.22000000000001</v>
@@ -4104,7 +4126,7 @@
         <v>6.600000000000009</v>
       </c>
       <c r="K76" t="n">
-        <v>14.28571428571414</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L76" t="n">
         <v>29.24000000000001</v>
@@ -4155,7 +4177,7 @@
         <v>6.600000000000009</v>
       </c>
       <c r="K77" t="n">
-        <v>14.28571428571414</v>
+        <v>100</v>
       </c>
       <c r="L77" t="n">
         <v>29.26000000000001</v>
@@ -4206,7 +4228,7 @@
         <v>6.800000000000008</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>-33.33333333333254</v>
       </c>
       <c r="L78" t="n">
         <v>29.27000000000001</v>
@@ -4257,7 +4279,7 @@
         <v>7.000000000000007</v>
       </c>
       <c r="K79" t="n">
-        <v>25.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="L79" t="n">
         <v>29.28000000000001</v>
@@ -4308,7 +4330,7 @@
         <v>7.100000000000005</v>
       </c>
       <c r="K80" t="n">
-        <v>14.28571428571421</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L80" t="n">
         <v>29.29000000000001</v>
@@ -4359,7 +4381,7 @@
         <v>7.400000000000002</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L81" t="n">
         <v>29.27000000000001</v>
@@ -4410,7 +4432,7 @@
         <v>7.500000000000004</v>
       </c>
       <c r="K82" t="n">
-        <v>6.666666666666761</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L82" t="n">
         <v>29.24000000000001</v>
@@ -4461,7 +4483,7 @@
         <v>7.500000000000004</v>
       </c>
       <c r="K83" t="n">
-        <v>6.666666666666761</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L83" t="n">
         <v>29.21000000000001</v>
@@ -4512,7 +4534,7 @@
         <v>7.800000000000004</v>
       </c>
       <c r="K84" t="n">
-        <v>-17.64705882352946</v>
+        <v>-50.0000000000003</v>
       </c>
       <c r="L84" t="n">
         <v>29.15000000000001</v>
@@ -4563,7 +4585,7 @@
         <v>8.100000000000005</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="L85" t="n">
         <v>29.12</v>
@@ -4614,7 +4636,7 @@
         <v>8.400000000000006</v>
       </c>
       <c r="K86" t="n">
-        <v>-18.18181818181829</v>
+        <v>-33.33333333333346</v>
       </c>
       <c r="L86" t="n">
         <v>29.06</v>
@@ -4665,7 +4687,7 @@
         <v>8.500000000000004</v>
       </c>
       <c r="K87" t="n">
-        <v>-21.73913043478263</v>
+        <v>-29.41176470588243</v>
       </c>
       <c r="L87" t="n">
         <v>28.99</v>
@@ -4716,7 +4738,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="K88" t="n">
-        <v>-4.000000000000068</v>
+        <v>-22.22222222222242</v>
       </c>
       <c r="L88" t="n">
         <v>28.97</v>
@@ -4767,7 +4789,7 @@
         <v>8.900000000000002</v>
       </c>
       <c r="K89" t="n">
-        <v>-8.33333333333332</v>
+        <v>-22.22222222222218</v>
       </c>
       <c r="L89" t="n">
         <v>28.94</v>
@@ -4818,7 +4840,7 @@
         <v>9.100000000000001</v>
       </c>
       <c r="K90" t="n">
-        <v>-20.00000000000006</v>
+        <v>-17.64705882352946</v>
       </c>
       <c r="L90" t="n">
         <v>28.88</v>
@@ -4869,7 +4891,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="K91" t="n">
-        <v>-11.11111111111117</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>28.87</v>
@@ -4920,7 +4942,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="K92" t="n">
-        <v>-22.58064516129037</v>
+        <v>-18.18181818181815</v>
       </c>
       <c r="L92" t="n">
         <v>28.83</v>
@@ -4971,7 +4993,7 @@
         <v>9.999999999999996</v>
       </c>
       <c r="K93" t="n">
-        <v>-11.76470588235305</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L93" t="n">
         <v>28.82</v>
@@ -5022,7 +5044,7 @@
         <v>10.2</v>
       </c>
       <c r="K94" t="n">
-        <v>-16.66666666666677</v>
+        <v>-14.28571428571438</v>
       </c>
       <c r="L94" t="n">
         <v>28.82</v>
@@ -5073,7 +5095,7 @@
         <v>10.2</v>
       </c>
       <c r="K95" t="n">
-        <v>-16.66666666666677</v>
+        <v>0</v>
       </c>
       <c r="L95" t="n">
         <v>28.79</v>
@@ -5124,7 +5146,7 @@
         <v>10.3</v>
       </c>
       <c r="K96" t="n">
-        <v>-13.51351351351356</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L96" t="n">
         <v>28.8</v>
@@ -5175,7 +5197,7 @@
         <v>10.3</v>
       </c>
       <c r="K97" t="n">
-        <v>-13.51351351351356</v>
+        <v>-6.66666666666654</v>
       </c>
       <c r="L97" t="n">
         <v>28.82</v>
@@ -5226,7 +5248,7 @@
         <v>10.4</v>
       </c>
       <c r="K98" t="n">
-        <v>-5.555555555555655</v>
+        <v>-6.666666666666793</v>
       </c>
       <c r="L98" t="n">
         <v>28.82</v>
@@ -5277,7 +5299,7 @@
         <v>10.49999999999999</v>
       </c>
       <c r="K99" t="n">
-        <v>-14.28571428571434</v>
+        <v>0</v>
       </c>
       <c r="L99" t="n">
         <v>28.8</v>
@@ -5328,7 +5350,7 @@
         <v>10.59999999999999</v>
       </c>
       <c r="K100" t="n">
-        <v>-20.00000000000004</v>
+        <v>-23.07692307692324</v>
       </c>
       <c r="L100" t="n">
         <v>28.79</v>
@@ -5379,7 +5401,7 @@
         <v>10.59999999999999</v>
       </c>
       <c r="K101" t="n">
-        <v>-12.5000000000001</v>
+        <v>11.11111111111093</v>
       </c>
       <c r="L101" t="n">
         <v>28.76</v>
@@ -5430,7 +5452,7 @@
         <v>10.59999999999999</v>
       </c>
       <c r="K102" t="n">
-        <v>-9.677419354838761</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L102" t="n">
         <v>28.76999999999999</v>
@@ -5481,7 +5503,7 @@
         <v>10.59999999999999</v>
       </c>
       <c r="K103" t="n">
-        <v>-9.677419354838761</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>28.74999999999999</v>
@@ -5532,7 +5554,7 @@
         <v>10.79999999999999</v>
       </c>
       <c r="K104" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L104" t="n">
         <v>28.76999999999999</v>
@@ -5583,7 +5605,7 @@
         <v>10.79999999999999</v>
       </c>
       <c r="K105" t="n">
-        <v>-3.703703703703772</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L105" t="n">
         <v>28.78999999999999</v>
@@ -5634,7 +5656,7 @@
         <v>10.99999999999999</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L106" t="n">
         <v>28.77999999999999</v>
@@ -5685,7 +5707,7 @@
         <v>11.29999999999999</v>
       </c>
       <c r="K107" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L107" t="n">
         <v>28.79999999999999</v>
@@ -5736,7 +5758,7 @@
         <v>11.4</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L108" t="n">
         <v>28.79999999999999</v>
@@ -5787,7 +5809,7 @@
         <v>11.4</v>
       </c>
       <c r="K109" t="n">
-        <v>-4.000000000000068</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L109" t="n">
         <v>28.80999999999998</v>
@@ -5838,7 +5860,7 @@
         <v>11.59999999999999</v>
       </c>
       <c r="K110" t="n">
-        <v>-4.000000000000068</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>28.80999999999998</v>
@@ -5889,7 +5911,7 @@
         <v>11.9</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>23.07692307692312</v>
       </c>
       <c r="L111" t="n">
         <v>28.83999999999999</v>
@@ -5940,7 +5962,7 @@
         <v>12</v>
       </c>
       <c r="K112" t="n">
-        <v>21.73913043478263</v>
+        <v>28.57142857142868</v>
       </c>
       <c r="L112" t="n">
         <v>28.87999999999999</v>
@@ -5991,7 +6013,7 @@
         <v>12</v>
       </c>
       <c r="K113" t="n">
-        <v>10.00000000000014</v>
+        <v>16.66666666666686</v>
       </c>
       <c r="L113" t="n">
         <v>28.91999999999999</v>
@@ -6042,7 +6064,7 @@
         <v>12.09999999999999</v>
       </c>
       <c r="K114" t="n">
-        <v>26.31578947368423</v>
+        <v>23.07692307692312</v>
       </c>
       <c r="L114" t="n">
         <v>28.95</v>
@@ -6093,7 +6115,7 @@
         <v>12.09999999999999</v>
       </c>
       <c r="K115" t="n">
-        <v>26.31578947368423</v>
+        <v>45.4545454545454</v>
       </c>
       <c r="L115" t="n">
         <v>28.98</v>
@@ -6144,7 +6166,7 @@
         <v>12.2</v>
       </c>
       <c r="K116" t="n">
-        <v>26.31578947368423</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L116" t="n">
         <v>29.04</v>
@@ -6195,7 +6217,7 @@
         <v>12.2</v>
       </c>
       <c r="K117" t="n">
-        <v>26.31578947368423</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L117" t="n">
         <v>29.07</v>
@@ -6246,7 +6268,7 @@
         <v>12.3</v>
       </c>
       <c r="K118" t="n">
-        <v>15.78947368421055</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L118" t="n">
         <v>29.1</v>
@@ -6297,7 +6319,7 @@
         <v>12.3</v>
       </c>
       <c r="K119" t="n">
-        <v>22.22222222222209</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L119" t="n">
         <v>29.13</v>
@@ -6348,7 +6370,7 @@
         <v>12.3</v>
       </c>
       <c r="K120" t="n">
-        <v>29.41176470588231</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L120" t="n">
         <v>29.18</v>
@@ -6399,7 +6421,7 @@
         <v>12.3</v>
       </c>
       <c r="K121" t="n">
-        <v>29.41176470588231</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L121" t="n">
         <v>29.2</v>
@@ -6450,7 +6472,7 @@
         <v>12.3</v>
       </c>
       <c r="K122" t="n">
-        <v>29.41176470588231</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L122" t="n">
         <v>29.21</v>
@@ -6501,7 +6523,7 @@
         <v>12.3</v>
       </c>
       <c r="K123" t="n">
-        <v>29.41176470588231</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>29.21999999999999</v>
@@ -6552,7 +6574,7 @@
         <v>12.3</v>
       </c>
       <c r="K124" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L124" t="n">
         <v>29.21999999999999</v>
@@ -6603,7 +6625,7 @@
         <v>12.3</v>
       </c>
       <c r="K125" t="n">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="L125" t="n">
         <v>29.21999999999999</v>
@@ -6654,7 +6676,7 @@
         <v>12.3</v>
       </c>
       <c r="K126" t="n">
-        <v>38.46153846153834</v>
+        <v>-100</v>
       </c>
       <c r="L126" t="n">
         <v>29.20999999999999</v>
@@ -6705,7 +6727,7 @@
         <v>12.4</v>
       </c>
       <c r="K127" t="n">
-        <v>9.090909090909207</v>
+        <v>-100</v>
       </c>
       <c r="L127" t="n">
         <v>29.18999999999999</v>
@@ -6756,7 +6778,7 @@
         <v>12.4</v>
       </c>
       <c r="K128" t="n">
-        <v>20.00000000000028</v>
+        <v>-100</v>
       </c>
       <c r="L128" t="n">
         <v>29.18</v>
@@ -6807,7 +6829,7 @@
         <v>12.4</v>
       </c>
       <c r="K129" t="n">
-        <v>20.00000000000028</v>
+        <v>-100</v>
       </c>
       <c r="L129" t="n">
         <v>29.17</v>
@@ -6858,7 +6880,7 @@
         <v>12.49999999999999</v>
       </c>
       <c r="K130" t="n">
-        <v>55.55555555555565</v>
+        <v>0</v>
       </c>
       <c r="L130" t="n">
         <v>29.17</v>
@@ -6909,7 +6931,7 @@
         <v>12.59999999999999</v>
       </c>
       <c r="K131" t="n">
-        <v>14.28571428571458</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L131" t="n">
         <v>29.16</v>
@@ -6960,7 +6982,7 @@
         <v>12.79999999999999</v>
       </c>
       <c r="K132" t="n">
-        <v>25.00000000000011</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L132" t="n">
         <v>29.17000000000001</v>
@@ -7011,7 +7033,7 @@
         <v>12.79999999999999</v>
       </c>
       <c r="K133" t="n">
-        <v>25.00000000000011</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L133" t="n">
         <v>29.18000000000001</v>
@@ -7062,7 +7084,7 @@
         <v>12.79999999999999</v>
       </c>
       <c r="K134" t="n">
-        <v>14.28571428571458</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L134" t="n">
         <v>29.19000000000001</v>
@@ -7113,7 +7135,7 @@
         <v>12.79999999999999</v>
       </c>
       <c r="K135" t="n">
-        <v>14.28571428571458</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L135" t="n">
         <v>29.20000000000001</v>
@@ -7164,7 +7186,7 @@
         <v>12.79999999999999</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L136" t="n">
         <v>29.21000000000002</v>
@@ -7215,7 +7237,7 @@
         <v>12.79999999999999</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L137" t="n">
         <v>29.23000000000001</v>
@@ -7266,7 +7288,7 @@
         <v>12.89999999999999</v>
       </c>
       <c r="K138" t="n">
-        <v>0</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L138" t="n">
         <v>29.24000000000001</v>
@@ -7317,7 +7339,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K139" t="n">
-        <v>14.28571428571458</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L139" t="n">
         <v>29.26000000000001</v>
@@ -7368,7 +7390,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K140" t="n">
-        <v>14.28571428571458</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L140" t="n">
         <v>29.27000000000001</v>
@@ -7419,7 +7441,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K141" t="n">
-        <v>14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L141" t="n">
         <v>29.29000000000001</v>
@@ -7470,7 +7492,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K142" t="n">
-        <v>14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L142" t="n">
         <v>29.29000000000001</v>
@@ -7521,7 +7543,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K143" t="n">
-        <v>14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L143" t="n">
         <v>29.29000000000001</v>
@@ -7572,7 +7594,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K144" t="n">
-        <v>14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
         <v>29.29000000000001</v>
@@ -7623,7 +7645,7 @@
         <v>12.99999999999999</v>
       </c>
       <c r="K145" t="n">
-        <v>14.28571428571458</v>
+        <v>0</v>
       </c>
       <c r="L145" t="n">
         <v>29.29000000000001</v>
@@ -7674,7 +7696,7 @@
         <v>13.09999999999999</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L146" t="n">
         <v>29.28000000000001</v>
@@ -7725,7 +7747,7 @@
         <v>13.09999999999999</v>
       </c>
       <c r="K147" t="n">
-        <v>14.285714285714</v>
+        <v>0</v>
       </c>
       <c r="L147" t="n">
         <v>29.27</v>
@@ -7776,7 +7798,7 @@
         <v>13.19999999999999</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L148" t="n">
         <v>29.26000000000001</v>
@@ -7827,7 +7849,7 @@
         <v>13.19999999999999</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L149" t="n">
         <v>29.24000000000001</v>
@@ -7878,7 +7900,7 @@
         <v>13.29999999999999</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L150" t="n">
         <v>29.23000000000001</v>
@@ -7929,7 +7951,7 @@
         <v>13.29999999999999</v>
       </c>
       <c r="K151" t="n">
-        <v>14.285714285714</v>
+        <v>-33.33333333333412</v>
       </c>
       <c r="L151" t="n">
         <v>29.22000000000001</v>
@@ -7980,7 +8002,7 @@
         <v>13.39999999999999</v>
       </c>
       <c r="K152" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L152" t="n">
         <v>29.20000000000001</v>
@@ -8031,7 +8053,7 @@
         <v>13.49999999999999</v>
       </c>
       <c r="K153" t="n">
-        <v>-42.857142857143</v>
+        <v>-60.00000000000056</v>
       </c>
       <c r="L153" t="n">
         <v>29.17000000000001</v>
@@ -8082,7 +8104,7 @@
         <v>13.59999999999999</v>
       </c>
       <c r="K154" t="n">
-        <v>-24.99999999999989</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L154" t="n">
         <v>29.15000000000001</v>
@@ -8133,7 +8155,7 @@
         <v>13.69999999999999</v>
       </c>
       <c r="K155" t="n">
-        <v>-11.11111111111129</v>
+        <v>0</v>
       </c>
       <c r="L155" t="n">
         <v>29.14</v>
@@ -8184,7 +8206,7 @@
         <v>13.79999999999999</v>
       </c>
       <c r="K156" t="n">
-        <v>-20</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L156" t="n">
         <v>29.13000000000001</v>
@@ -8235,7 +8257,7 @@
         <v>13.89999999999998</v>
       </c>
       <c r="K157" t="n">
-        <v>-9.090909090909268</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L157" t="n">
         <v>29.13000000000001</v>
@@ -8286,7 +8308,7 @@
         <v>13.89999999999998</v>
       </c>
       <c r="K158" t="n">
-        <v>0</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L158" t="n">
         <v>29.14</v>
@@ -8337,7 +8359,7 @@
         <v>13.89999999999998</v>
       </c>
       <c r="K159" t="n">
-        <v>-11.11111111111137</v>
+        <v>0</v>
       </c>
       <c r="L159" t="n">
         <v>29.15</v>
@@ -8388,7 +8410,7 @@
         <v>13.99999999999998</v>
       </c>
       <c r="K160" t="n">
-        <v>-20.00000000000014</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L160" t="n">
         <v>29.14</v>
@@ -8439,7 +8461,7 @@
         <v>14.09999999999998</v>
       </c>
       <c r="K161" t="n">
-        <v>-9.090909090909326</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L161" t="n">
         <v>29.14</v>
@@ -8490,7 +8512,7 @@
         <v>14.19999999999998</v>
       </c>
       <c r="K162" t="n">
-        <v>0</v>
+        <v>42.85714285714344</v>
       </c>
       <c r="L162" t="n">
         <v>29.16</v>
@@ -8541,7 +8563,7 @@
         <v>14.19999999999998</v>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L163" t="n">
         <v>29.19</v>
@@ -8592,7 +8614,7 @@
         <v>14.29999999999998</v>
       </c>
       <c r="K164" t="n">
-        <v>-7.69230769230786</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>29.2</v>
@@ -8643,7 +8665,7 @@
         <v>14.29999999999998</v>
       </c>
       <c r="K165" t="n">
-        <v>-7.69230769230786</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L165" t="n">
         <v>29.2</v>
@@ -8745,7 +8767,7 @@
         <v>14.39999999999998</v>
       </c>
       <c r="K167" t="n">
-        <v>7.69230769230786</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L167" t="n">
         <v>29.22</v>
@@ -8796,7 +8818,7 @@
         <v>14.49999999999999</v>
       </c>
       <c r="K168" t="n">
-        <v>7.692307692307566</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
         <v>29.22</v>
@@ -8949,7 +8971,7 @@
         <v>14.69999999999998</v>
       </c>
       <c r="K171" t="n">
-        <v>0</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L171" t="n">
         <v>29.22</v>
@@ -9000,7 +9022,7 @@
         <v>14.79999999999998</v>
       </c>
       <c r="K172" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L172" t="n">
         <v>29.2</v>
@@ -9051,7 +9073,7 @@
         <v>14.99999999999998</v>
       </c>
       <c r="K173" t="n">
-        <v>-6.666666666666793</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L173" t="n">
         <v>29.16</v>
@@ -9102,7 +9124,7 @@
         <v>15.29999999999998</v>
       </c>
       <c r="K174" t="n">
-        <v>5.882352941176372</v>
+        <v>0</v>
       </c>
       <c r="L174" t="n">
         <v>29.16</v>
@@ -9153,7 +9175,7 @@
         <v>15.49999999999998</v>
       </c>
       <c r="K175" t="n">
-        <v>-11.11111111111111</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L175" t="n">
         <v>29.14</v>
@@ -9204,7 +9226,7 @@
         <v>15.49999999999998</v>
       </c>
       <c r="K176" t="n">
-        <v>-5.882352941176569</v>
+        <v>-27.27272727272739</v>
       </c>
       <c r="L176" t="n">
         <v>29.12</v>
@@ -9306,7 +9328,7 @@
         <v>15.79999999999998</v>
       </c>
       <c r="K178" t="n">
-        <v>-5.263157894736744</v>
+        <v>0</v>
       </c>
       <c r="L178" t="n">
         <v>29.1</v>
@@ -9408,7 +9430,7 @@
         <v>16.09999999999998</v>
       </c>
       <c r="K180" t="n">
-        <v>-4.761904761904842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L180" t="n">
         <v>29.09</v>
@@ -9459,7 +9481,7 @@
         <v>16.19999999999998</v>
       </c>
       <c r="K181" t="n">
-        <v>-4.761904761904665</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>29.08</v>
@@ -9510,7 +9532,7 @@
         <v>16.19999999999998</v>
       </c>
       <c r="K182" t="n">
-        <v>-9.999999999999982</v>
+        <v>16.66666666666696</v>
       </c>
       <c r="L182" t="n">
         <v>29.08</v>
@@ -9561,7 +9583,7 @@
         <v>16.19999999999998</v>
       </c>
       <c r="K183" t="n">
-        <v>-9.999999999999982</v>
+        <v>-11.11111111111093</v>
       </c>
       <c r="L183" t="n">
         <v>29.1</v>
@@ -9612,7 +9634,7 @@
         <v>16.39999999999998</v>
       </c>
       <c r="K184" t="n">
-        <v>-14.28571428571433</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L184" t="n">
         <v>29.07</v>
@@ -9663,7 +9685,7 @@
         <v>16.49999999999998</v>
       </c>
       <c r="K185" t="n">
-        <v>-9.090909090909062</v>
+        <v>0</v>
       </c>
       <c r="L185" t="n">
         <v>29.07</v>
@@ -9714,7 +9736,7 @@
         <v>16.49999999999998</v>
       </c>
       <c r="K186" t="n">
-        <v>-9.090909090909062</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L186" t="n">
         <v>29.07</v>
@@ -9765,7 +9787,7 @@
         <v>16.69999999999998</v>
       </c>
       <c r="K187" t="n">
-        <v>-21.73913043478263</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L187" t="n">
         <v>29.03000000000001</v>
@@ -9816,7 +9838,7 @@
         <v>16.79999999999998</v>
       </c>
       <c r="K188" t="n">
-        <v>-13.04347826086963</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L188" t="n">
         <v>29.01</v>
@@ -9867,7 +9889,7 @@
         <v>16.89999999999998</v>
       </c>
       <c r="K189" t="n">
-        <v>-13.04347826086963</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L189" t="n">
         <v>28.97000000000001</v>
@@ -9918,7 +9940,7 @@
         <v>17.09999999999998</v>
       </c>
       <c r="K190" t="n">
-        <v>-8.33333333333332</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L190" t="n">
         <v>28.97000000000001</v>
@@ -9969,7 +9991,7 @@
         <v>17.19999999999998</v>
       </c>
       <c r="K191" t="n">
-        <v>-3.99999999999992</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>28.97000000000001</v>
@@ -10071,7 +10093,7 @@
         <v>17.29999999999998</v>
       </c>
       <c r="K193" t="n">
-        <v>4.347826086956589</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L193" t="n">
         <v>28.96</v>
@@ -10122,7 +10144,7 @@
         <v>17.29999999999998</v>
       </c>
       <c r="K194" t="n">
-        <v>-9.999999999999982</v>
+        <v>0</v>
       </c>
       <c r="L194" t="n">
         <v>28.97000000000001</v>
@@ -10224,7 +10246,7 @@
         <v>17.29999999999998</v>
       </c>
       <c r="K196" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L196" t="n">
         <v>28.97000000000001</v>
@@ -10275,7 +10297,7 @@
         <v>17.39999999999998</v>
       </c>
       <c r="K197" t="n">
-        <v>-5.882352941176348</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L197" t="n">
         <v>29.00000000000001</v>
@@ -10326,7 +10348,7 @@
         <v>17.39999999999998</v>
       </c>
       <c r="K198" t="n">
-        <v>0</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L198" t="n">
         <v>29.02000000000001</v>
@@ -10377,7 +10399,7 @@
         <v>17.49999999999998</v>
       </c>
       <c r="K199" t="n">
-        <v>-12.49999999999992</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
         <v>29.04000000000001</v>
@@ -10428,7 +10450,7 @@
         <v>17.49999999999998</v>
       </c>
       <c r="K200" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L200" t="n">
         <v>29.04000000000001</v>
@@ -10479,7 +10501,7 @@
         <v>17.79999999999998</v>
       </c>
       <c r="K201" t="n">
-        <v>-25.00000000000006</v>
+        <v>-66.66666666666647</v>
       </c>
       <c r="L201" t="n">
         <v>29.00000000000001</v>
@@ -10530,7 +10552,7 @@
         <v>18.19999999999999</v>
       </c>
       <c r="K202" t="n">
-        <v>0</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L202" t="n">
         <v>29.00000000000001</v>
@@ -10581,7 +10603,7 @@
         <v>18.49999999999999</v>
       </c>
       <c r="K203" t="n">
-        <v>-13.04347826086955</v>
+        <v>-16.66666666666652</v>
       </c>
       <c r="L203" t="n">
         <v>28.98000000000001</v>
@@ -10632,7 +10654,7 @@
         <v>18.59999999999998</v>
       </c>
       <c r="K204" t="n">
-        <v>0</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L204" t="n">
         <v>28.97000000000001</v>
@@ -10683,7 +10705,7 @@
         <v>18.79999999999998</v>
       </c>
       <c r="K205" t="n">
-        <v>-13.04347826086959</v>
+        <v>-20</v>
       </c>
       <c r="L205" t="n">
         <v>28.94</v>
@@ -10734,7 +10756,7 @@
         <v>18.89999999999998</v>
       </c>
       <c r="K206" t="n">
-        <v>-16.66666666666662</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L206" t="n">
         <v>28.90000000000001</v>
@@ -10785,7 +10807,7 @@
         <v>18.99999999999998</v>
       </c>
       <c r="K207" t="n">
-        <v>-4.347826086956589</v>
+        <v>-25.00000000000017</v>
       </c>
       <c r="L207" t="n">
         <v>28.86</v>
@@ -10836,7 +10858,7 @@
         <v>18.99999999999998</v>
       </c>
       <c r="K208" t="n">
-        <v>-9.090909090909062</v>
+        <v>-20.0000000000001</v>
       </c>
       <c r="L208" t="n">
         <v>28.82</v>
@@ -10887,7 +10909,7 @@
         <v>19.09999999999998</v>
       </c>
       <c r="K209" t="n">
-        <v>-9.090909090909062</v>
+        <v>-25</v>
       </c>
       <c r="L209" t="n">
         <v>28.78</v>
@@ -10938,7 +10960,7 @@
         <v>19.19999999999997</v>
       </c>
       <c r="K210" t="n">
-        <v>-14.28571428571433</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
         <v>28.75</v>
@@ -10989,7 +11011,7 @@
         <v>19.19999999999997</v>
       </c>
       <c r="K211" t="n">
-        <v>-20.00000000000014</v>
+        <v>-40.00000000000064</v>
       </c>
       <c r="L211" t="n">
         <v>28.75</v>
@@ -11040,7 +11062,7 @@
         <v>19.19999999999997</v>
       </c>
       <c r="K212" t="n">
-        <v>-20.00000000000014</v>
+        <v>-14.28571428571472</v>
       </c>
       <c r="L212" t="n">
         <v>28.71</v>
@@ -11091,7 +11113,7 @@
         <v>19.29999999999997</v>
       </c>
       <c r="K213" t="n">
-        <v>-20</v>
+        <v>-42.85714285714315</v>
       </c>
       <c r="L213" t="n">
         <v>28.69</v>
@@ -11142,7 +11164,7 @@
         <v>19.39999999999997</v>
       </c>
       <c r="K214" t="n">
-        <v>-23.80952380952387</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L214" t="n">
         <v>28.65</v>
@@ -11193,7 +11215,7 @@
         <v>19.59999999999997</v>
       </c>
       <c r="K215" t="n">
-        <v>-13.04347826086963</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L215" t="n">
         <v>28.65</v>
@@ -11244,7 +11266,7 @@
         <v>19.59999999999997</v>
       </c>
       <c r="K216" t="n">
-        <v>-13.04347826086963</v>
+        <v>0</v>
       </c>
       <c r="L216" t="n">
         <v>28.66</v>
@@ -11295,7 +11317,7 @@
         <v>19.69999999999997</v>
       </c>
       <c r="K217" t="n">
-        <v>-21.7391304347827</v>
+        <v>-14.28571428571414</v>
       </c>
       <c r="L217" t="n">
         <v>28.65</v>
@@ -11346,7 +11368,7 @@
         <v>19.69999999999997</v>
       </c>
       <c r="K218" t="n">
-        <v>-21.7391304347827</v>
+        <v>0</v>
       </c>
       <c r="L218" t="n">
         <v>28.64</v>
@@ -11397,7 +11419,7 @@
         <v>19.79999999999997</v>
       </c>
       <c r="K219" t="n">
-        <v>-13.04347826086967</v>
+        <v>0</v>
       </c>
       <c r="L219" t="n">
         <v>28.65</v>
@@ -11448,7 +11470,7 @@
         <v>19.89999999999997</v>
       </c>
       <c r="K220" t="n">
-        <v>-8.333333333333345</v>
+        <v>14.28571428571458</v>
       </c>
       <c r="L220" t="n">
         <v>28.66</v>
@@ -11499,7 +11521,7 @@
         <v>20.09999999999997</v>
       </c>
       <c r="K221" t="n">
-        <v>13.04347826086967</v>
+        <v>33.3333333333336</v>
       </c>
       <c r="L221" t="n">
         <v>28.69</v>
@@ -11550,7 +11572,7 @@
         <v>20.09999999999997</v>
       </c>
       <c r="K222" t="n">
-        <v>-5.263157894736961</v>
+        <v>50</v>
       </c>
       <c r="L222" t="n">
         <v>28.72000000000001</v>
@@ -11601,7 +11623,7 @@
         <v>20.09999999999997</v>
       </c>
       <c r="K223" t="n">
-        <v>12.50000000000008</v>
+        <v>71.42857142857186</v>
       </c>
       <c r="L223" t="n">
         <v>28.76</v>
@@ -11652,7 +11674,7 @@
         <v>20.19999999999997</v>
       </c>
       <c r="K224" t="n">
-        <v>12.50000000000028</v>
+        <v>66.66666666666727</v>
       </c>
       <c r="L224" t="n">
         <v>28.82</v>
@@ -11703,7 +11725,7 @@
         <v>20.19999999999997</v>
       </c>
       <c r="K225" t="n">
-        <v>28.57142857142897</v>
+        <v>66.66666666666727</v>
       </c>
       <c r="L225" t="n">
         <v>28.86000000000001</v>
@@ -11754,7 +11776,7 @@
         <v>20.19999999999997</v>
       </c>
       <c r="K226" t="n">
-        <v>38.46153846153876</v>
+        <v>100</v>
       </c>
       <c r="L226" t="n">
         <v>28.90000000000001</v>
@@ -11805,7 +11827,7 @@
         <v>20.19999999999997</v>
       </c>
       <c r="K227" t="n">
-        <v>33.33333333333373</v>
+        <v>100</v>
       </c>
       <c r="L227" t="n">
         <v>28.95000000000001</v>
@@ -11856,7 +11878,7 @@
         <v>20.19999999999997</v>
       </c>
       <c r="K228" t="n">
-        <v>33.33333333333373</v>
+        <v>100</v>
       </c>
       <c r="L228" t="n">
         <v>29.00000000000001</v>
@@ -11907,7 +11929,7 @@
         <v>20.19999999999997</v>
       </c>
       <c r="K229" t="n">
-        <v>45.45454545454569</v>
+        <v>100</v>
       </c>
       <c r="L229" t="n">
         <v>29.04000000000001</v>
@@ -11958,7 +11980,7 @@
         <v>20.19999999999997</v>
       </c>
       <c r="K230" t="n">
-        <v>40.00000000000036</v>
+        <v>100</v>
       </c>
       <c r="L230" t="n">
         <v>29.07000000000001</v>
@@ -12009,7 +12031,7 @@
         <v>20.19999999999997</v>
       </c>
       <c r="K231" t="n">
-        <v>40.00000000000036</v>
+        <v>100</v>
       </c>
       <c r="L231" t="n">
         <v>29.08000000000002</v>
@@ -12060,7 +12082,7 @@
         <v>20.19999999999997</v>
       </c>
       <c r="K232" t="n">
-        <v>40.00000000000036</v>
+        <v>100</v>
       </c>
       <c r="L232" t="n">
         <v>29.09000000000002</v>
@@ -12111,7 +12133,7 @@
         <v>20.29999999999997</v>
       </c>
       <c r="K233" t="n">
-        <v>39.99999999999986</v>
+        <v>-100</v>
       </c>
       <c r="L233" t="n">
         <v>29.09000000000002</v>
@@ -12162,7 +12184,7 @@
         <v>20.39999999999997</v>
       </c>
       <c r="K234" t="n">
-        <v>60.00000000000014</v>
+        <v>0</v>
       </c>
       <c r="L234" t="n">
         <v>29.09000000000002</v>
@@ -12213,7 +12235,7 @@
         <v>20.49999999999997</v>
       </c>
       <c r="K235" t="n">
-        <v>55.55555555555565</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L235" t="n">
         <v>29.10000000000002</v>
@@ -12264,7 +12286,7 @@
         <v>20.49999999999997</v>
       </c>
       <c r="K236" t="n">
-        <v>55.55555555555565</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L236" t="n">
         <v>29.11000000000001</v>
@@ -12315,7 +12337,7 @@
         <v>20.49999999999997</v>
       </c>
       <c r="K237" t="n">
-        <v>74.99999999999967</v>
+        <v>33.33333333333254</v>
       </c>
       <c r="L237" t="n">
         <v>29.12000000000001</v>
@@ -12366,7 +12388,7 @@
         <v>20.59999999999997</v>
       </c>
       <c r="K238" t="n">
-        <v>55.55555555555565</v>
+        <v>0</v>
       </c>
       <c r="L238" t="n">
         <v>29.12000000000001</v>
@@ -12417,7 +12439,7 @@
         <v>20.59999999999997</v>
       </c>
       <c r="K239" t="n">
-        <v>50.00000000000022</v>
+        <v>0</v>
       </c>
       <c r="L239" t="n">
         <v>29.12000000000001</v>
@@ -12468,7 +12490,7 @@
         <v>20.59999999999997</v>
       </c>
       <c r="K240" t="n">
-        <v>42.857142857143</v>
+        <v>0</v>
       </c>
       <c r="L240" t="n">
         <v>29.12000000000001</v>
@@ -12519,7 +12541,7 @@
         <v>20.59999999999997</v>
       </c>
       <c r="K241" t="n">
-        <v>20.00000000000028</v>
+        <v>0</v>
       </c>
       <c r="L241" t="n">
         <v>29.12000000000001</v>
@@ -12570,7 +12592,7 @@
         <v>20.69999999999997</v>
       </c>
       <c r="K242" t="n">
-        <v>33.33333333333333</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L242" t="n">
         <v>29.13000000000001</v>
@@ -12621,7 +12643,7 @@
         <v>20.89999999999997</v>
       </c>
       <c r="K243" t="n">
-        <v>0</v>
+        <v>-20.00000000000057</v>
       </c>
       <c r="L243" t="n">
         <v>29.13000000000001</v>
@@ -12672,7 +12694,7 @@
         <v>20.89999999999997</v>
       </c>
       <c r="K244" t="n">
-        <v>-14.28571428571458</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L244" t="n">
         <v>29.12</v>
@@ -12723,7 +12745,7 @@
         <v>20.89999999999997</v>
       </c>
       <c r="K245" t="n">
-        <v>-14.28571428571458</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L245" t="n">
         <v>29.1</v>
@@ -12774,7 +12796,7 @@
         <v>20.89999999999997</v>
       </c>
       <c r="K246" t="n">
-        <v>-14.28571428571458</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L246" t="n">
         <v>29.08000000000001</v>
@@ -12825,7 +12847,7 @@
         <v>21.09999999999997</v>
       </c>
       <c r="K247" t="n">
-        <v>11.11111111111093</v>
+        <v>19.99999999999972</v>
       </c>
       <c r="L247" t="n">
         <v>29.08000000000001</v>
@@ -12876,7 +12898,7 @@
         <v>21.29999999999997</v>
       </c>
       <c r="K248" t="n">
-        <v>-9.090909090909268</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L248" t="n">
         <v>29.07</v>
@@ -13029,7 +13051,7 @@
         <v>21.59999999999997</v>
       </c>
       <c r="K251" t="n">
-        <v>-14.2857142857145</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L251" t="n">
         <v>29.05</v>
@@ -13080,7 +13102,7 @@
         <v>21.69999999999997</v>
       </c>
       <c r="K252" t="n">
-        <v>-6.666666666666761</v>
+        <v>0</v>
       </c>
       <c r="L252" t="n">
         <v>29.03</v>
@@ -13182,7 +13204,7 @@
         <v>21.79999999999997</v>
       </c>
       <c r="K254" t="n">
-        <v>0</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L254" t="n">
         <v>29.04</v>
@@ -13233,7 +13255,7 @@
         <v>21.79999999999997</v>
       </c>
       <c r="K255" t="n">
-        <v>-7.692307692307525</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L255" t="n">
         <v>29.05</v>
@@ -13284,7 +13306,7 @@
         <v>21.79999999999997</v>
       </c>
       <c r="K256" t="n">
-        <v>-7.692307692307525</v>
+        <v>-14.28571428571385</v>
       </c>
       <c r="L256" t="n">
         <v>29.06000000000001</v>
@@ -13335,7 +13357,7 @@
         <v>21.89999999999997</v>
       </c>
       <c r="K257" t="n">
-        <v>0</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L257" t="n">
         <v>29.06000000000001</v>
@@ -13386,7 +13408,7 @@
         <v>21.89999999999997</v>
       </c>
       <c r="K258" t="n">
-        <v>7.692307692307525</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L258" t="n">
         <v>29.08000000000001</v>
@@ -13437,7 +13459,7 @@
         <v>21.89999999999997</v>
       </c>
       <c r="K259" t="n">
-        <v>7.692307692307525</v>
+        <v>19.99999999999943</v>
       </c>
       <c r="L259" t="n">
         <v>29.09</v>
@@ -13488,7 +13510,7 @@
         <v>21.99999999999997</v>
       </c>
       <c r="K260" t="n">
-        <v>0</v>
+        <v>50.00000000000089</v>
       </c>
       <c r="L260" t="n">
         <v>29.09</v>
@@ -13539,7 +13561,7 @@
         <v>22.09999999999997</v>
       </c>
       <c r="K261" t="n">
-        <v>6.66666666666654</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L261" t="n">
         <v>29.12</v>
@@ -13590,7 +13612,7 @@
         <v>22.09999999999997</v>
       </c>
       <c r="K262" t="n">
-        <v>0</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L262" t="n">
         <v>29.14</v>
@@ -13641,7 +13663,7 @@
         <v>22.09999999999997</v>
       </c>
       <c r="K263" t="n">
-        <v>16.66666666666662</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L263" t="n">
         <v>29.16</v>
@@ -13692,7 +13714,7 @@
         <v>22.19999999999996</v>
       </c>
       <c r="K264" t="n">
-        <v>7.692307692307819</v>
+        <v>0</v>
       </c>
       <c r="L264" t="n">
         <v>29.16</v>
@@ -13743,7 +13765,7 @@
         <v>22.29999999999996</v>
       </c>
       <c r="K265" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L265" t="n">
         <v>29.17</v>
@@ -13794,7 +13816,7 @@
         <v>22.29999999999996</v>
       </c>
       <c r="K266" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
         <v>29.18</v>
@@ -13845,7 +13867,7 @@
         <v>22.39999999999996</v>
       </c>
       <c r="K267" t="n">
-        <v>7.692307692307819</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L267" t="n">
         <v>29.19</v>
@@ -13896,7 +13918,7 @@
         <v>22.39999999999996</v>
       </c>
       <c r="K268" t="n">
-        <v>27.27272727272739</v>
+        <v>20.00000000000057</v>
       </c>
       <c r="L268" t="n">
         <v>29.2</v>
@@ -13947,7 +13969,7 @@
         <v>22.49999999999996</v>
       </c>
       <c r="K269" t="n">
-        <v>27.27272727272715</v>
+        <v>60.00000000000028</v>
       </c>
       <c r="L269" t="n">
         <v>29.22</v>
@@ -13998,7 +14020,7 @@
         <v>22.49999999999996</v>
       </c>
       <c r="K270" t="n">
-        <v>27.27272727272715</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L270" t="n">
         <v>29.24999999999999</v>
@@ -14049,7 +14071,7 @@
         <v>22.49999999999996</v>
       </c>
       <c r="K271" t="n">
-        <v>55.55555555555608</v>
+        <v>50.00000000000044</v>
       </c>
       <c r="L271" t="n">
         <v>29.26999999999999</v>
@@ -14100,7 +14122,7 @@
         <v>22.59999999999996</v>
       </c>
       <c r="K272" t="n">
-        <v>55.55555555555608</v>
+        <v>60.00000000000056</v>
       </c>
       <c r="L272" t="n">
         <v>29.29999999999999</v>
@@ -14151,7 +14173,7 @@
         <v>22.89999999999996</v>
       </c>
       <c r="K273" t="n">
-        <v>16.66666666666671</v>
+        <v>14.285714285714</v>
       </c>
       <c r="L273" t="n">
         <v>29.29999999999999</v>
@@ -14202,7 +14224,7 @@
         <v>22.99999999999996</v>
       </c>
       <c r="K274" t="n">
-        <v>16.66666666666671</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L274" t="n">
         <v>29.31999999999999</v>
@@ -14253,7 +14275,7 @@
         <v>23.09999999999996</v>
       </c>
       <c r="K275" t="n">
-        <v>23.07692307692303</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L275" t="n">
         <v>29.33999999999999</v>
@@ -14304,7 +14326,7 @@
         <v>23.19999999999996</v>
       </c>
       <c r="K276" t="n">
-        <v>28.57142857142864</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L276" t="n">
         <v>29.36999999999999</v>
@@ -14355,7 +14377,7 @@
         <v>23.29999999999997</v>
       </c>
       <c r="K277" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111085</v>
       </c>
       <c r="L277" t="n">
         <v>29.37999999999999</v>
@@ -14406,7 +14428,7 @@
         <v>23.29999999999997</v>
       </c>
       <c r="K278" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L278" t="n">
         <v>29.38999999999999</v>
@@ -14461,7 +14483,7 @@
         <v>23.39999999999997</v>
       </c>
       <c r="K279" t="n">
-        <v>20.0000000000001</v>
+        <v>11.1111111111112</v>
       </c>
       <c r="L279" t="n">
         <v>29.39999999999999</v>
@@ -14520,7 +14542,7 @@
         <v>23.49999999999997</v>
       </c>
       <c r="K280" t="n">
-        <v>19.99999999999981</v>
+        <v>0</v>
       </c>
       <c r="L280" t="n">
         <v>29.39999999999999</v>
@@ -14579,7 +14601,7 @@
         <v>23.49999999999997</v>
       </c>
       <c r="K281" t="n">
-        <v>14.28571428571421</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L281" t="n">
         <v>29.39999999999999</v>
@@ -14638,7 +14660,7 @@
         <v>23.59999999999997</v>
       </c>
       <c r="K282" t="n">
-        <v>20</v>
+        <v>42.85714285714256</v>
       </c>
       <c r="L282" t="n">
         <v>29.39999999999999</v>
@@ -14697,7 +14719,7 @@
         <v>23.69999999999997</v>
       </c>
       <c r="K283" t="n">
-        <v>12.49999999999992</v>
+        <v>14.28571428571385</v>
       </c>
       <c r="L283" t="n">
         <v>29.41999999999999</v>
@@ -14754,7 +14776,7 @@
         <v>23.79999999999997</v>
       </c>
       <c r="K284" t="n">
-        <v>24.99999999999978</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L284" t="n">
         <v>29.43999999999999</v>
@@ -14813,7 +14835,7 @@
         <v>23.89999999999997</v>
       </c>
       <c r="K285" t="n">
-        <v>24.99999999999994</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L285" t="n">
         <v>29.45999999999999</v>
@@ -14872,7 +14894,7 @@
         <v>23.99999999999997</v>
       </c>
       <c r="K286" t="n">
-        <v>29.41176470588218</v>
+        <v>42.85714285714256</v>
       </c>
       <c r="L286" t="n">
         <v>29.47999999999999</v>
@@ -14931,7 +14953,7 @@
         <v>24.09999999999997</v>
       </c>
       <c r="K287" t="n">
-        <v>29.41176470588218</v>
+        <v>49.99999999999978</v>
       </c>
       <c r="L287" t="n">
         <v>29.51999999999999</v>
@@ -14990,7 +15012,7 @@
         <v>24.09999999999997</v>
       </c>
       <c r="K288" t="n">
-        <v>29.41176470588218</v>
+        <v>42.85714285714256</v>
       </c>
       <c r="L288" t="n">
         <v>29.56</v>
@@ -15047,7 +15069,7 @@
         <v>24.19999999999997</v>
       </c>
       <c r="K289" t="n">
-        <v>29.41176470588218</v>
+        <v>71.42857142857115</v>
       </c>
       <c r="L289" t="n">
         <v>29.59999999999999</v>
@@ -15106,7 +15128,7 @@
         <v>24.39999999999997</v>
       </c>
       <c r="K290" t="n">
-        <v>36.8421052631578</v>
+        <v>77.7777777777776</v>
       </c>
       <c r="L290" t="n">
         <v>29.67</v>
@@ -15167,7 +15189,7 @@
         <v>24.59999999999997</v>
       </c>
       <c r="K291" t="n">
-        <v>42.85714285714271</v>
+        <v>79.99999999999979</v>
       </c>
       <c r="L291" t="n">
         <v>29.76</v>
@@ -15228,7 +15250,7 @@
         <v>24.69999999999997</v>
       </c>
       <c r="K292" t="n">
-        <v>33.33333333333311</v>
+        <v>79.99999999999979</v>
       </c>
       <c r="L292" t="n">
         <v>29.83</v>
@@ -15289,7 +15311,7 @@
         <v>24.69999999999997</v>
       </c>
       <c r="K293" t="n">
-        <v>55.5555555555552</v>
+        <v>77.77777777777752</v>
       </c>
       <c r="L293" t="n">
         <v>29.91</v>
@@ -15350,7 +15372,7 @@
         <v>24.89999999999997</v>
       </c>
       <c r="K294" t="n">
-        <v>57.89473684210486</v>
+        <v>79.99999999999972</v>
       </c>
       <c r="L294" t="n">
         <v>30</v>
@@ -15411,7 +15433,7 @@
         <v>25.19999999999997</v>
       </c>
       <c r="K295" t="n">
-        <v>61.90476190476159</v>
+        <v>83.33333333333314</v>
       </c>
       <c r="L295" t="n">
         <v>30.11</v>
@@ -15472,7 +15494,7 @@
         <v>25.29999999999997</v>
       </c>
       <c r="K296" t="n">
-        <v>52.38095238095224</v>
+        <v>66.66666666666676</v>
       </c>
       <c r="L296" t="n">
         <v>30.2</v>
@@ -15533,7 +15555,7 @@
         <v>25.49999999999998</v>
       </c>
       <c r="K297" t="n">
-        <v>45.45454545454525</v>
+        <v>42.85714285714264</v>
       </c>
       <c r="L297" t="n">
         <v>30.26</v>
@@ -15590,7 +15612,7 @@
         <v>25.59999999999998</v>
       </c>
       <c r="K298" t="n">
-        <v>47.82608695652156</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L298" t="n">
         <v>30.32999999999999</v>
@@ -15647,7 +15669,7 @@
         <v>25.59999999999998</v>
       </c>
       <c r="K299" t="n">
-        <v>45.45454545454525</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L299" t="n">
         <v>30.39</v>
@@ -15698,7 +15720,7 @@
         <v>25.69999999999998</v>
       </c>
       <c r="K300" t="n">
-        <v>45.45454545454525</v>
+        <v>9.090909090908857</v>
       </c>
       <c r="L300" t="n">
         <v>30.41999999999999</v>
@@ -15749,7 +15771,7 @@
         <v>25.79999999999998</v>
       </c>
       <c r="K301" t="n">
-        <v>39.13043478260865</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L301" t="n">
         <v>30.41999999999999</v>
@@ -15800,7 +15822,7 @@
         <v>25.79999999999998</v>
       </c>
       <c r="K302" t="n">
-        <v>36.3636363636363</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L302" t="n">
         <v>30.43</v>
@@ -15851,7 +15873,7 @@
         <v>25.79999999999998</v>
       </c>
       <c r="K303" t="n">
-        <v>42.85714285714285</v>
+        <v>-11.11111111111085</v>
       </c>
       <c r="L303" t="n">
         <v>30.44</v>
@@ -15902,7 +15924,7 @@
         <v>25.79999999999998</v>
       </c>
       <c r="K304" t="n">
-        <v>39.99999999999996</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L304" t="n">
         <v>30.43</v>
@@ -15953,7 +15975,7 @@
         <v>25.89999999999998</v>
       </c>
       <c r="K305" t="n">
-        <v>29.99999999999984</v>
+        <v>-66.66666666666647</v>
       </c>
       <c r="L305" t="n">
         <v>30.38</v>
@@ -16004,7 +16026,7 @@
         <v>25.89999999999998</v>
       </c>
       <c r="K306" t="n">
-        <v>26.31578947368413</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L306" t="n">
         <v>30.34</v>
@@ -16055,7 +16077,7 @@
         <v>26.19999999999998</v>
       </c>
       <c r="K307" t="n">
-        <v>33.33333333333322</v>
+        <v>0</v>
       </c>
       <c r="L307" t="n">
         <v>30.35</v>
@@ -16106,7 +16128,7 @@
         <v>26.29999999999998</v>
       </c>
       <c r="K308" t="n">
-        <v>27.2727272727271</v>
+        <v>-14.28571428571443</v>
       </c>
       <c r="L308" t="n">
         <v>30.34</v>
@@ -16157,7 +16179,7 @@
         <v>26.39999999999998</v>
       </c>
       <c r="K309" t="n">
-        <v>27.27272727272722</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L309" t="n">
         <v>30.34</v>
@@ -16208,7 +16230,7 @@
         <v>26.39999999999998</v>
       </c>
       <c r="K310" t="n">
-        <v>19.99999999999986</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L310" t="n">
         <v>30.35</v>
@@ -16259,7 +16281,7 @@
         <v>26.39999999999998</v>
       </c>
       <c r="K311" t="n">
-        <v>11.11111111111102</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L311" t="n">
         <v>30.37</v>
@@ -16310,7 +16332,7 @@
         <v>26.59999999999998</v>
       </c>
       <c r="K312" t="n">
-        <v>5.263157894736901</v>
+        <v>0</v>
       </c>
       <c r="L312" t="n">
         <v>30.37</v>
@@ -16361,7 +16383,7 @@
         <v>26.59999999999998</v>
       </c>
       <c r="K313" t="n">
-        <v>5.263157894736901</v>
+        <v>0</v>
       </c>
       <c r="L313" t="n">
         <v>30.37</v>
@@ -16412,7 +16434,7 @@
         <v>26.59999999999998</v>
       </c>
       <c r="K314" t="n">
-        <v>-5.882352941176324</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L314" t="n">
         <v>30.37</v>
@@ -16463,7 +16485,7 @@
         <v>26.69999999999998</v>
       </c>
       <c r="K315" t="n">
-        <v>-20</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L315" t="n">
         <v>30.39</v>
@@ -16514,7 +16536,7 @@
         <v>26.79999999999998</v>
       </c>
       <c r="K316" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L316" t="n">
         <v>30.4</v>
@@ -16565,7 +16587,7 @@
         <v>26.89999999999998</v>
       </c>
       <c r="K317" t="n">
-        <v>-14.28571428571421</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L317" t="n">
         <v>30.37</v>
@@ -16718,7 +16740,7 @@
         <v>27.49999999999998</v>
       </c>
       <c r="K320" t="n">
-        <v>-11.11111111111107</v>
+        <v>-27.27272727272739</v>
       </c>
       <c r="L320" t="n">
         <v>30.35</v>
@@ -16769,7 +16791,7 @@
         <v>27.49999999999998</v>
       </c>
       <c r="K321" t="n">
-        <v>-5.882352941176544</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L321" t="n">
         <v>30.32</v>
@@ -16820,7 +16842,7 @@
         <v>27.49999999999998</v>
       </c>
       <c r="K322" t="n">
-        <v>-5.882352941176544</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L322" t="n">
         <v>30.31</v>
@@ -16871,7 +16893,7 @@
         <v>27.49999999999998</v>
       </c>
       <c r="K323" t="n">
-        <v>-5.882352941176544</v>
+        <v>-11.11111111111129</v>
       </c>
       <c r="L323" t="n">
         <v>30.29999999999999</v>
@@ -16922,7 +16944,7 @@
         <v>27.69999999999998</v>
       </c>
       <c r="K324" t="n">
-        <v>5.263157894736723</v>
+        <v>0</v>
       </c>
       <c r="L324" t="n">
         <v>30.30999999999999</v>
@@ -16973,7 +16995,7 @@
         <v>27.79999999999998</v>
       </c>
       <c r="K325" t="n">
-        <v>5.263157894736921</v>
+        <v>0</v>
       </c>
       <c r="L325" t="n">
         <v>30.29999999999999</v>
@@ -17075,7 +17097,7 @@
         <v>27.89999999999998</v>
       </c>
       <c r="K327" t="n">
-        <v>-17.64705882352946</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L327" t="n">
         <v>30.28999999999999</v>
@@ -17126,7 +17148,7 @@
         <v>27.89999999999998</v>
       </c>
       <c r="K328" t="n">
-        <v>-12.49999999999997</v>
+        <v>-42.857142857143</v>
       </c>
       <c r="L328" t="n">
         <v>30.25999999999999</v>
@@ -17177,7 +17199,7 @@
         <v>27.89999999999998</v>
       </c>
       <c r="K329" t="n">
-        <v>-20.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="L329" t="n">
         <v>30.22999999999999</v>
@@ -17228,7 +17250,7 @@
         <v>27.89999999999998</v>
       </c>
       <c r="K330" t="n">
-        <v>-20.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="L330" t="n">
         <v>30.22999999999999</v>
@@ -17279,7 +17301,7 @@
         <v>27.89999999999998</v>
       </c>
       <c r="K331" t="n">
-        <v>-20.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="L331" t="n">
         <v>30.22999999999999</v>
@@ -17330,7 +17352,7 @@
         <v>27.89999999999998</v>
       </c>
       <c r="K332" t="n">
-        <v>-7.692307692307819</v>
+        <v>0</v>
       </c>
       <c r="L332" t="n">
         <v>30.22999999999999</v>
@@ -17381,7 +17403,7 @@
         <v>27.99999999999998</v>
       </c>
       <c r="K333" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L333" t="n">
         <v>30.21999999999999</v>
@@ -17432,7 +17454,7 @@
         <v>27.99999999999998</v>
       </c>
       <c r="K334" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L334" t="n">
         <v>30.19</v>
@@ -17483,7 +17505,7 @@
         <v>27.99999999999998</v>
       </c>
       <c r="K335" t="n">
-        <v>-23.07692307692291</v>
+        <v>-100</v>
       </c>
       <c r="L335" t="n">
         <v>30.17</v>
@@ -17534,7 +17556,7 @@
         <v>28.09999999999997</v>
       </c>
       <c r="K336" t="n">
-        <v>-7.692307692307819</v>
+        <v>0</v>
       </c>
       <c r="L336" t="n">
         <v>30.17</v>
@@ -17636,7 +17658,7 @@
         <v>28.29999999999997</v>
       </c>
       <c r="K338" t="n">
-        <v>-45.45454545454569</v>
+        <v>-50.00000000000044</v>
       </c>
       <c r="L338" t="n">
         <v>30.15</v>
@@ -17687,7 +17709,7 @@
         <v>28.49999999999997</v>
       </c>
       <c r="K339" t="n">
-        <v>-53.84615384615405</v>
+        <v>-66.66666666666707</v>
       </c>
       <c r="L339" t="n">
         <v>30.11</v>
@@ -17738,7 +17760,7 @@
         <v>28.69999999999997</v>
       </c>
       <c r="K340" t="n">
-        <v>-16.66666666666671</v>
+        <v>-25.00000000000011</v>
       </c>
       <c r="L340" t="n">
         <v>30.09</v>
@@ -17789,7 +17811,7 @@
         <v>28.79999999999997</v>
       </c>
       <c r="K341" t="n">
-        <v>-23.07692307692324</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L341" t="n">
         <v>30.06</v>
@@ -17840,7 +17862,7 @@
         <v>28.79999999999997</v>
       </c>
       <c r="K342" t="n">
-        <v>-23.07692307692324</v>
+        <v>-25.00000000000044</v>
       </c>
       <c r="L342" t="n">
         <v>30.03</v>
@@ -17891,7 +17913,7 @@
         <v>28.89999999999997</v>
       </c>
       <c r="K343" t="n">
-        <v>-28.57142857142864</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L343" t="n">
         <v>30</v>
@@ -17942,7 +17964,7 @@
         <v>28.99999999999997</v>
       </c>
       <c r="K344" t="n">
-        <v>-38.46153846153876</v>
+        <v>-20.00000000000043</v>
       </c>
       <c r="L344" t="n">
         <v>29.98</v>
@@ -17993,7 +18015,7 @@
         <v>28.99999999999997</v>
       </c>
       <c r="K345" t="n">
-        <v>-33.33333333333373</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L345" t="n">
         <v>29.95999999999999</v>
@@ -18044,7 +18066,7 @@
         <v>28.99999999999997</v>
       </c>
       <c r="K346" t="n">
-        <v>-27.27272727272756</v>
+        <v>-33.3333333333336</v>
       </c>
       <c r="L346" t="n">
         <v>29.92999999999999</v>
@@ -18095,7 +18117,7 @@
         <v>28.99999999999997</v>
       </c>
       <c r="K347" t="n">
-        <v>-27.27272727272756</v>
+        <v>-14.28571428571458</v>
       </c>
       <c r="L347" t="n">
         <v>29.89999999999999</v>
@@ -18146,7 +18168,7 @@
         <v>29.09999999999997</v>
       </c>
       <c r="K348" t="n">
-        <v>-16.66666666666671</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L348" t="n">
         <v>29.89999999999999</v>
@@ -18197,7 +18219,7 @@
         <v>29.19999999999997</v>
       </c>
       <c r="K349" t="n">
-        <v>-23.07692307692324</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L349" t="n">
         <v>29.90999999999999</v>
@@ -18248,7 +18270,7 @@
         <v>29.29999999999997</v>
       </c>
       <c r="K350" t="n">
-        <v>-28.57142857142864</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L350" t="n">
         <v>29.88999999999999</v>
@@ -18299,7 +18321,7 @@
         <v>29.29999999999997</v>
       </c>
       <c r="K351" t="n">
-        <v>-28.57142857142864</v>
+        <v>-19.99999999999972</v>
       </c>
       <c r="L351" t="n">
         <v>29.87999999999999</v>
@@ -18350,7 +18372,7 @@
         <v>29.39999999999997</v>
       </c>
       <c r="K352" t="n">
-        <v>-33.33333333333349</v>
+        <v>-20.00000000000028</v>
       </c>
       <c r="L352" t="n">
         <v>29.85999999999999</v>
@@ -18401,7 +18423,7 @@
         <v>29.39999999999997</v>
       </c>
       <c r="K353" t="n">
-        <v>-28.57142857142883</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L353" t="n">
         <v>29.84999999999999</v>
@@ -18452,7 +18474,7 @@
         <v>29.59999999999997</v>
       </c>
       <c r="K354" t="n">
-        <v>-37.50000000000022</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L354" t="n">
         <v>29.80999999999999</v>
@@ -18503,7 +18525,7 @@
         <v>29.69999999999997</v>
       </c>
       <c r="K355" t="n">
-        <v>-29.41176470588243</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L355" t="n">
         <v>29.77999999999999</v>
@@ -18554,7 +18576,7 @@
         <v>29.69999999999997</v>
       </c>
       <c r="K356" t="n">
-        <v>-37.49999999999991</v>
+        <v>-42.85714285714228</v>
       </c>
       <c r="L356" t="n">
         <v>29.75</v>
@@ -18605,7 +18627,7 @@
         <v>29.79999999999997</v>
       </c>
       <c r="K357" t="n">
-        <v>-41.17647058823527</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L357" t="n">
         <v>29.71</v>
@@ -18656,7 +18678,7 @@
         <v>29.99999999999997</v>
       </c>
       <c r="K358" t="n">
-        <v>-17.64705882352946</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L358" t="n">
         <v>29.68</v>

--- a/BackTest/2019-10-16 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-16 BackTest LOOM.xlsx
@@ -1011,17 +1011,13 @@
         <v>29.08666666666666</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K18" t="n">
-        <v>28.6</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
@@ -1050,22 +1046,14 @@
         <v>29.08166666666666</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K19" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1093,22 +1081,14 @@
         <v>29.07833333333332</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K20" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1136,17 +1116,13 @@
         <v>29.07666666666666</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K21" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
@@ -1186,11 +1162,7 @@
       <c r="K22" t="n">
         <v>28.7</v>
       </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1267,12 +1239,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="K24" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="L24" t="inlineStr"/>
+        <v>28.7</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1306,16 +1282,12 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="K25" t="n">
         <v>28.6</v>
       </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1349,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="K26" t="n">
         <v>28.6</v>
@@ -1435,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="K28" t="n">
         <v>28.6</v>
@@ -1472,14 +1444,12 @@
         <v>29.05833333333333</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
         <v>28.6</v>
       </c>
@@ -1515,14 +1485,12 @@
         <v>29.05333333333333</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
         <v>28.6</v>
       </c>
@@ -1558,14 +1526,12 @@
         <v>29.04999999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
         <v>28.6</v>
       </c>
@@ -1601,14 +1567,12 @@
         <v>29.04666666666666</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
         <v>28.6</v>
       </c>
@@ -1644,14 +1608,12 @@
         <v>29.04166666666666</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
         <v>28.6</v>
       </c>
@@ -1687,14 +1649,12 @@
         <v>29.035</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
         <v>28.6</v>
       </c>
@@ -1730,14 +1690,12 @@
         <v>29.02833333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
         <v>28.6</v>
       </c>
@@ -1773,14 +1731,12 @@
         <v>29.02333333333333</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
         <v>28.6</v>
       </c>
@@ -1816,14 +1772,12 @@
         <v>29.015</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
         <v>28.6</v>
       </c>
@@ -1859,14 +1813,12 @@
         <v>29.01166666666667</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>29</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
         <v>28.6</v>
       </c>
@@ -1902,14 +1854,12 @@
         <v>29.01</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>29</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
         <v>28.6</v>
       </c>
@@ -1945,14 +1895,12 @@
         <v>29.005</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
         <v>28.6</v>
       </c>
@@ -4243,14 +4191,12 @@
         <v>29.06499999999997</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
         <v>28.6</v>
       </c>
@@ -4286,14 +4232,12 @@
         <v>29.06666666666664</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
         <v>28.6</v>
       </c>
@@ -4329,14 +4273,12 @@
         <v>29.06499999999997</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
         <v>28.6</v>
       </c>
@@ -4372,14 +4314,12 @@
         <v>29.05999999999997</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
         <v>28.6</v>
       </c>
@@ -4415,14 +4355,12 @@
         <v>29.05333333333331</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
         <v>28.6</v>
       </c>
@@ -4458,14 +4396,12 @@
         <v>29.04666666666664</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
         <v>28.6</v>
       </c>
@@ -4501,14 +4437,12 @@
         <v>29.04333333333331</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
         <v>28.6</v>
       </c>
@@ -4544,14 +4478,12 @@
         <v>29.03666666666664</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
         <v>28.6</v>
       </c>
@@ -4587,14 +4519,12 @@
         <v>29.03166666666664</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
         <v>28.6</v>
       </c>
@@ -4630,14 +4560,12 @@
         <v>29.02166666666665</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
         <v>28.6</v>
       </c>
@@ -4673,14 +4601,12 @@
         <v>29.01333333333331</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
         <v>28.6</v>
       </c>
@@ -4716,14 +4642,12 @@
         <v>29.00833333333332</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>29</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
         <v>28.6</v>
       </c>
@@ -4759,14 +4683,12 @@
         <v>29.00666666666665</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
         <v>28.6</v>
       </c>
@@ -4802,14 +4724,12 @@
         <v>29.00333333333332</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
         <v>28.6</v>
       </c>
@@ -4845,14 +4765,12 @@
         <v>28.99499999999999</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
         <v>28.6</v>
       </c>
@@ -4888,14 +4806,12 @@
         <v>28.99166666666665</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
         <v>28.6</v>
       </c>
@@ -4931,14 +4847,12 @@
         <v>28.98999999999998</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>29</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
         <v>28.6</v>
       </c>
@@ -4974,14 +4888,12 @@
         <v>28.98833333333331</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
         <v>28.6</v>
       </c>
@@ -8871,14 +8783,12 @@
         <v>29.05166666666664</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="n">
         <v>28.6</v>
       </c>
@@ -8914,14 +8824,12 @@
         <v>29.0433333333333</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>28.6</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="n">
         <v>28.6</v>
       </c>
@@ -8957,14 +8865,12 @@
         <v>29.03499999999997</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="n">
         <v>28.6</v>
       </c>
@@ -9000,14 +8906,12 @@
         <v>29.02666666666664</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="n">
         <v>28.6</v>
       </c>
@@ -9043,14 +8947,12 @@
         <v>29.01999999999997</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="n">
         <v>28.6</v>
       </c>
@@ -9086,14 +8988,12 @@
         <v>29.01333333333331</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>28.6</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="n">
         <v>28.6</v>
       </c>
@@ -9129,14 +9029,12 @@
         <v>29.00333333333331</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="n">
         <v>28.6</v>
       </c>
@@ -9172,14 +9070,12 @@
         <v>28.99499999999997</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>28.6</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="n">
         <v>28.6</v>
       </c>
@@ -9215,14 +9111,12 @@
         <v>28.98833333333331</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="n">
         <v>28.6</v>
       </c>
@@ -9258,14 +9152,12 @@
         <v>28.97833333333331</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>28.6</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="n">
         <v>28.6</v>
       </c>
@@ -9301,14 +9193,12 @@
         <v>28.96833333333331</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>28.6</v>
-      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="n">
         <v>28.6</v>
       </c>
@@ -9344,14 +9234,12 @@
         <v>28.95999999999997</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="n">
         <v>28.6</v>
       </c>
@@ -9387,14 +9275,12 @@
         <v>28.95499999999997</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="n">
         <v>28.6</v>
       </c>
@@ -9430,14 +9316,12 @@
         <v>28.95166666666664</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>28.9</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="n">
         <v>28.6</v>
       </c>
@@ -9473,14 +9357,12 @@
         <v>28.94666666666664</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>29</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="n">
         <v>28.6</v>
       </c>
@@ -9516,14 +9398,12 @@
         <v>28.94166666666664</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>29</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="n">
         <v>28.6</v>
       </c>
@@ -9559,14 +9439,12 @@
         <v>28.93999999999997</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>29</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="n">
         <v>28.6</v>
       </c>
@@ -9602,14 +9480,12 @@
         <v>28.9383333333333</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="n">
         <v>28.6</v>
       </c>
@@ -9645,14 +9521,12 @@
         <v>28.93666666666663</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>29.1</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="n">
         <v>28.6</v>
       </c>
@@ -12274,7 +12148,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="n">
@@ -12282,11 +12156,11 @@
       </c>
       <c r="L290" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M290" t="n">
-        <v>1.047447552447553</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -12315,11 +12189,17 @@
         <v>0</v>
       </c>
       <c r="I291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -12353,10 +12233,16 @@
         <v>1</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M292" t="n">
-        <v>1</v>
+        <v>1.050944055944056</v>
       </c>
     </row>
     <row r="293">

--- a/BackTest/2019-10-16 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-16 BackTest LOOM.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M337"/>
+  <dimension ref="A1:M338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,10 +445,10 @@
         <v>29.3</v>
       </c>
       <c r="F2" t="n">
-        <v>7097.6054</v>
+        <v>1361.6949</v>
       </c>
       <c r="G2" t="n">
-        <v>29.07833333333333</v>
+        <v>29.06666666666666</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C3" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="D3" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E3" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="F3" t="n">
-        <v>18351.3802</v>
+        <v>7097.6054</v>
       </c>
       <c r="G3" t="n">
-        <v>29.08333333333333</v>
+        <v>29.07833333333333</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>29.2</v>
       </c>
       <c r="F4" t="n">
-        <v>103266.1931</v>
+        <v>18351.3802</v>
       </c>
       <c r="G4" t="n">
-        <v>29.08833333333333</v>
+        <v>29.08333333333333</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -550,10 +550,10 @@
         <v>29.2</v>
       </c>
       <c r="F5" t="n">
-        <v>37464.9315</v>
+        <v>103266.1931</v>
       </c>
       <c r="G5" t="n">
-        <v>29.09333333333333</v>
+        <v>29.08833333333333</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -576,19 +576,19 @@
         <v>29.2</v>
       </c>
       <c r="C6" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D6" t="n">
         <v>29.2</v>
       </c>
       <c r="E6" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F6" t="n">
-        <v>73222.9167</v>
+        <v>37464.9315</v>
       </c>
       <c r="G6" t="n">
-        <v>29.09999999999999</v>
+        <v>29.09333333333333</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -608,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C7" t="n">
         <v>29.1</v>
       </c>
       <c r="D7" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E7" t="n">
         <v>29.1</v>
       </c>
       <c r="F7" t="n">
-        <v>6263.6483</v>
+        <v>73222.9167</v>
       </c>
       <c r="G7" t="n">
-        <v>29.10333333333332</v>
+        <v>29.09999999999999</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -643,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C8" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="D8" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E8" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F8" t="n">
-        <v>7311</v>
+        <v>6263.6483</v>
       </c>
       <c r="G8" t="n">
-        <v>29.10166666666666</v>
+        <v>29.10333333333332</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C9" t="n">
         <v>28.9</v>
       </c>
-      <c r="C9" t="n">
-        <v>28.7</v>
-      </c>
       <c r="D9" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E9" t="n">
         <v>28.9</v>
       </c>
-      <c r="E9" t="n">
-        <v>28.7</v>
-      </c>
       <c r="F9" t="n">
-        <v>41854.386</v>
+        <v>7311</v>
       </c>
       <c r="G9" t="n">
-        <v>29.09666666666666</v>
+        <v>29.10166666666666</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -713,22 +713,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="C10" t="n">
         <v>28.7</v>
       </c>
       <c r="D10" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="E10" t="n">
         <v>28.7</v>
       </c>
       <c r="F10" t="n">
-        <v>100000</v>
+        <v>41854.386</v>
       </c>
       <c r="G10" t="n">
-        <v>29.09499999999999</v>
+        <v>29.09666666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -748,22 +748,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C11" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D11" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E11" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F11" t="n">
         <v>100000</v>
       </c>
       <c r="G11" t="n">
-        <v>29.09333333333332</v>
+        <v>29.09499999999999</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="C12" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="D12" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="E12" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="G12" t="n">
-        <v>29.09666666666666</v>
+        <v>29.09333333333332</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>28.9</v>
       </c>
       <c r="F13" t="n">
-        <v>4105.5363</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>29.09999999999999</v>
+        <v>29.09666666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -853,22 +853,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="C14" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="D14" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="E14" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="F14" t="n">
-        <v>781.1477</v>
+        <v>4105.5363</v>
       </c>
       <c r="G14" t="n">
-        <v>29.09666666666666</v>
+        <v>29.09999999999999</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -900,7 +900,7 @@
         <v>28.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1466.0278</v>
+        <v>781.1477</v>
       </c>
       <c r="G15" t="n">
         <v>29.09666666666666</v>
@@ -935,10 +935,10 @@
         <v>28.7</v>
       </c>
       <c r="F16" t="n">
-        <v>5000</v>
+        <v>1466.0278</v>
       </c>
       <c r="G16" t="n">
-        <v>29.09499999999999</v>
+        <v>29.09666666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,22 +958,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C17" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="D17" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E17" t="n">
-        <v>28.5</v>
+        <v>28.7</v>
       </c>
       <c r="F17" t="n">
-        <v>53701.4307</v>
+        <v>5000</v>
       </c>
       <c r="G17" t="n">
-        <v>29.08999999999999</v>
+        <v>29.09499999999999</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>28.6</v>
       </c>
       <c r="C18" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="D18" t="n">
         <v>28.6</v>
       </c>
       <c r="E18" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="F18" t="n">
-        <v>3280.1596</v>
+        <v>53701.4307</v>
       </c>
       <c r="G18" t="n">
-        <v>29.08666666666666</v>
+        <v>29.08999999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>28.6</v>
       </c>
       <c r="F19" t="n">
-        <v>3598.1112</v>
+        <v>3280.1596</v>
       </c>
       <c r="G19" t="n">
-        <v>29.08166666666666</v>
+        <v>29.08666666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1063,22 +1063,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C20" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D20" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E20" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F20" t="n">
-        <v>8312.4493</v>
+        <v>3598.1112</v>
       </c>
       <c r="G20" t="n">
-        <v>29.07833333333332</v>
+        <v>29.08166666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>28.7</v>
       </c>
       <c r="F21" t="n">
-        <v>39900</v>
+        <v>8312.4493</v>
       </c>
       <c r="G21" t="n">
-        <v>29.07666666666666</v>
+        <v>29.07833333333332</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>28.7</v>
       </c>
       <c r="F22" t="n">
-        <v>4285.7502</v>
+        <v>39900</v>
       </c>
       <c r="G22" t="n">
-        <v>29.07499999999999</v>
+        <v>29.07666666666666</v>
       </c>
       <c r="H22" t="n">
         <v>1</v>
@@ -1184,20 +1184,18 @@
         <v>28.7</v>
       </c>
       <c r="F23" t="n">
-        <v>791.0687</v>
+        <v>4285.7502</v>
       </c>
       <c r="G23" t="n">
-        <v>29.07333333333333</v>
+        <v>29.07499999999999</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
         <v>28.7</v>
       </c>
@@ -1215,32 +1213,30 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C24" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D24" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E24" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F24" t="n">
-        <v>9661.8958</v>
+        <v>791.0687</v>
       </c>
       <c r="G24" t="n">
-        <v>29.06999999999999</v>
+        <v>29.07333333333333</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
         <v>28.7</v>
       </c>
@@ -1258,35 +1254,31 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="C25" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="D25" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="E25" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="F25" t="n">
-        <v>11</v>
+        <v>9661.8958</v>
       </c>
       <c r="G25" t="n">
         <v>29.06999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K25" t="n">
-        <v>28.6</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
@@ -1297,22 +1289,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="C26" t="n">
-        <v>28.5</v>
+        <v>28.8</v>
       </c>
       <c r="D26" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="E26" t="n">
-        <v>28.5</v>
+        <v>28.8</v>
       </c>
       <c r="F26" t="n">
-        <v>9675.75</v>
+        <v>11</v>
       </c>
       <c r="G26" t="n">
-        <v>29.06499999999999</v>
+        <v>29.06999999999999</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -1321,16 +1313,12 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>28.8</v>
+        <v>28.6</v>
       </c>
       <c r="K26" t="n">
         <v>28.6</v>
       </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1340,38 +1328,36 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C27" t="n">
         <v>28.5</v>
       </c>
-      <c r="C27" t="n">
-        <v>28.7</v>
-      </c>
       <c r="D27" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E27" t="n">
         <v>28.5</v>
       </c>
       <c r="F27" t="n">
-        <v>83283.1186</v>
+        <v>9675.75</v>
       </c>
       <c r="G27" t="n">
-        <v>29.06</v>
+        <v>29.06499999999999</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>28.5</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
         <v>28.6</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M27" t="n">
@@ -1383,32 +1369,30 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="C28" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="D28" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="E28" t="n">
-        <v>28.8</v>
+        <v>28.5</v>
       </c>
       <c r="F28" t="n">
-        <v>76076.9878</v>
+        <v>83283.1186</v>
       </c>
       <c r="G28" t="n">
         <v>29.06</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
         <v>28.6</v>
       </c>
@@ -1435,13 +1419,13 @@
         <v>28.8</v>
       </c>
       <c r="E29" t="n">
-        <v>28.5</v>
+        <v>28.8</v>
       </c>
       <c r="F29" t="n">
-        <v>15258.9985</v>
+        <v>76076.9878</v>
       </c>
       <c r="G29" t="n">
-        <v>29.05833333333333</v>
+        <v>29.06</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1467,22 +1451,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="C30" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="D30" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="E30" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="F30" t="n">
-        <v>753.2058</v>
+        <v>15258.9985</v>
       </c>
       <c r="G30" t="n">
-        <v>29.05333333333333</v>
+        <v>29.05833333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1511,19 +1495,19 @@
         <v>28.7</v>
       </c>
       <c r="C31" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="D31" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="E31" t="n">
         <v>28.7</v>
       </c>
       <c r="F31" t="n">
-        <v>103042.1307</v>
+        <v>753.2058</v>
       </c>
       <c r="G31" t="n">
-        <v>29.04999999999999</v>
+        <v>29.05333333333333</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1549,22 +1533,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="C32" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="D32" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="E32" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="F32" t="n">
-        <v>50337.2317</v>
+        <v>103042.1307</v>
       </c>
       <c r="G32" t="n">
-        <v>29.04666666666666</v>
+        <v>29.04999999999999</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1602,10 +1586,10 @@
         <v>28.9</v>
       </c>
       <c r="F33" t="n">
-        <v>18449.6746</v>
+        <v>50337.2317</v>
       </c>
       <c r="G33" t="n">
-        <v>29.04166666666666</v>
+        <v>29.04666666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1643,10 +1627,10 @@
         <v>28.9</v>
       </c>
       <c r="F34" t="n">
-        <v>13829.0796</v>
+        <v>18449.6746</v>
       </c>
       <c r="G34" t="n">
-        <v>29.035</v>
+        <v>29.04166666666666</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1684,10 +1668,10 @@
         <v>28.9</v>
       </c>
       <c r="F35" t="n">
-        <v>1000</v>
+        <v>13829.0796</v>
       </c>
       <c r="G35" t="n">
-        <v>29.02833333333333</v>
+        <v>29.035</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1725,10 +1709,10 @@
         <v>28.9</v>
       </c>
       <c r="F36" t="n">
-        <v>34954.0484</v>
+        <v>1000</v>
       </c>
       <c r="G36" t="n">
-        <v>29.02333333333333</v>
+        <v>29.02833333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1754,22 +1738,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="C37" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="D37" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="E37" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="F37" t="n">
-        <v>35975.7899</v>
+        <v>34954.0484</v>
       </c>
       <c r="G37" t="n">
-        <v>29.015</v>
+        <v>29.02333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1795,22 +1779,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="C38" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="D38" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="E38" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="F38" t="n">
-        <v>28609.862</v>
+        <v>35975.7899</v>
       </c>
       <c r="G38" t="n">
-        <v>29.01166666666667</v>
+        <v>29.015</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1839,19 +1823,19 @@
         <v>29</v>
       </c>
       <c r="C39" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D39" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E39" t="n">
         <v>29</v>
       </c>
       <c r="F39" t="n">
-        <v>37800</v>
+        <v>28609.862</v>
       </c>
       <c r="G39" t="n">
-        <v>29.01</v>
+        <v>29.01166666666667</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1877,7 +1861,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C40" t="n">
         <v>29.1</v>
@@ -1886,13 +1870,13 @@
         <v>29.1</v>
       </c>
       <c r="E40" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F40" t="n">
-        <v>16944.5017</v>
+        <v>37800</v>
       </c>
       <c r="G40" t="n">
-        <v>29.005</v>
+        <v>29.01</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1930,10 +1914,10 @@
         <v>29.1</v>
       </c>
       <c r="F41" t="n">
-        <v>22259.2466</v>
+        <v>16944.5017</v>
       </c>
       <c r="G41" t="n">
-        <v>29.00333333333333</v>
+        <v>29.005</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1959,22 +1943,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="C42" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="D42" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="E42" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F42" t="n">
-        <v>1000</v>
+        <v>22259.2466</v>
       </c>
       <c r="G42" t="n">
-        <v>28.99833333333333</v>
+        <v>29.00333333333333</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2000,22 +1984,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="C43" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="D43" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="E43" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="F43" t="n">
-        <v>26700</v>
+        <v>1000</v>
       </c>
       <c r="G43" t="n">
-        <v>28.99666666666666</v>
+        <v>28.99833333333333</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2041,19 +2025,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C44" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D44" t="n">
-        <v>29.5</v>
+        <v>29.1</v>
       </c>
       <c r="E44" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F44" t="n">
-        <v>228102.3712277966</v>
+        <v>26700</v>
       </c>
       <c r="G44" t="n">
         <v>28.99666666666666</v>
@@ -2082,22 +2066,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="C45" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="D45" t="n">
         <v>29.5</v>
       </c>
       <c r="E45" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="F45" t="n">
-        <v>40113.3898</v>
+        <v>228102.3712277966</v>
       </c>
       <c r="G45" t="n">
-        <v>28.99999999999999</v>
+        <v>28.99666666666666</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2123,22 +2107,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="C46" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="D46" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="E46" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="F46" t="n">
-        <v>68158.9415</v>
+        <v>40113.3898</v>
       </c>
       <c r="G46" t="n">
-        <v>28.99833333333333</v>
+        <v>28.99999999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2164,19 +2148,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="C47" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D47" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="E47" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="F47" t="n">
-        <v>20</v>
+        <v>68158.9415</v>
       </c>
       <c r="G47" t="n">
         <v>28.99833333333333</v>
@@ -2208,19 +2192,19 @@
         <v>29</v>
       </c>
       <c r="C48" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="D48" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="E48" t="n">
         <v>29</v>
       </c>
       <c r="F48" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G48" t="n">
-        <v>28.98999999999999</v>
+        <v>28.99833333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2246,22 +2230,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C49" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D49" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E49" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F49" t="n">
-        <v>665.1498</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>28.98499999999999</v>
+        <v>28.98999999999999</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2290,19 +2274,19 @@
         <v>29.1</v>
       </c>
       <c r="C50" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D50" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E50" t="n">
         <v>29.1</v>
       </c>
       <c r="F50" t="n">
-        <v>2529.5679</v>
+        <v>665.1498</v>
       </c>
       <c r="G50" t="n">
-        <v>28.98333333333333</v>
+        <v>28.98499999999999</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2328,7 +2312,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C51" t="n">
         <v>29.2</v>
@@ -2337,13 +2321,13 @@
         <v>29.2</v>
       </c>
       <c r="E51" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F51" t="n">
-        <v>1116.7274</v>
+        <v>2529.5679</v>
       </c>
       <c r="G51" t="n">
-        <v>28.97999999999999</v>
+        <v>28.98333333333333</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2381,10 +2365,10 @@
         <v>29.2</v>
       </c>
       <c r="F52" t="n">
-        <v>20934</v>
+        <v>1116.7274</v>
       </c>
       <c r="G52" t="n">
-        <v>28.97666666666666</v>
+        <v>28.97999999999999</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2422,7 +2406,7 @@
         <v>29.2</v>
       </c>
       <c r="F53" t="n">
-        <v>2271.0616</v>
+        <v>20934</v>
       </c>
       <c r="G53" t="n">
         <v>28.97666666666666</v>
@@ -2463,10 +2447,10 @@
         <v>29.2</v>
       </c>
       <c r="F54" t="n">
-        <v>2455.0684</v>
+        <v>2271.0616</v>
       </c>
       <c r="G54" t="n">
-        <v>28.97499999999999</v>
+        <v>28.97666666666666</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2504,10 +2488,10 @@
         <v>29.2</v>
       </c>
       <c r="F55" t="n">
-        <v>15721.8266</v>
+        <v>2455.0684</v>
       </c>
       <c r="G55" t="n">
-        <v>28.96999999999999</v>
+        <v>28.97499999999999</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2533,22 +2517,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C56" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D56" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E56" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F56" t="n">
-        <v>53289.2682</v>
+        <v>15721.8266</v>
       </c>
       <c r="G56" t="n">
-        <v>28.96333333333332</v>
+        <v>28.96999999999999</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2586,10 +2570,10 @@
         <v>29.1</v>
       </c>
       <c r="F57" t="n">
-        <v>2265.3839</v>
+        <v>53289.2682</v>
       </c>
       <c r="G57" t="n">
-        <v>28.95833333333332</v>
+        <v>28.96333333333332</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2627,10 +2611,10 @@
         <v>29.1</v>
       </c>
       <c r="F58" t="n">
-        <v>17779.6433</v>
+        <v>2265.3839</v>
       </c>
       <c r="G58" t="n">
-        <v>28.95333333333332</v>
+        <v>28.95833333333332</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2656,22 +2640,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C59" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="D59" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E59" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F59" t="n">
-        <v>117439.3958</v>
+        <v>17779.6433</v>
       </c>
       <c r="G59" t="n">
-        <v>28.94833333333332</v>
+        <v>28.95333333333332</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2697,22 +2681,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="C60" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="D60" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="E60" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="F60" t="n">
-        <v>11</v>
+        <v>117439.3958</v>
       </c>
       <c r="G60" t="n">
-        <v>28.94666666666665</v>
+        <v>28.94833333333332</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2738,22 +2722,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C61" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D61" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E61" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F61" t="n">
-        <v>989.9041</v>
+        <v>11</v>
       </c>
       <c r="G61" t="n">
-        <v>28.94333333333332</v>
+        <v>28.94666666666665</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2779,22 +2763,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C62" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="D62" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E62" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F62" t="n">
-        <v>22155.3197</v>
+        <v>989.9041</v>
       </c>
       <c r="G62" t="n">
-        <v>28.93666666666666</v>
+        <v>28.94333333333332</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2820,22 +2804,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="C63" t="n">
         <v>28.9</v>
       </c>
       <c r="D63" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="E63" t="n">
         <v>28.9</v>
       </c>
       <c r="F63" t="n">
-        <v>8194.4334</v>
+        <v>22155.3197</v>
       </c>
       <c r="G63" t="n">
-        <v>28.93166666666666</v>
+        <v>28.93666666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2861,22 +2845,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="C64" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="D64" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="E64" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="F64" t="n">
-        <v>3599.8342</v>
+        <v>8194.4334</v>
       </c>
       <c r="G64" t="n">
-        <v>28.92833333333332</v>
+        <v>28.93166666666666</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2914,10 +2898,10 @@
         <v>29</v>
       </c>
       <c r="F65" t="n">
-        <v>31247.4765</v>
+        <v>3599.8342</v>
       </c>
       <c r="G65" t="n">
-        <v>28.92499999999999</v>
+        <v>28.92833333333332</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2943,19 +2927,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C66" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D66" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E66" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F66" t="n">
-        <v>1114</v>
+        <v>31247.4765</v>
       </c>
       <c r="G66" t="n">
         <v>28.92499999999999</v>
@@ -2996,7 +2980,7 @@
         <v>29.1</v>
       </c>
       <c r="F67" t="n">
-        <v>677.5067</v>
+        <v>1114</v>
       </c>
       <c r="G67" t="n">
         <v>28.92499999999999</v>
@@ -3025,22 +3009,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C68" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="D68" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E68" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="F68" t="n">
-        <v>675.8129</v>
+        <v>677.5067</v>
       </c>
       <c r="G68" t="n">
-        <v>28.92666666666666</v>
+        <v>28.92499999999999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3066,22 +3050,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="C69" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="D69" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="E69" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="F69" t="n">
-        <v>27400</v>
+        <v>675.8129</v>
       </c>
       <c r="G69" t="n">
-        <v>28.93499999999999</v>
+        <v>28.92666666666666</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3107,22 +3091,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="C70" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D70" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="E70" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="F70" t="n">
-        <v>21090.2389</v>
+        <v>27400</v>
       </c>
       <c r="G70" t="n">
-        <v>28.94499999999999</v>
+        <v>28.93499999999999</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3160,10 +3144,10 @@
         <v>29.3</v>
       </c>
       <c r="F71" t="n">
-        <v>543.1399</v>
+        <v>21090.2389</v>
       </c>
       <c r="G71" t="n">
-        <v>28.95666666666665</v>
+        <v>28.94499999999999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3201,10 +3185,10 @@
         <v>29.3</v>
       </c>
       <c r="F72" t="n">
-        <v>14932.4914</v>
+        <v>543.1399</v>
       </c>
       <c r="G72" t="n">
-        <v>28.96333333333332</v>
+        <v>28.95666666666665</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3242,10 +3226,10 @@
         <v>29.3</v>
       </c>
       <c r="F73" t="n">
-        <v>10232.6279</v>
+        <v>14932.4914</v>
       </c>
       <c r="G73" t="n">
-        <v>28.96999999999998</v>
+        <v>28.96333333333332</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3283,10 +3267,10 @@
         <v>29.3</v>
       </c>
       <c r="F74" t="n">
-        <v>35659.9668</v>
+        <v>10232.6279</v>
       </c>
       <c r="G74" t="n">
-        <v>28.97999999999998</v>
+        <v>28.96999999999998</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3324,10 +3308,10 @@
         <v>29.3</v>
       </c>
       <c r="F75" t="n">
-        <v>16112.8331</v>
+        <v>35659.9668</v>
       </c>
       <c r="G75" t="n">
-        <v>28.98999999999998</v>
+        <v>28.97999999999998</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3365,10 +3349,10 @@
         <v>29.3</v>
       </c>
       <c r="F76" t="n">
-        <v>19242</v>
+        <v>16112.8331</v>
       </c>
       <c r="G76" t="n">
-        <v>28.99999999999998</v>
+        <v>28.98999999999998</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3406,10 +3390,10 @@
         <v>29.3</v>
       </c>
       <c r="F77" t="n">
-        <v>27221.8212</v>
+        <v>19242</v>
       </c>
       <c r="G77" t="n">
-        <v>29.01333333333331</v>
+        <v>28.99999999999998</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3435,22 +3419,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="C78" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="D78" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="E78" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="F78" t="n">
-        <v>11227.0659</v>
+        <v>27221.8212</v>
       </c>
       <c r="G78" t="n">
-        <v>29.02166666666664</v>
+        <v>29.01333333333331</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3476,22 +3460,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="C79" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="D79" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="E79" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="F79" t="n">
-        <v>3478.9168</v>
+        <v>11227.0659</v>
       </c>
       <c r="G79" t="n">
-        <v>29.03333333333331</v>
+        <v>29.02166666666664</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3517,10 +3501,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C80" t="n">
         <v>29.3</v>
-      </c>
-      <c r="C80" t="n">
-        <v>29.4</v>
       </c>
       <c r="D80" t="n">
         <v>29.4</v>
@@ -3529,10 +3513,10 @@
         <v>29.3</v>
       </c>
       <c r="F80" t="n">
-        <v>26062.3887</v>
+        <v>3478.9168</v>
       </c>
       <c r="G80" t="n">
-        <v>29.04499999999998</v>
+        <v>29.03333333333331</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3558,22 +3542,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C81" t="n">
-        <v>29.1</v>
+        <v>29.4</v>
       </c>
       <c r="D81" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="E81" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="F81" t="n">
-        <v>1429.6814</v>
+        <v>26062.3887</v>
       </c>
       <c r="G81" t="n">
-        <v>29.05166666666664</v>
+        <v>29.04499999999998</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3599,22 +3583,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="C82" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="D82" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="E82" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F82" t="n">
-        <v>221026.3553</v>
+        <v>1429.6814</v>
       </c>
       <c r="G82" t="n">
-        <v>29.05666666666664</v>
+        <v>29.05166666666664</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3640,7 +3624,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="C83" t="n">
         <v>29</v>
@@ -3652,10 +3636,10 @@
         <v>28.9</v>
       </c>
       <c r="F83" t="n">
-        <v>9358.1775</v>
+        <v>221026.3553</v>
       </c>
       <c r="G83" t="n">
-        <v>29.06166666666664</v>
+        <v>29.05666666666664</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3681,22 +3665,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="C84" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="D84" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="E84" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="F84" t="n">
-        <v>33404.0392</v>
+        <v>9358.1775</v>
       </c>
       <c r="G84" t="n">
-        <v>29.06333333333331</v>
+        <v>29.06166666666664</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3725,19 +3709,19 @@
         <v>28.8</v>
       </c>
       <c r="C85" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="D85" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="E85" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="F85" t="n">
-        <v>4459.0716</v>
+        <v>33404.0392</v>
       </c>
       <c r="G85" t="n">
-        <v>29.06666666666665</v>
+        <v>29.06333333333331</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3763,22 +3747,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="C86" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="D86" t="n">
         <v>29</v>
       </c>
       <c r="E86" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="F86" t="n">
-        <v>166417.2845</v>
+        <v>4459.0716</v>
       </c>
       <c r="G86" t="n">
-        <v>29.06999999999998</v>
+        <v>29.06666666666665</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3804,22 +3788,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="C87" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D87" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="E87" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F87" t="n">
-        <v>22878.0502</v>
+        <v>166417.2845</v>
       </c>
       <c r="G87" t="n">
-        <v>29.06833333333331</v>
+        <v>29.06999999999998</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3845,22 +3829,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="C88" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="D88" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="E88" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="F88" t="n">
-        <v>11</v>
+        <v>22878.0502</v>
       </c>
       <c r="G88" t="n">
-        <v>29.06999999999998</v>
+        <v>29.06833333333331</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3886,22 +3870,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="C89" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="D89" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="E89" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="F89" t="n">
         <v>11</v>
       </c>
       <c r="G89" t="n">
-        <v>29.07333333333331</v>
+        <v>29.06999999999998</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3927,22 +3911,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="C90" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="D90" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="E90" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="F90" t="n">
-        <v>633.8853</v>
+        <v>11</v>
       </c>
       <c r="G90" t="n">
-        <v>29.07499999999998</v>
+        <v>29.07333333333331</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3968,22 +3952,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="C91" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="D91" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="E91" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="F91" t="n">
-        <v>34024</v>
+        <v>633.8853</v>
       </c>
       <c r="G91" t="n">
-        <v>29.07833333333331</v>
+        <v>29.07499999999998</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4009,22 +3993,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="C92" t="n">
-        <v>28.6</v>
+        <v>29</v>
       </c>
       <c r="D92" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="E92" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="F92" t="n">
-        <v>40013.1063</v>
+        <v>34024</v>
       </c>
       <c r="G92" t="n">
-        <v>29.07333333333331</v>
+        <v>29.07833333333331</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4050,19 +4034,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="C93" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="D93" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="E93" t="n">
-        <v>28.9</v>
+        <v>28.6</v>
       </c>
       <c r="F93" t="n">
-        <v>11</v>
+        <v>40013.1063</v>
       </c>
       <c r="G93" t="n">
         <v>29.07333333333331</v>
@@ -4091,22 +4075,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="C94" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="D94" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="E94" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="F94" t="n">
-        <v>697.4211</v>
+        <v>11</v>
       </c>
       <c r="G94" t="n">
-        <v>29.06999999999998</v>
+        <v>29.07333333333331</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4132,22 +4116,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="C95" t="n">
         <v>28.7</v>
       </c>
       <c r="D95" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="E95" t="n">
         <v>28.7</v>
       </c>
       <c r="F95" t="n">
-        <v>15137.5018</v>
+        <v>697.4211</v>
       </c>
       <c r="G95" t="n">
-        <v>29.06666666666664</v>
+        <v>29.06999999999998</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4176,19 +4160,19 @@
         <v>28.8</v>
       </c>
       <c r="C96" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="D96" t="n">
         <v>28.8</v>
       </c>
       <c r="E96" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="F96" t="n">
-        <v>767.8633</v>
+        <v>15137.5018</v>
       </c>
       <c r="G96" t="n">
-        <v>29.06499999999997</v>
+        <v>29.06666666666664</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4226,10 +4210,10 @@
         <v>28.8</v>
       </c>
       <c r="F97" t="n">
-        <v>5336.642</v>
+        <v>767.8633</v>
       </c>
       <c r="G97" t="n">
-        <v>29.06666666666664</v>
+        <v>29.06499999999997</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4255,22 +4239,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="C98" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="D98" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="E98" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="F98" t="n">
-        <v>10722.3303</v>
+        <v>5336.642</v>
       </c>
       <c r="G98" t="n">
-        <v>29.06499999999997</v>
+        <v>29.06666666666664</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4296,22 +4280,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="C99" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="D99" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="E99" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="F99" t="n">
-        <v>31403.0211</v>
+        <v>10722.3303</v>
       </c>
       <c r="G99" t="n">
-        <v>29.05999999999997</v>
+        <v>29.06499999999997</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4337,22 +4321,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="C100" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="D100" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="E100" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="F100" t="n">
-        <v>110786.24</v>
+        <v>31403.0211</v>
       </c>
       <c r="G100" t="n">
-        <v>29.05333333333331</v>
+        <v>29.05999999999997</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4390,10 +4374,10 @@
         <v>28.7</v>
       </c>
       <c r="F101" t="n">
-        <v>2760.1471</v>
+        <v>110786.24</v>
       </c>
       <c r="G101" t="n">
-        <v>29.04666666666664</v>
+        <v>29.05333333333331</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4431,10 +4415,10 @@
         <v>28.7</v>
       </c>
       <c r="F102" t="n">
-        <v>34702.2632</v>
+        <v>2760.1471</v>
       </c>
       <c r="G102" t="n">
-        <v>29.04333333333331</v>
+        <v>29.04666666666664</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4472,10 +4456,10 @@
         <v>28.7</v>
       </c>
       <c r="F103" t="n">
-        <v>997.5</v>
+        <v>34702.2632</v>
       </c>
       <c r="G103" t="n">
-        <v>29.03666666666664</v>
+        <v>29.04333333333331</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4501,22 +4485,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="C104" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="D104" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="E104" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="F104" t="n">
-        <v>100</v>
+        <v>997.5</v>
       </c>
       <c r="G104" t="n">
-        <v>29.03166666666664</v>
+        <v>29.03666666666664</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4542,7 +4526,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="C105" t="n">
         <v>28.9</v>
@@ -4551,13 +4535,13 @@
         <v>28.9</v>
       </c>
       <c r="E105" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="F105" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G105" t="n">
-        <v>29.02166666666665</v>
+        <v>29.03166666666664</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4583,22 +4567,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C106" t="n">
         <v>28.9</v>
       </c>
-      <c r="C106" t="n">
-        <v>28.7</v>
-      </c>
       <c r="D106" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="E106" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="F106" t="n">
-        <v>2930.1375</v>
+        <v>200</v>
       </c>
       <c r="G106" t="n">
-        <v>29.01333333333331</v>
+        <v>29.02166666666665</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4624,22 +4608,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="C107" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="D107" t="n">
         <v>29</v>
       </c>
       <c r="E107" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="F107" t="n">
-        <v>100</v>
+        <v>2930.1375</v>
       </c>
       <c r="G107" t="n">
-        <v>29.00833333333332</v>
+        <v>29.01333333333331</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4665,22 +4649,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="C108" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="D108" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="E108" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="F108" t="n">
-        <v>821.7679000000001</v>
+        <v>100</v>
       </c>
       <c r="G108" t="n">
-        <v>29.00666666666665</v>
+        <v>29.00833333333332</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4718,10 +4702,10 @@
         <v>28.9</v>
       </c>
       <c r="F109" t="n">
-        <v>80</v>
+        <v>821.7679000000001</v>
       </c>
       <c r="G109" t="n">
-        <v>29.00333333333332</v>
+        <v>29.00666666666665</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4747,22 +4731,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="C110" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="D110" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="E110" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="F110" t="n">
-        <v>899.5134</v>
+        <v>80</v>
       </c>
       <c r="G110" t="n">
-        <v>28.99499999999999</v>
+        <v>29.00333333333332</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4788,22 +4772,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="C111" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="D111" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="E111" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="F111" t="n">
-        <v>16383.7134</v>
+        <v>899.5134</v>
       </c>
       <c r="G111" t="n">
-        <v>28.99166666666665</v>
+        <v>28.99499999999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4829,22 +4813,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="C112" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D112" t="n">
         <v>29.1</v>
       </c>
       <c r="E112" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="F112" t="n">
-        <v>4983.7134</v>
+        <v>16383.7134</v>
       </c>
       <c r="G112" t="n">
-        <v>28.98999999999998</v>
+        <v>28.99166666666665</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4870,7 +4854,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C113" t="n">
         <v>29.1</v>
@@ -4879,13 +4863,13 @@
         <v>29.1</v>
       </c>
       <c r="E113" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F113" t="n">
-        <v>10200</v>
+        <v>4983.7134</v>
       </c>
       <c r="G113" t="n">
-        <v>28.98833333333331</v>
+        <v>28.98999999999998</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4911,19 +4895,19 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C114" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D114" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E114" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F114" t="n">
-        <v>29600</v>
+        <v>10200</v>
       </c>
       <c r="G114" t="n">
         <v>28.98833333333331</v>
@@ -4964,7 +4948,7 @@
         <v>29.2</v>
       </c>
       <c r="F115" t="n">
-        <v>10000</v>
+        <v>29600</v>
       </c>
       <c r="G115" t="n">
         <v>28.98833333333331</v>
@@ -4993,22 +4977,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="C116" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D116" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="E116" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="F116" t="n">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="G116" t="n">
-        <v>28.99166666666665</v>
+        <v>28.98833333333331</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5034,7 +5018,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C117" t="n">
         <v>29.3</v>
@@ -5043,13 +5027,13 @@
         <v>29.3</v>
       </c>
       <c r="E117" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="F117" t="n">
-        <v>23064.3093</v>
+        <v>100</v>
       </c>
       <c r="G117" t="n">
-        <v>28.99499999999998</v>
+        <v>28.99166666666665</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5078,19 +5062,19 @@
         <v>29.2</v>
       </c>
       <c r="C118" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="D118" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E118" t="n">
         <v>29.2</v>
       </c>
       <c r="F118" t="n">
-        <v>36430</v>
+        <v>23064.3093</v>
       </c>
       <c r="G118" t="n">
-        <v>28.99666666666665</v>
+        <v>28.99499999999998</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5116,7 +5100,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="C119" t="n">
         <v>29.2</v>
@@ -5125,13 +5109,13 @@
         <v>29.2</v>
       </c>
       <c r="E119" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="F119" t="n">
-        <v>5749.0153</v>
+        <v>36430</v>
       </c>
       <c r="G119" t="n">
-        <v>29.00166666666665</v>
+        <v>28.99666666666665</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5157,7 +5141,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="C120" t="n">
         <v>29.2</v>
@@ -5166,10 +5150,10 @@
         <v>29.2</v>
       </c>
       <c r="E120" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="F120" t="n">
-        <v>33300</v>
+        <v>5749.0153</v>
       </c>
       <c r="G120" t="n">
         <v>29.00166666666665</v>
@@ -5210,10 +5194,10 @@
         <v>29.2</v>
       </c>
       <c r="F121" t="n">
-        <v>59297</v>
+        <v>33300</v>
       </c>
       <c r="G121" t="n">
-        <v>29.00333333333332</v>
+        <v>29.00166666666665</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5251,10 +5235,10 @@
         <v>29.2</v>
       </c>
       <c r="F122" t="n">
-        <v>6868</v>
+        <v>59297</v>
       </c>
       <c r="G122" t="n">
-        <v>29.00833333333332</v>
+        <v>29.00333333333332</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5292,10 +5276,10 @@
         <v>29.2</v>
       </c>
       <c r="F123" t="n">
-        <v>25174</v>
+        <v>6868</v>
       </c>
       <c r="G123" t="n">
-        <v>29.01333333333332</v>
+        <v>29.00833333333332</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5333,10 +5317,10 @@
         <v>29.2</v>
       </c>
       <c r="F124" t="n">
-        <v>23490</v>
+        <v>25174</v>
       </c>
       <c r="G124" t="n">
-        <v>29.01666666666665</v>
+        <v>29.01333333333332</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5374,10 +5358,10 @@
         <v>29.2</v>
       </c>
       <c r="F125" t="n">
-        <v>16891</v>
+        <v>23490</v>
       </c>
       <c r="G125" t="n">
-        <v>29.01999999999999</v>
+        <v>29.01666666666665</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5415,10 +5399,10 @@
         <v>29.2</v>
       </c>
       <c r="F126" t="n">
-        <v>3757</v>
+        <v>16891</v>
       </c>
       <c r="G126" t="n">
-        <v>29.02166666666665</v>
+        <v>29.01999999999999</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5444,19 +5428,19 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C127" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D127" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E127" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="F127" t="n">
-        <v>75143.94259999999</v>
+        <v>3757</v>
       </c>
       <c r="G127" t="n">
         <v>29.02166666666665</v>
@@ -5494,13 +5478,13 @@
         <v>29.1</v>
       </c>
       <c r="E128" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="F128" t="n">
-        <v>1456.279</v>
+        <v>75143.94259999999</v>
       </c>
       <c r="G128" t="n">
-        <v>29.02333333333332</v>
+        <v>29.02166666666665</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5538,10 +5522,10 @@
         <v>29.1</v>
       </c>
       <c r="F129" t="n">
-        <v>21090.2389</v>
+        <v>1456.279</v>
       </c>
       <c r="G129" t="n">
-        <v>29.02166666666665</v>
+        <v>29.02333333333332</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5567,22 +5551,22 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C130" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D130" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E130" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F130" t="n">
-        <v>100</v>
+        <v>21090.2389</v>
       </c>
       <c r="G130" t="n">
-        <v>29.01999999999999</v>
+        <v>29.02166666666665</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5611,19 +5595,19 @@
         <v>29.2</v>
       </c>
       <c r="C131" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D131" t="n">
         <v>29.2</v>
       </c>
       <c r="E131" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F131" t="n">
-        <v>35162.7296</v>
+        <v>100</v>
       </c>
       <c r="G131" t="n">
-        <v>29.01666666666665</v>
+        <v>29.01999999999999</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5649,19 +5633,19 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C132" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="D132" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="E132" t="n">
         <v>29.1</v>
       </c>
       <c r="F132" t="n">
-        <v>151296.4517</v>
+        <v>35162.7296</v>
       </c>
       <c r="G132" t="n">
         <v>29.01666666666665</v>
@@ -5690,7 +5674,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="C133" t="n">
         <v>29.3</v>
@@ -5699,10 +5683,10 @@
         <v>29.3</v>
       </c>
       <c r="E133" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="F133" t="n">
-        <v>8266.689399999999</v>
+        <v>151296.4517</v>
       </c>
       <c r="G133" t="n">
         <v>29.01666666666665</v>
@@ -5743,7 +5727,7 @@
         <v>29.3</v>
       </c>
       <c r="F134" t="n">
-        <v>94978.9078</v>
+        <v>8266.689399999999</v>
       </c>
       <c r="G134" t="n">
         <v>29.01666666666665</v>
@@ -5784,7 +5768,7 @@
         <v>29.3</v>
       </c>
       <c r="F135" t="n">
-        <v>62421.1972</v>
+        <v>94978.9078</v>
       </c>
       <c r="G135" t="n">
         <v>29.01666666666665</v>
@@ -5825,7 +5809,7 @@
         <v>29.3</v>
       </c>
       <c r="F136" t="n">
-        <v>29328.2285</v>
+        <v>62421.1972</v>
       </c>
       <c r="G136" t="n">
         <v>29.01666666666665</v>
@@ -5854,7 +5838,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C137" t="n">
         <v>29.3</v>
@@ -5863,10 +5847,10 @@
         <v>29.3</v>
       </c>
       <c r="E137" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="F137" t="n">
-        <v>1864.3476</v>
+        <v>29328.2285</v>
       </c>
       <c r="G137" t="n">
         <v>29.01666666666665</v>
@@ -5895,10 +5879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C138" t="n">
         <v>29.3</v>
-      </c>
-      <c r="C138" t="n">
-        <v>29.2</v>
       </c>
       <c r="D138" t="n">
         <v>29.3</v>
@@ -5907,10 +5891,10 @@
         <v>29.2</v>
       </c>
       <c r="F138" t="n">
-        <v>197671.9999</v>
+        <v>1864.3476</v>
       </c>
       <c r="G138" t="n">
-        <v>29.01833333333332</v>
+        <v>29.01666666666665</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5936,10 +5920,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C139" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D139" t="n">
         <v>29.3</v>
@@ -5948,7 +5932,7 @@
         <v>29.2</v>
       </c>
       <c r="F139" t="n">
-        <v>101129</v>
+        <v>197671.9999</v>
       </c>
       <c r="G139" t="n">
         <v>29.01833333333332</v>
@@ -5977,7 +5961,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="C140" t="n">
         <v>29.3</v>
@@ -5986,13 +5970,13 @@
         <v>29.3</v>
       </c>
       <c r="E140" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="F140" t="n">
-        <v>12714</v>
+        <v>101129</v>
       </c>
       <c r="G140" t="n">
-        <v>29.01666666666665</v>
+        <v>29.01833333333332</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -6030,10 +6014,10 @@
         <v>29.3</v>
       </c>
       <c r="F141" t="n">
-        <v>14600</v>
+        <v>12714</v>
       </c>
       <c r="G141" t="n">
-        <v>29.01999999999999</v>
+        <v>29.01666666666665</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -6059,7 +6043,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C142" t="n">
         <v>29.3</v>
@@ -6068,13 +6052,13 @@
         <v>29.3</v>
       </c>
       <c r="E142" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="F142" t="n">
-        <v>18716.1054</v>
+        <v>14600</v>
       </c>
       <c r="G142" t="n">
-        <v>29.02499999999998</v>
+        <v>29.01999999999999</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -6100,7 +6084,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="C143" t="n">
         <v>29.3</v>
@@ -6109,13 +6093,13 @@
         <v>29.3</v>
       </c>
       <c r="E143" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="F143" t="n">
-        <v>7521.4675</v>
+        <v>18716.1054</v>
       </c>
       <c r="G143" t="n">
-        <v>29.02999999999998</v>
+        <v>29.02499999999998</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -6153,10 +6137,10 @@
         <v>29.3</v>
       </c>
       <c r="F144" t="n">
-        <v>2245</v>
+        <v>7521.4675</v>
       </c>
       <c r="G144" t="n">
-        <v>29.03999999999998</v>
+        <v>29.02999999999998</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6194,10 +6178,10 @@
         <v>29.3</v>
       </c>
       <c r="F145" t="n">
-        <v>7975.936</v>
+        <v>2245</v>
       </c>
       <c r="G145" t="n">
-        <v>29.04499999999998</v>
+        <v>29.03999999999998</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6223,22 +6207,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C146" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="D146" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E146" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="F146" t="n">
-        <v>21241.2328</v>
+        <v>7975.936</v>
       </c>
       <c r="G146" t="n">
-        <v>29.05333333333332</v>
+        <v>29.04499999999998</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6276,10 +6260,10 @@
         <v>29.2</v>
       </c>
       <c r="F147" t="n">
-        <v>53674.7708</v>
+        <v>21241.2328</v>
       </c>
       <c r="G147" t="n">
-        <v>29.06333333333332</v>
+        <v>29.05333333333332</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6305,22 +6289,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C148" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D148" t="n">
         <v>29.2</v>
       </c>
       <c r="E148" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F148" t="n">
-        <v>3590</v>
+        <v>53674.7708</v>
       </c>
       <c r="G148" t="n">
-        <v>29.06666666666665</v>
+        <v>29.06333333333332</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6352,16 +6336,16 @@
         <v>29.1</v>
       </c>
       <c r="D149" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E149" t="n">
         <v>29.1</v>
       </c>
       <c r="F149" t="n">
-        <v>2455.0684</v>
+        <v>3590</v>
       </c>
       <c r="G149" t="n">
-        <v>29.06833333333331</v>
+        <v>29.06666666666665</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6387,22 +6371,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C150" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D150" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E150" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F150" t="n">
-        <v>71921.4399</v>
+        <v>2455.0684</v>
       </c>
       <c r="G150" t="n">
-        <v>29.07499999999998</v>
+        <v>29.06833333333331</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6440,10 +6424,10 @@
         <v>29.2</v>
       </c>
       <c r="F151" t="n">
-        <v>15993.7992</v>
+        <v>71921.4399</v>
       </c>
       <c r="G151" t="n">
-        <v>29.07833333333332</v>
+        <v>29.07499999999998</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6469,22 +6453,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C152" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D152" t="n">
         <v>29.2</v>
       </c>
       <c r="E152" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F152" t="n">
-        <v>46345.8347</v>
+        <v>15993.7992</v>
       </c>
       <c r="G152" t="n">
-        <v>29.08666666666665</v>
+        <v>29.07833333333332</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6510,22 +6494,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C153" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="D153" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="E153" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="F153" t="n">
-        <v>2884.0005</v>
+        <v>46345.8347</v>
       </c>
       <c r="G153" t="n">
-        <v>29.08833333333331</v>
+        <v>29.08666666666665</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6551,22 +6535,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C154" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D154" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E154" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F154" t="n">
-        <v>1425.4845</v>
+        <v>2884.0005</v>
       </c>
       <c r="G154" t="n">
-        <v>29.09499999999998</v>
+        <v>29.08833333333331</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6592,22 +6576,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C155" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D155" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E155" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="F155" t="n">
-        <v>17872.5618</v>
+        <v>1425.4845</v>
       </c>
       <c r="G155" t="n">
-        <v>29.10333333333331</v>
+        <v>29.09499999999998</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6633,22 +6617,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="C156" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D156" t="n">
         <v>29.2</v>
       </c>
       <c r="E156" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F156" t="n">
-        <v>3408.4486</v>
+        <v>17872.5618</v>
       </c>
       <c r="G156" t="n">
-        <v>29.10833333333331</v>
+        <v>29.10333333333331</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6677,19 +6661,19 @@
         <v>29.2</v>
       </c>
       <c r="C157" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D157" t="n">
         <v>29.2</v>
       </c>
       <c r="E157" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F157" t="n">
-        <v>14577.5684</v>
+        <v>3408.4486</v>
       </c>
       <c r="G157" t="n">
-        <v>29.11499999999998</v>
+        <v>29.10833333333331</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6715,7 +6699,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C158" t="n">
         <v>29.2</v>
@@ -6724,13 +6708,13 @@
         <v>29.2</v>
       </c>
       <c r="E158" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F158" t="n">
-        <v>13294.3493</v>
+        <v>14577.5684</v>
       </c>
       <c r="G158" t="n">
-        <v>29.11999999999998</v>
+        <v>29.11499999999998</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6756,7 +6740,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C159" t="n">
         <v>29.2</v>
@@ -6765,13 +6749,13 @@
         <v>29.2</v>
       </c>
       <c r="E159" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F159" t="n">
-        <v>34800</v>
+        <v>13294.3493</v>
       </c>
       <c r="G159" t="n">
-        <v>29.12666666666665</v>
+        <v>29.11999999999998</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6797,22 +6781,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C160" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D160" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E160" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F160" t="n">
-        <v>1111</v>
+        <v>34800</v>
       </c>
       <c r="G160" t="n">
-        <v>29.13333333333331</v>
+        <v>29.12666666666665</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6841,19 +6825,19 @@
         <v>29.1</v>
       </c>
       <c r="C161" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D161" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E161" t="n">
         <v>29.1</v>
       </c>
       <c r="F161" t="n">
-        <v>50</v>
+        <v>1111</v>
       </c>
       <c r="G161" t="n">
-        <v>29.14166666666664</v>
+        <v>29.13333333333331</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6879,22 +6863,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C162" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D162" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="E162" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F162" t="n">
-        <v>19701</v>
+        <v>50</v>
       </c>
       <c r="G162" t="n">
-        <v>29.15166666666664</v>
+        <v>29.14166666666664</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6920,7 +6904,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="C163" t="n">
         <v>29.3</v>
@@ -6929,13 +6913,13 @@
         <v>29.3</v>
       </c>
       <c r="E163" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="F163" t="n">
-        <v>19.8293</v>
+        <v>19701</v>
       </c>
       <c r="G163" t="n">
-        <v>29.16166666666664</v>
+        <v>29.15166666666664</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6961,22 +6945,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C164" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="D164" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E164" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="F164" t="n">
-        <v>1534.6153</v>
+        <v>19.8293</v>
       </c>
       <c r="G164" t="n">
-        <v>29.16666666666664</v>
+        <v>29.16166666666664</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -7014,10 +6998,10 @@
         <v>29.2</v>
       </c>
       <c r="F165" t="n">
-        <v>2841.7368</v>
+        <v>1534.6153</v>
       </c>
       <c r="G165" t="n">
-        <v>29.17166666666664</v>
+        <v>29.16666666666664</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -7049,16 +7033,16 @@
         <v>29.2</v>
       </c>
       <c r="D166" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="E166" t="n">
         <v>29.2</v>
       </c>
       <c r="F166" t="n">
-        <v>21584.9095</v>
+        <v>2841.7368</v>
       </c>
       <c r="G166" t="n">
-        <v>29.17999999999997</v>
+        <v>29.17166666666664</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -7084,22 +7068,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C167" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D167" t="n">
         <v>29.3</v>
       </c>
       <c r="E167" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F167" t="n">
-        <v>67964.26119999999</v>
+        <v>21584.9095</v>
       </c>
       <c r="G167" t="n">
-        <v>29.18499999999997</v>
+        <v>29.17999999999997</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -7125,22 +7109,22 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C168" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="D168" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E168" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F168" t="n">
-        <v>5470.9999</v>
+        <v>67964.26119999999</v>
       </c>
       <c r="G168" t="n">
-        <v>29.18999999999997</v>
+        <v>29.18499999999997</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -7166,22 +7150,22 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C169" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D169" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E169" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F169" t="n">
-        <v>35545.4191</v>
+        <v>5470.9999</v>
       </c>
       <c r="G169" t="n">
-        <v>29.1933333333333</v>
+        <v>29.18999999999997</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -7210,19 +7194,19 @@
         <v>29.1</v>
       </c>
       <c r="C170" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D170" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E170" t="n">
         <v>29.1</v>
       </c>
       <c r="F170" t="n">
-        <v>29658.7655</v>
+        <v>35545.4191</v>
       </c>
       <c r="G170" t="n">
-        <v>29.20166666666664</v>
+        <v>29.1933333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -7248,7 +7232,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C171" t="n">
         <v>29.2</v>
@@ -7257,13 +7241,13 @@
         <v>29.2</v>
       </c>
       <c r="E171" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F171" t="n">
-        <v>31732.2838</v>
+        <v>29658.7655</v>
       </c>
       <c r="G171" t="n">
-        <v>29.20499999999997</v>
+        <v>29.20166666666664</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -7289,19 +7273,19 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C172" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D172" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E172" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F172" t="n">
-        <v>4095.2725</v>
+        <v>31732.2838</v>
       </c>
       <c r="G172" t="n">
         <v>29.20499999999997</v>
@@ -7330,22 +7314,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C173" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="D173" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E173" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F173" t="n">
-        <v>18509.5285</v>
+        <v>4095.2725</v>
       </c>
       <c r="G173" t="n">
-        <v>29.20166666666664</v>
+        <v>29.20499999999997</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -7371,19 +7355,19 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="C174" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="D174" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="E174" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="F174" t="n">
-        <v>16380</v>
+        <v>18509.5285</v>
       </c>
       <c r="G174" t="n">
         <v>29.20166666666664</v>
@@ -7412,22 +7396,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="C175" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="D175" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="E175" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="F175" t="n">
-        <v>4501.536</v>
+        <v>16380</v>
       </c>
       <c r="G175" t="n">
-        <v>29.19833333333331</v>
+        <v>29.20166666666664</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -7465,10 +7449,10 @@
         <v>29</v>
       </c>
       <c r="F176" t="n">
-        <v>8817.251</v>
+        <v>4501.536</v>
       </c>
       <c r="G176" t="n">
-        <v>29.19333333333331</v>
+        <v>29.19833333333331</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -7494,22 +7478,22 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="C177" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="D177" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="E177" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="F177" t="n">
-        <v>1700</v>
+        <v>8817.251</v>
       </c>
       <c r="G177" t="n">
-        <v>29.19166666666664</v>
+        <v>29.19333333333331</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -7535,22 +7519,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="C178" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D178" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E178" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="F178" t="n">
-        <v>1317</v>
+        <v>1700</v>
       </c>
       <c r="G178" t="n">
-        <v>29.18999999999997</v>
+        <v>29.19166666666664</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -7576,19 +7560,19 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C179" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D179" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E179" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F179" t="n">
-        <v>14100</v>
+        <v>1317</v>
       </c>
       <c r="G179" t="n">
         <v>29.18999999999997</v>
@@ -7617,22 +7601,22 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C180" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="D180" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="E180" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="F180" t="n">
-        <v>64701.7523</v>
+        <v>14100</v>
       </c>
       <c r="G180" t="n">
-        <v>29.18666666666664</v>
+        <v>29.18999999999997</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7658,22 +7642,22 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C181" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D181" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E181" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F181" t="n">
-        <v>3459.4522</v>
+        <v>64701.7523</v>
       </c>
       <c r="G181" t="n">
-        <v>29.18499999999997</v>
+        <v>29.18666666666664</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7699,7 +7683,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C182" t="n">
         <v>29.1</v>
@@ -7708,13 +7692,13 @@
         <v>29.1</v>
       </c>
       <c r="E182" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="F182" t="n">
-        <v>4429.2338</v>
+        <v>3459.4522</v>
       </c>
       <c r="G182" t="n">
-        <v>29.1833333333333</v>
+        <v>29.18499999999997</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7740,7 +7724,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C183" t="n">
         <v>29.1</v>
@@ -7749,13 +7733,13 @@
         <v>29.1</v>
       </c>
       <c r="E183" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F183" t="n">
-        <v>10393.8477</v>
+        <v>4429.2338</v>
       </c>
       <c r="G183" t="n">
-        <v>29.18166666666663</v>
+        <v>29.1833333333333</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7781,22 +7765,22 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C184" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="D184" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E184" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F184" t="n">
-        <v>31600</v>
+        <v>10393.8477</v>
       </c>
       <c r="G184" t="n">
-        <v>29.17666666666663</v>
+        <v>29.18166666666663</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7825,19 +7809,19 @@
         <v>29</v>
       </c>
       <c r="C185" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="D185" t="n">
         <v>29</v>
       </c>
       <c r="E185" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="F185" t="n">
-        <v>1386.9566</v>
+        <v>31600</v>
       </c>
       <c r="G185" t="n">
-        <v>29.1733333333333</v>
+        <v>29.17666666666663</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7875,10 +7859,10 @@
         <v>29</v>
       </c>
       <c r="F186" t="n">
-        <v>1044.0257</v>
+        <v>1386.9566</v>
       </c>
       <c r="G186" t="n">
-        <v>29.16999999999996</v>
+        <v>29.1733333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7904,22 +7888,22 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="C187" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="D187" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="E187" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="F187" t="n">
-        <v>66756.9822</v>
+        <v>1044.0257</v>
       </c>
       <c r="G187" t="n">
-        <v>29.16499999999996</v>
+        <v>29.16999999999996</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7948,19 +7932,19 @@
         <v>28.9</v>
       </c>
       <c r="C188" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="D188" t="n">
         <v>28.9</v>
       </c>
       <c r="E188" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="F188" t="n">
-        <v>616.5974</v>
+        <v>66756.9822</v>
       </c>
       <c r="G188" t="n">
-        <v>29.16166666666663</v>
+        <v>29.16499999999996</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7986,22 +7970,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="C189" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="D189" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="E189" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="F189" t="n">
-        <v>369.0406</v>
+        <v>616.5974</v>
       </c>
       <c r="G189" t="n">
-        <v>29.15666666666663</v>
+        <v>29.16166666666663</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -8027,22 +8011,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="C190" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="D190" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="E190" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="F190" t="n">
-        <v>16668.4641</v>
+        <v>369.0406</v>
       </c>
       <c r="G190" t="n">
-        <v>29.1533333333333</v>
+        <v>29.15666666666663</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -8068,19 +8052,19 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C191" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D191" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E191" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F191" t="n">
-        <v>8764.9828</v>
+        <v>16668.4641</v>
       </c>
       <c r="G191" t="n">
         <v>29.1533333333333</v>
@@ -8109,7 +8093,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="C192" t="n">
         <v>29.1</v>
@@ -8118,13 +8102,13 @@
         <v>29.1</v>
       </c>
       <c r="E192" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="F192" t="n">
-        <v>24569.7737</v>
+        <v>8764.9828</v>
       </c>
       <c r="G192" t="n">
-        <v>29.14999999999997</v>
+        <v>29.1533333333333</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -8150,22 +8134,22 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="C193" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="D193" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E193" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="F193" t="n">
-        <v>28390.2869</v>
+        <v>24569.7737</v>
       </c>
       <c r="G193" t="n">
-        <v>29.14499999999997</v>
+        <v>29.14999999999997</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -8203,10 +8187,10 @@
         <v>29</v>
       </c>
       <c r="F194" t="n">
-        <v>21774.5005</v>
+        <v>28390.2869</v>
       </c>
       <c r="G194" t="n">
-        <v>29.13999999999997</v>
+        <v>29.14499999999997</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -8244,10 +8228,10 @@
         <v>29</v>
       </c>
       <c r="F195" t="n">
-        <v>8647.639499999999</v>
+        <v>21774.5005</v>
       </c>
       <c r="G195" t="n">
-        <v>29.13499999999997</v>
+        <v>29.13999999999997</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -8285,10 +8269,10 @@
         <v>29</v>
       </c>
       <c r="F196" t="n">
-        <v>10000</v>
+        <v>8647.639499999999</v>
       </c>
       <c r="G196" t="n">
-        <v>29.12999999999997</v>
+        <v>29.13499999999997</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -8314,22 +8298,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C197" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D197" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E197" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F197" t="n">
-        <v>57527.3764</v>
+        <v>10000</v>
       </c>
       <c r="G197" t="n">
-        <v>29.12666666666663</v>
+        <v>29.12999999999997</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -8367,10 +8351,10 @@
         <v>29.1</v>
       </c>
       <c r="F198" t="n">
-        <v>30908.8187</v>
+        <v>57527.3764</v>
       </c>
       <c r="G198" t="n">
-        <v>29.12499999999996</v>
+        <v>29.12666666666663</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -8396,22 +8380,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C199" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="D199" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E199" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="F199" t="n">
-        <v>3552.5638</v>
+        <v>30908.8187</v>
       </c>
       <c r="G199" t="n">
-        <v>29.11999999999997</v>
+        <v>29.12499999999996</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -8449,10 +8433,10 @@
         <v>29</v>
       </c>
       <c r="F200" t="n">
-        <v>74398.9278</v>
+        <v>3552.5638</v>
       </c>
       <c r="G200" t="n">
-        <v>29.11499999999997</v>
+        <v>29.11999999999997</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -8478,22 +8462,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="C201" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="D201" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="E201" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="F201" t="n">
-        <v>13816.1769</v>
+        <v>74398.9278</v>
       </c>
       <c r="G201" t="n">
-        <v>29.10499999999997</v>
+        <v>29.11499999999997</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -8522,19 +8506,19 @@
         <v>28.8</v>
       </c>
       <c r="C202" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="D202" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="E202" t="n">
         <v>28.7</v>
       </c>
       <c r="F202" t="n">
-        <v>102000</v>
+        <v>13816.1769</v>
       </c>
       <c r="G202" t="n">
-        <v>29.10166666666663</v>
+        <v>29.10499999999997</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -8560,22 +8544,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="C203" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="D203" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="E203" t="n">
         <v>28.7</v>
       </c>
       <c r="F203" t="n">
-        <v>76283.0196</v>
+        <v>102000</v>
       </c>
       <c r="G203" t="n">
-        <v>29.0933333333333</v>
+        <v>29.10166666666663</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -8601,22 +8585,22 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C204" t="n">
         <v>28.8</v>
       </c>
-      <c r="C204" t="n">
-        <v>28.9</v>
-      </c>
       <c r="D204" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="E204" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="F204" t="n">
-        <v>23102</v>
+        <v>76283.0196</v>
       </c>
       <c r="G204" t="n">
-        <v>29.08666666666664</v>
+        <v>29.0933333333333</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -8642,22 +8626,22 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="C205" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="D205" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="E205" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="F205" t="n">
-        <v>632.8685</v>
+        <v>23102</v>
       </c>
       <c r="G205" t="n">
-        <v>29.07666666666664</v>
+        <v>29.08666666666664</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8683,22 +8667,22 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C206" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D206" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E206" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F206" t="n">
-        <v>180.413</v>
+        <v>632.8685</v>
       </c>
       <c r="G206" t="n">
-        <v>29.06666666666664</v>
+        <v>29.07666666666664</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8724,22 +8708,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C207" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D207" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E207" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F207" t="n">
-        <v>6972.4334</v>
+        <v>180.413</v>
       </c>
       <c r="G207" t="n">
-        <v>29.0583333333333</v>
+        <v>29.06666666666664</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8777,10 +8761,10 @@
         <v>28.7</v>
       </c>
       <c r="F208" t="n">
-        <v>12670.1419</v>
+        <v>6972.4334</v>
       </c>
       <c r="G208" t="n">
-        <v>29.05166666666664</v>
+        <v>29.0583333333333</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8806,22 +8790,22 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C209" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D209" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E209" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F209" t="n">
-        <v>36.4963</v>
+        <v>12670.1419</v>
       </c>
       <c r="G209" t="n">
-        <v>29.0433333333333</v>
+        <v>29.05166666666664</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8847,22 +8831,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C210" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D210" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E210" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F210" t="n">
-        <v>10944</v>
+        <v>36.4963</v>
       </c>
       <c r="G210" t="n">
-        <v>29.03499999999997</v>
+        <v>29.0433333333333</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8900,10 +8884,10 @@
         <v>28.7</v>
       </c>
       <c r="F211" t="n">
-        <v>9167</v>
+        <v>10944</v>
       </c>
       <c r="G211" t="n">
-        <v>29.02666666666664</v>
+        <v>29.03499999999997</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8941,10 +8925,10 @@
         <v>28.7</v>
       </c>
       <c r="F212" t="n">
-        <v>1638</v>
+        <v>9167</v>
       </c>
       <c r="G212" t="n">
-        <v>29.01999999999997</v>
+        <v>29.02666666666664</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -8970,22 +8954,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C213" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D213" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E213" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F213" t="n">
-        <v>14640.0844</v>
+        <v>1638</v>
       </c>
       <c r="G213" t="n">
-        <v>29.01333333333331</v>
+        <v>29.01999999999997</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -9011,22 +8995,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="C214" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="D214" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E214" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="F214" t="n">
-        <v>2110.6809</v>
+        <v>14640.0844</v>
       </c>
       <c r="G214" t="n">
-        <v>29.00333333333331</v>
+        <v>29.01333333333331</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -9052,22 +9036,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="C215" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="D215" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="E215" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="F215" t="n">
-        <v>906.704</v>
+        <v>2110.6809</v>
       </c>
       <c r="G215" t="n">
-        <v>28.99499999999997</v>
+        <v>29.00333333333331</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -9093,7 +9077,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C216" t="n">
         <v>28.7</v>
@@ -9102,13 +9086,13 @@
         <v>28.7</v>
       </c>
       <c r="E216" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F216" t="n">
-        <v>20000</v>
+        <v>906.704</v>
       </c>
       <c r="G216" t="n">
-        <v>28.98833333333331</v>
+        <v>28.99499999999997</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -9134,22 +9118,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C217" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D217" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E217" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F217" t="n">
-        <v>95230.8824</v>
+        <v>20000</v>
       </c>
       <c r="G217" t="n">
-        <v>28.97833333333331</v>
+        <v>28.98833333333331</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -9187,10 +9171,10 @@
         <v>28.6</v>
       </c>
       <c r="F218" t="n">
-        <v>49164.8446</v>
+        <v>95230.8824</v>
       </c>
       <c r="G218" t="n">
-        <v>28.96833333333331</v>
+        <v>28.97833333333331</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -9216,22 +9200,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C219" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D219" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E219" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F219" t="n">
-        <v>1600</v>
+        <v>49164.8446</v>
       </c>
       <c r="G219" t="n">
-        <v>28.95999999999997</v>
+        <v>28.96833333333331</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -9260,19 +9244,19 @@
         <v>28.7</v>
       </c>
       <c r="C220" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="D220" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="E220" t="n">
         <v>28.7</v>
       </c>
       <c r="F220" t="n">
-        <v>65891.7102</v>
+        <v>1600</v>
       </c>
       <c r="G220" t="n">
-        <v>28.95499999999997</v>
+        <v>28.95999999999997</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -9298,22 +9282,22 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="C221" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="D221" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="E221" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="F221" t="n">
-        <v>29502.6206</v>
+        <v>65891.7102</v>
       </c>
       <c r="G221" t="n">
-        <v>28.95166666666664</v>
+        <v>28.95499999999997</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -9339,7 +9323,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="C222" t="n">
         <v>29</v>
@@ -9348,13 +9332,13 @@
         <v>29</v>
       </c>
       <c r="E222" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="F222" t="n">
-        <v>27.7586</v>
+        <v>29502.6206</v>
       </c>
       <c r="G222" t="n">
-        <v>28.94666666666664</v>
+        <v>28.95166666666664</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -9392,10 +9376,10 @@
         <v>29</v>
       </c>
       <c r="F223" t="n">
-        <v>8706.0731</v>
+        <v>27.7586</v>
       </c>
       <c r="G223" t="n">
-        <v>28.94166666666664</v>
+        <v>28.94666666666664</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -9424,19 +9408,19 @@
         <v>29</v>
       </c>
       <c r="C224" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D224" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E224" t="n">
         <v>29</v>
       </c>
       <c r="F224" t="n">
-        <v>54047.213</v>
+        <v>8706.0731</v>
       </c>
       <c r="G224" t="n">
-        <v>28.93999999999997</v>
+        <v>28.94166666666664</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -9462,7 +9446,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C225" t="n">
         <v>29.1</v>
@@ -9471,13 +9455,13 @@
         <v>29.1</v>
       </c>
       <c r="E225" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F225" t="n">
-        <v>45503</v>
+        <v>54047.213</v>
       </c>
       <c r="G225" t="n">
-        <v>28.9383333333333</v>
+        <v>28.93999999999997</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -9515,10 +9499,10 @@
         <v>29.1</v>
       </c>
       <c r="F226" t="n">
-        <v>1000</v>
+        <v>45503</v>
       </c>
       <c r="G226" t="n">
-        <v>28.93666666666663</v>
+        <v>28.9383333333333</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -9544,7 +9528,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="C227" t="n">
         <v>29.1</v>
@@ -9553,13 +9537,13 @@
         <v>29.1</v>
       </c>
       <c r="E227" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="F227" t="n">
-        <v>6281.0032</v>
+        <v>1000</v>
       </c>
       <c r="G227" t="n">
-        <v>28.9333333333333</v>
+        <v>28.93666666666663</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -9585,7 +9569,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="C228" t="n">
         <v>29.1</v>
@@ -9594,13 +9578,13 @@
         <v>29.1</v>
       </c>
       <c r="E228" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="F228" t="n">
-        <v>36964.0812</v>
+        <v>6281.0032</v>
       </c>
       <c r="G228" t="n">
-        <v>28.93166666666663</v>
+        <v>28.9333333333333</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -9638,7 +9622,7 @@
         <v>29.1</v>
       </c>
       <c r="F229" t="n">
-        <v>68213.4445</v>
+        <v>36964.0812</v>
       </c>
       <c r="G229" t="n">
         <v>28.93166666666663</v>
@@ -9679,10 +9663,10 @@
         <v>29.1</v>
       </c>
       <c r="F230" t="n">
-        <v>5939.4158</v>
+        <v>68213.4445</v>
       </c>
       <c r="G230" t="n">
-        <v>28.92999999999996</v>
+        <v>28.93166666666663</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -9720,10 +9704,10 @@
         <v>29.1</v>
       </c>
       <c r="F231" t="n">
-        <v>40193.7943</v>
+        <v>5939.4158</v>
       </c>
       <c r="G231" t="n">
-        <v>28.92833333333329</v>
+        <v>28.92999999999996</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -9761,7 +9745,7 @@
         <v>29.1</v>
       </c>
       <c r="F232" t="n">
-        <v>39379.2057</v>
+        <v>40193.7943</v>
       </c>
       <c r="G232" t="n">
         <v>28.92833333333329</v>
@@ -9790,22 +9774,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C233" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="D233" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E233" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="F233" t="n">
-        <v>1039.864</v>
+        <v>39379.2057</v>
       </c>
       <c r="G233" t="n">
-        <v>28.92999999999996</v>
+        <v>28.92833333333329</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9831,22 +9815,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C234" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D234" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E234" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F234" t="n">
-        <v>10620.7943</v>
+        <v>1039.864</v>
       </c>
       <c r="G234" t="n">
-        <v>28.92833333333329</v>
+        <v>28.92999999999996</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9875,19 +9859,19 @@
         <v>29.1</v>
       </c>
       <c r="C235" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D235" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E235" t="n">
         <v>29.1</v>
       </c>
       <c r="F235" t="n">
-        <v>60600</v>
+        <v>10620.7943</v>
       </c>
       <c r="G235" t="n">
-        <v>28.93166666666662</v>
+        <v>28.92833333333329</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9913,7 +9897,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C236" t="n">
         <v>29.2</v>
@@ -9922,13 +9906,13 @@
         <v>29.2</v>
       </c>
       <c r="E236" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F236" t="n">
-        <v>10</v>
+        <v>60600</v>
       </c>
       <c r="G236" t="n">
-        <v>28.93499999999996</v>
+        <v>28.93166666666662</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9966,7 +9950,7 @@
         <v>29.2</v>
       </c>
       <c r="F237" t="n">
-        <v>7200</v>
+        <v>10</v>
       </c>
       <c r="G237" t="n">
         <v>28.93499999999996</v>
@@ -9995,19 +9979,19 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C238" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D238" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E238" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F238" t="n">
-        <v>545.1522</v>
+        <v>7200</v>
       </c>
       <c r="G238" t="n">
         <v>28.93499999999996</v>
@@ -10048,10 +10032,10 @@
         <v>29.1</v>
       </c>
       <c r="F239" t="n">
-        <v>23627.3645</v>
+        <v>545.1522</v>
       </c>
       <c r="G239" t="n">
-        <v>28.93333333333329</v>
+        <v>28.93499999999996</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -10089,10 +10073,10 @@
         <v>29.1</v>
       </c>
       <c r="F240" t="n">
-        <v>23827.4833</v>
+        <v>23627.3645</v>
       </c>
       <c r="G240" t="n">
-        <v>28.93499999999995</v>
+        <v>28.93333333333329</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -10130,7 +10114,7 @@
         <v>29.1</v>
       </c>
       <c r="F241" t="n">
-        <v>3893.2366</v>
+        <v>23827.4833</v>
       </c>
       <c r="G241" t="n">
         <v>28.93499999999995</v>
@@ -10159,22 +10143,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C242" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D242" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E242" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F242" t="n">
-        <v>10</v>
+        <v>3893.2366</v>
       </c>
       <c r="G242" t="n">
-        <v>28.93666666666662</v>
+        <v>28.93499999999995</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -10200,22 +10184,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="C243" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="D243" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="E243" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="F243" t="n">
-        <v>87402.6557</v>
+        <v>10</v>
       </c>
       <c r="G243" t="n">
-        <v>28.93499999999996</v>
+        <v>28.93666666666662</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -10253,10 +10237,10 @@
         <v>29</v>
       </c>
       <c r="F244" t="n">
-        <v>7843.9254</v>
+        <v>87402.6557</v>
       </c>
       <c r="G244" t="n">
-        <v>28.93666666666662</v>
+        <v>28.93499999999996</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -10294,7 +10278,7 @@
         <v>29</v>
       </c>
       <c r="F245" t="n">
-        <v>43450.5597</v>
+        <v>7843.9254</v>
       </c>
       <c r="G245" t="n">
         <v>28.93666666666662</v>
@@ -10335,7 +10319,7 @@
         <v>29</v>
       </c>
       <c r="F246" t="n">
-        <v>71936.40949999999</v>
+        <v>43450.5597</v>
       </c>
       <c r="G246" t="n">
         <v>28.93666666666662</v>
@@ -10364,22 +10348,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="C247" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="D247" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="E247" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="F247" t="n">
-        <v>91782.2801</v>
+        <v>71936.40949999999</v>
       </c>
       <c r="G247" t="n">
-        <v>28.94333333333329</v>
+        <v>28.93666666666662</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -10405,22 +10389,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="C248" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="D248" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="E248" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="F248" t="n">
-        <v>1138.4827</v>
+        <v>91782.2801</v>
       </c>
       <c r="G248" t="n">
-        <v>28.94499999999995</v>
+        <v>28.94333333333329</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -10449,19 +10433,19 @@
         <v>29</v>
       </c>
       <c r="C249" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D249" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E249" t="n">
         <v>29</v>
       </c>
       <c r="F249" t="n">
-        <v>9800</v>
+        <v>1138.4827</v>
       </c>
       <c r="G249" t="n">
-        <v>28.94999999999995</v>
+        <v>28.94499999999995</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -10499,10 +10483,10 @@
         <v>29</v>
       </c>
       <c r="F250" t="n">
-        <v>20270</v>
+        <v>9800</v>
       </c>
       <c r="G250" t="n">
-        <v>28.95166666666662</v>
+        <v>28.94999999999995</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -10528,22 +10512,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="C251" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="D251" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="E251" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="F251" t="n">
-        <v>1514.6047</v>
+        <v>20270</v>
       </c>
       <c r="G251" t="n">
-        <v>28.94833333333329</v>
+        <v>28.95166666666662</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -10569,22 +10553,22 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="C252" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="D252" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="E252" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="F252" t="n">
-        <v>100</v>
+        <v>1514.6047</v>
       </c>
       <c r="G252" t="n">
-        <v>28.94666666666662</v>
+        <v>28.94833333333329</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -10622,7 +10606,7 @@
         <v>29</v>
       </c>
       <c r="F253" t="n">
-        <v>178175</v>
+        <v>100</v>
       </c>
       <c r="G253" t="n">
         <v>28.94666666666662</v>
@@ -10651,22 +10635,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C254" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D254" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E254" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F254" t="n">
-        <v>100</v>
+        <v>178175</v>
       </c>
       <c r="G254" t="n">
-        <v>28.94833333333329</v>
+        <v>28.94666666666662</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -10704,10 +10688,10 @@
         <v>29.1</v>
       </c>
       <c r="F255" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G255" t="n">
-        <v>28.94999999999995</v>
+        <v>28.94833333333329</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -10745,10 +10729,10 @@
         <v>29.1</v>
       </c>
       <c r="F256" t="n">
-        <v>176</v>
+        <v>105</v>
       </c>
       <c r="G256" t="n">
-        <v>28.95166666666662</v>
+        <v>28.94999999999995</v>
       </c>
       <c r="H256" t="n">
         <v>0</v>
@@ -10777,19 +10761,19 @@
         <v>29.1</v>
       </c>
       <c r="C257" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D257" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E257" t="n">
         <v>29.1</v>
       </c>
       <c r="F257" t="n">
-        <v>7900</v>
+        <v>176</v>
       </c>
       <c r="G257" t="n">
-        <v>28.95333333333329</v>
+        <v>28.95166666666662</v>
       </c>
       <c r="H257" t="n">
         <v>0</v>
@@ -10827,10 +10811,10 @@
         <v>29.1</v>
       </c>
       <c r="F258" t="n">
-        <v>28942.4752</v>
+        <v>7900</v>
       </c>
       <c r="G258" t="n">
-        <v>28.95499999999996</v>
+        <v>28.95333333333329</v>
       </c>
       <c r="H258" t="n">
         <v>0</v>
@@ -10856,7 +10840,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C259" t="n">
         <v>29.2</v>
@@ -10865,13 +10849,13 @@
         <v>29.2</v>
       </c>
       <c r="E259" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F259" t="n">
-        <v>4927.2727</v>
+        <v>28942.4752</v>
       </c>
       <c r="G259" t="n">
-        <v>28.95833333333329</v>
+        <v>28.95499999999996</v>
       </c>
       <c r="H259" t="n">
         <v>0</v>
@@ -10897,22 +10881,22 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C260" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D260" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E260" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F260" t="n">
-        <v>7641</v>
+        <v>4927.2727</v>
       </c>
       <c r="G260" t="n">
-        <v>28.95999999999996</v>
+        <v>28.95833333333329</v>
       </c>
       <c r="H260" t="n">
         <v>0</v>
@@ -10938,22 +10922,22 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C261" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D261" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E261" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F261" t="n">
-        <v>56883</v>
+        <v>7641</v>
       </c>
       <c r="G261" t="n">
-        <v>28.96833333333329</v>
+        <v>28.95999999999996</v>
       </c>
       <c r="H261" t="n">
         <v>0</v>
@@ -10991,10 +10975,10 @@
         <v>29.2</v>
       </c>
       <c r="F262" t="n">
-        <v>6343.7969</v>
+        <v>56883</v>
       </c>
       <c r="G262" t="n">
-        <v>28.96999999999996</v>
+        <v>28.96833333333329</v>
       </c>
       <c r="H262" t="n">
         <v>0</v>
@@ -11032,10 +11016,10 @@
         <v>29.2</v>
       </c>
       <c r="F263" t="n">
-        <v>7119</v>
+        <v>6343.7969</v>
       </c>
       <c r="G263" t="n">
-        <v>28.97666666666663</v>
+        <v>28.96999999999996</v>
       </c>
       <c r="H263" t="n">
         <v>0</v>
@@ -11061,22 +11045,22 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="C264" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D264" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E264" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F264" t="n">
-        <v>7724.1855</v>
+        <v>7119</v>
       </c>
       <c r="G264" t="n">
-        <v>28.97999999999996</v>
+        <v>28.97666666666663</v>
       </c>
       <c r="H264" t="n">
         <v>0</v>
@@ -11102,22 +11086,22 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="C265" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D265" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E265" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F265" t="n">
-        <v>41508.1754</v>
+        <v>7724.1855</v>
       </c>
       <c r="G265" t="n">
-        <v>28.98833333333329</v>
+        <v>28.97999999999996</v>
       </c>
       <c r="H265" t="n">
         <v>0</v>
@@ -11155,10 +11139,10 @@
         <v>29.2</v>
       </c>
       <c r="F266" t="n">
-        <v>113538.0908</v>
+        <v>41508.1754</v>
       </c>
       <c r="G266" t="n">
-        <v>28.99833333333329</v>
+        <v>28.98833333333329</v>
       </c>
       <c r="H266" t="n">
         <v>0</v>
@@ -11184,22 +11168,22 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="C267" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D267" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="E267" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="F267" t="n">
-        <v>100</v>
+        <v>113538.0908</v>
       </c>
       <c r="G267" t="n">
-        <v>29.00833333333329</v>
+        <v>28.99833333333329</v>
       </c>
       <c r="H267" t="n">
         <v>0</v>
@@ -11237,10 +11221,10 @@
         <v>29.3</v>
       </c>
       <c r="F268" t="n">
-        <v>7505.8555</v>
+        <v>100</v>
       </c>
       <c r="G268" t="n">
-        <v>29.01833333333329</v>
+        <v>29.00833333333329</v>
       </c>
       <c r="H268" t="n">
         <v>0</v>
@@ -11266,22 +11250,22 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="C269" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="D269" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="E269" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="F269" t="n">
-        <v>15147.0408</v>
+        <v>7505.8555</v>
       </c>
       <c r="G269" t="n">
-        <v>29.03166666666663</v>
+        <v>29.01833333333329</v>
       </c>
       <c r="H269" t="n">
         <v>0</v>
@@ -11319,10 +11303,10 @@
         <v>29.4</v>
       </c>
       <c r="F270" t="n">
-        <v>27971.0544</v>
+        <v>15147.0408</v>
       </c>
       <c r="G270" t="n">
-        <v>29.04333333333329</v>
+        <v>29.03166666666663</v>
       </c>
       <c r="H270" t="n">
         <v>0</v>
@@ -11360,10 +11344,10 @@
         <v>29.4</v>
       </c>
       <c r="F271" t="n">
-        <v>15795.5102</v>
+        <v>27971.0544</v>
       </c>
       <c r="G271" t="n">
-        <v>29.05499999999996</v>
+        <v>29.04333333333329</v>
       </c>
       <c r="H271" t="n">
         <v>0</v>
@@ -11389,22 +11373,22 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="C272" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="D272" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="E272" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="F272" t="n">
-        <v>100</v>
+        <v>15795.5102</v>
       </c>
       <c r="G272" t="n">
-        <v>29.06833333333329</v>
+        <v>29.05499999999996</v>
       </c>
       <c r="H272" t="n">
         <v>0</v>
@@ -11430,22 +11414,22 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="C273" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="D273" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="E273" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="F273" t="n">
-        <v>9100</v>
+        <v>100</v>
       </c>
       <c r="G273" t="n">
-        <v>29.0783333333333</v>
+        <v>29.06833333333329</v>
       </c>
       <c r="H273" t="n">
         <v>0</v>
@@ -11471,22 +11455,22 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="C274" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D274" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="E274" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="F274" t="n">
-        <v>100</v>
+        <v>9100</v>
       </c>
       <c r="G274" t="n">
-        <v>29.09166666666663</v>
+        <v>29.0783333333333</v>
       </c>
       <c r="H274" t="n">
         <v>0</v>
@@ -11515,19 +11499,19 @@
         <v>29.3</v>
       </c>
       <c r="C275" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="D275" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="E275" t="n">
         <v>29.3</v>
       </c>
       <c r="F275" t="n">
-        <v>1929.2542</v>
+        <v>100</v>
       </c>
       <c r="G275" t="n">
-        <v>29.1033333333333</v>
+        <v>29.09166666666663</v>
       </c>
       <c r="H275" t="n">
         <v>0</v>
@@ -11553,22 +11537,22 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C276" t="n">
         <v>29.4</v>
       </c>
-      <c r="C276" t="n">
-        <v>29.5</v>
-      </c>
       <c r="D276" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="E276" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="F276" t="n">
-        <v>38022.305</v>
+        <v>1929.2542</v>
       </c>
       <c r="G276" t="n">
-        <v>29.11666666666663</v>
+        <v>29.1033333333333</v>
       </c>
       <c r="H276" t="n">
         <v>0</v>
@@ -11594,10 +11578,10 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C277" t="n">
         <v>29.5</v>
-      </c>
-      <c r="C277" t="n">
-        <v>29.4</v>
       </c>
       <c r="D277" t="n">
         <v>29.5</v>
@@ -11606,10 +11590,10 @@
         <v>29.4</v>
       </c>
       <c r="F277" t="n">
-        <v>49613.0882</v>
+        <v>38022.305</v>
       </c>
       <c r="G277" t="n">
-        <v>29.12999999999996</v>
+        <v>29.11666666666663</v>
       </c>
       <c r="H277" t="n">
         <v>0</v>
@@ -11647,10 +11631,10 @@
         <v>29.4</v>
       </c>
       <c r="F278" t="n">
-        <v>1740.1512</v>
+        <v>49613.0882</v>
       </c>
       <c r="G278" t="n">
-        <v>29.1433333333333</v>
+        <v>29.12999999999996</v>
       </c>
       <c r="H278" t="n">
         <v>0</v>
@@ -11676,10 +11660,10 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C279" t="n">
         <v>29.4</v>
-      </c>
-      <c r="C279" t="n">
-        <v>29.5</v>
       </c>
       <c r="D279" t="n">
         <v>29.5</v>
@@ -11688,10 +11672,10 @@
         <v>29.4</v>
       </c>
       <c r="F279" t="n">
-        <v>11013.4764</v>
+        <v>1740.1512</v>
       </c>
       <c r="G279" t="n">
-        <v>29.15666666666663</v>
+        <v>29.1433333333333</v>
       </c>
       <c r="H279" t="n">
         <v>0</v>
@@ -11720,19 +11704,19 @@
         <v>29.4</v>
       </c>
       <c r="C280" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="D280" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="E280" t="n">
         <v>29.4</v>
       </c>
       <c r="F280" t="n">
-        <v>1918.3236</v>
+        <v>11013.4764</v>
       </c>
       <c r="G280" t="n">
-        <v>29.16666666666664</v>
+        <v>29.15666666666663</v>
       </c>
       <c r="H280" t="n">
         <v>0</v>
@@ -11758,22 +11742,22 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="C281" t="n">
         <v>29.4</v>
       </c>
       <c r="D281" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="E281" t="n">
         <v>29.4</v>
       </c>
       <c r="F281" t="n">
-        <v>1521.2339</v>
+        <v>1918.3236</v>
       </c>
       <c r="G281" t="n">
-        <v>29.1733333333333</v>
+        <v>29.16666666666664</v>
       </c>
       <c r="H281" t="n">
         <v>0</v>
@@ -11799,10 +11783,10 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C282" t="n">
         <v>29.4</v>
-      </c>
-      <c r="C282" t="n">
-        <v>29.5</v>
       </c>
       <c r="D282" t="n">
         <v>29.5</v>
@@ -11811,10 +11795,10 @@
         <v>29.4</v>
       </c>
       <c r="F282" t="n">
-        <v>10000</v>
+        <v>1521.2339</v>
       </c>
       <c r="G282" t="n">
-        <v>29.18166666666664</v>
+        <v>29.1733333333333</v>
       </c>
       <c r="H282" t="n">
         <v>0</v>
@@ -11843,19 +11827,19 @@
         <v>29.4</v>
       </c>
       <c r="C283" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="D283" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="E283" t="n">
         <v>29.4</v>
       </c>
       <c r="F283" t="n">
-        <v>1466.7879</v>
+        <v>10000</v>
       </c>
       <c r="G283" t="n">
-        <v>29.18833333333331</v>
+        <v>29.18166666666664</v>
       </c>
       <c r="H283" t="n">
         <v>0</v>
@@ -11884,19 +11868,19 @@
         <v>29.4</v>
       </c>
       <c r="C284" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="D284" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="E284" t="n">
         <v>29.4</v>
       </c>
       <c r="F284" t="n">
-        <v>7631.8821</v>
+        <v>1466.7879</v>
       </c>
       <c r="G284" t="n">
-        <v>29.19499999999998</v>
+        <v>29.18833333333331</v>
       </c>
       <c r="H284" t="n">
         <v>0</v>
@@ -11922,22 +11906,22 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C285" t="n">
         <v>29.5</v>
       </c>
-      <c r="C285" t="n">
-        <v>29.6</v>
-      </c>
       <c r="D285" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="E285" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="F285" t="n">
-        <v>67996.6672</v>
+        <v>7631.8821</v>
       </c>
       <c r="G285" t="n">
-        <v>29.20333333333331</v>
+        <v>29.19499999999998</v>
       </c>
       <c r="H285" t="n">
         <v>0</v>
@@ -11963,22 +11947,22 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C286" t="n">
         <v>29.6</v>
       </c>
-      <c r="C286" t="n">
-        <v>29.7</v>
-      </c>
       <c r="D286" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="E286" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="F286" t="n">
-        <v>156510.7615</v>
+        <v>67996.6672</v>
       </c>
       <c r="G286" t="n">
-        <v>29.21333333333331</v>
+        <v>29.20333333333331</v>
       </c>
       <c r="H286" t="n">
         <v>0</v>
@@ -12004,22 +11988,22 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="C287" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="D287" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="E287" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="F287" t="n">
-        <v>58470.8664</v>
+        <v>156510.7615</v>
       </c>
       <c r="G287" t="n">
-        <v>29.22499999999998</v>
+        <v>29.21333333333331</v>
       </c>
       <c r="H287" t="n">
         <v>0</v>
@@ -12045,7 +12029,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="C288" t="n">
         <v>29.8</v>
@@ -12054,13 +12038,13 @@
         <v>29.8</v>
       </c>
       <c r="E288" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="F288" t="n">
-        <v>2971.14</v>
+        <v>58470.8664</v>
       </c>
       <c r="G288" t="n">
-        <v>29.23666666666664</v>
+        <v>29.22499999999998</v>
       </c>
       <c r="H288" t="n">
         <v>0</v>
@@ -12086,22 +12070,22 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C289" t="n">
         <v>29.8</v>
       </c>
-      <c r="C289" t="n">
-        <v>29.9</v>
-      </c>
       <c r="D289" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="E289" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="F289" t="n">
-        <v>19010</v>
+        <v>2971.14</v>
       </c>
       <c r="G289" t="n">
-        <v>29.24999999999998</v>
+        <v>29.23666666666664</v>
       </c>
       <c r="H289" t="n">
         <v>0</v>
@@ -12127,22 +12111,22 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C290" t="n">
         <v>29.9</v>
       </c>
-      <c r="C290" t="n">
-        <v>30.1</v>
-      </c>
       <c r="D290" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="E290" t="n">
-        <v>29.9</v>
+        <v>29.8</v>
       </c>
       <c r="F290" t="n">
-        <v>666854.6668</v>
+        <v>19010</v>
       </c>
       <c r="G290" t="n">
-        <v>29.26666666666665</v>
+        <v>29.24999999999998</v>
       </c>
       <c r="H290" t="n">
         <v>0</v>
@@ -12168,22 +12152,22 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C291" t="n">
         <v>30.1</v>
       </c>
-      <c r="C291" t="n">
-        <v>30.3</v>
-      </c>
       <c r="D291" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="E291" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="F291" t="n">
-        <v>166483.5701240924</v>
+        <v>666854.6668</v>
       </c>
       <c r="G291" t="n">
-        <v>29.28666666666665</v>
+        <v>29.26666666666665</v>
       </c>
       <c r="H291" t="n">
         <v>0</v>
@@ -12209,22 +12193,22 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="C292" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="D292" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="E292" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="F292" t="n">
-        <v>7504.7116</v>
+        <v>166483.5701240924</v>
       </c>
       <c r="G292" t="n">
-        <v>29.30499999999999</v>
+        <v>29.28666666666665</v>
       </c>
       <c r="H292" t="n">
         <v>0</v>
@@ -12242,7 +12226,7 @@
         </is>
       </c>
       <c r="M292" t="n">
-        <v>1.050944055944056</v>
+        <v>1.054440559440559</v>
       </c>
     </row>
     <row r="293">
@@ -12262,16 +12246,16 @@
         <v>30.2</v>
       </c>
       <c r="F293" t="n">
-        <v>12559.66</v>
+        <v>7504.7116</v>
       </c>
       <c r="G293" t="n">
-        <v>29.32499999999999</v>
+        <v>29.30499999999999</v>
       </c>
       <c r="H293" t="n">
         <v>0</v>
       </c>
       <c r="I293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
@@ -12285,28 +12269,28 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="C294" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="D294" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="E294" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="F294" t="n">
-        <v>101794.7452</v>
+        <v>12559.66</v>
       </c>
       <c r="G294" t="n">
-        <v>29.34666666666665</v>
+        <v>29.32499999999999</v>
       </c>
       <c r="H294" t="n">
         <v>0</v>
       </c>
       <c r="I294" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
@@ -12320,22 +12304,22 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C295" t="n">
         <v>30.4</v>
       </c>
-      <c r="C295" t="n">
-        <v>30.7</v>
-      </c>
       <c r="D295" t="n">
-        <v>30.7</v>
+        <v>30.4</v>
       </c>
       <c r="E295" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="F295" t="n">
-        <v>160925.5961</v>
+        <v>101794.7452</v>
       </c>
       <c r="G295" t="n">
-        <v>29.37166666666666</v>
+        <v>29.34666666666665</v>
       </c>
       <c r="H295" t="n">
         <v>0</v>
@@ -12355,22 +12339,22 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C296" t="n">
         <v>30.7</v>
       </c>
-      <c r="C296" t="n">
-        <v>30.6</v>
-      </c>
       <c r="D296" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="E296" t="n">
-        <v>30.6</v>
+        <v>30.4</v>
       </c>
       <c r="F296" t="n">
-        <v>291855.982</v>
+        <v>160925.5961</v>
       </c>
       <c r="G296" t="n">
-        <v>29.39499999999999</v>
+        <v>29.37166666666666</v>
       </c>
       <c r="H296" t="n">
         <v>0</v>
@@ -12393,19 +12377,19 @@
         <v>30.7</v>
       </c>
       <c r="C297" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="D297" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="E297" t="n">
-        <v>30.4</v>
+        <v>30.6</v>
       </c>
       <c r="F297" t="n">
-        <v>78597.5478</v>
+        <v>291855.982</v>
       </c>
       <c r="G297" t="n">
-        <v>29.41499999999998</v>
+        <v>29.39499999999999</v>
       </c>
       <c r="H297" t="n">
         <v>0</v>
@@ -12425,22 +12409,22 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="C298" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="D298" t="n">
         <v>30.7</v>
       </c>
       <c r="E298" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="F298" t="n">
-        <v>73614.1836</v>
+        <v>78597.5478</v>
       </c>
       <c r="G298" t="n">
-        <v>29.43833333333332</v>
+        <v>29.41499999999998</v>
       </c>
       <c r="H298" t="n">
         <v>0</v>
@@ -12466,16 +12450,16 @@
         <v>30.5</v>
       </c>
       <c r="D299" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="E299" t="n">
         <v>30.5</v>
       </c>
       <c r="F299" t="n">
-        <v>80100</v>
+        <v>73614.1836</v>
       </c>
       <c r="G299" t="n">
-        <v>29.46166666666666</v>
+        <v>29.43833333333332</v>
       </c>
       <c r="H299" t="n">
         <v>0</v>
@@ -12498,19 +12482,19 @@
         <v>30.5</v>
       </c>
       <c r="C300" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="D300" t="n">
         <v>30.5</v>
       </c>
       <c r="E300" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="F300" t="n">
-        <v>84114.73639999999</v>
+        <v>80100</v>
       </c>
       <c r="G300" t="n">
-        <v>29.48333333333333</v>
+        <v>29.46166666666666</v>
       </c>
       <c r="H300" t="n">
         <v>0</v>
@@ -12530,22 +12514,22 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="C301" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="D301" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="E301" t="n">
         <v>30.3</v>
       </c>
       <c r="F301" t="n">
-        <v>11765.8881</v>
+        <v>84114.73639999999</v>
       </c>
       <c r="G301" t="n">
-        <v>29.50333333333333</v>
+        <v>29.48333333333333</v>
       </c>
       <c r="H301" t="n">
         <v>0</v>
@@ -12571,16 +12555,16 @@
         <v>30.3</v>
       </c>
       <c r="D302" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="E302" t="n">
         <v>30.3</v>
       </c>
       <c r="F302" t="n">
-        <v>15551.8106</v>
+        <v>11765.8881</v>
       </c>
       <c r="G302" t="n">
-        <v>29.52166666666666</v>
+        <v>29.50333333333333</v>
       </c>
       <c r="H302" t="n">
         <v>0</v>
@@ -12600,7 +12584,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="C303" t="n">
         <v>30.3</v>
@@ -12612,10 +12596,10 @@
         <v>30.3</v>
       </c>
       <c r="F303" t="n">
-        <v>140.4043</v>
+        <v>15551.8106</v>
       </c>
       <c r="G303" t="n">
-        <v>29.54333333333333</v>
+        <v>29.52166666666666</v>
       </c>
       <c r="H303" t="n">
         <v>0</v>
@@ -12635,22 +12619,22 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="C304" t="n">
         <v>30.3</v>
       </c>
       <c r="D304" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="E304" t="n">
         <v>30.3</v>
       </c>
       <c r="F304" t="n">
-        <v>7361.5852</v>
+        <v>140.4043</v>
       </c>
       <c r="G304" t="n">
-        <v>29.56499999999999</v>
+        <v>29.54333333333333</v>
       </c>
       <c r="H304" t="n">
         <v>0</v>
@@ -12670,22 +12654,22 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="C305" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="D305" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="E305" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="F305" t="n">
-        <v>24550.164</v>
+        <v>7361.5852</v>
       </c>
       <c r="G305" t="n">
-        <v>29.58499999999999</v>
+        <v>29.56499999999999</v>
       </c>
       <c r="H305" t="n">
         <v>0</v>
@@ -12705,22 +12689,22 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="C306" t="n">
         <v>30.2</v>
       </c>
       <c r="D306" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="E306" t="n">
         <v>30.2</v>
       </c>
       <c r="F306" t="n">
-        <v>29799.0759</v>
+        <v>24550.164</v>
       </c>
       <c r="G306" t="n">
-        <v>29.60499999999999</v>
+        <v>29.58499999999999</v>
       </c>
       <c r="H306" t="n">
         <v>0</v>
@@ -12740,22 +12724,22 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C307" t="n">
         <v>30.2</v>
       </c>
-      <c r="C307" t="n">
-        <v>30.5</v>
-      </c>
       <c r="D307" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="E307" t="n">
         <v>30.2</v>
       </c>
       <c r="F307" t="n">
-        <v>56853.43966655738</v>
+        <v>29799.0759</v>
       </c>
       <c r="G307" t="n">
-        <v>29.62666666666666</v>
+        <v>29.60499999999999</v>
       </c>
       <c r="H307" t="n">
         <v>0</v>
@@ -12775,22 +12759,22 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="C308" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="D308" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="E308" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="F308" t="n">
-        <v>485.0657</v>
+        <v>56853.43966655738</v>
       </c>
       <c r="G308" t="n">
-        <v>29.64999999999999</v>
+        <v>29.62666666666666</v>
       </c>
       <c r="H308" t="n">
         <v>0</v>
@@ -12813,19 +12797,19 @@
         <v>30.4</v>
       </c>
       <c r="C309" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="D309" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="E309" t="n">
         <v>30.4</v>
       </c>
       <c r="F309" t="n">
-        <v>23797.6973</v>
+        <v>485.0657</v>
       </c>
       <c r="G309" t="n">
-        <v>29.67333333333333</v>
+        <v>29.64999999999999</v>
       </c>
       <c r="H309" t="n">
         <v>0</v>
@@ -12845,7 +12829,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="C310" t="n">
         <v>30.5</v>
@@ -12854,13 +12838,13 @@
         <v>30.5</v>
       </c>
       <c r="E310" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="F310" t="n">
-        <v>2882.0327</v>
+        <v>23797.6973</v>
       </c>
       <c r="G310" t="n">
-        <v>29.69666666666666</v>
+        <v>29.67333333333333</v>
       </c>
       <c r="H310" t="n">
         <v>0</v>
@@ -12892,10 +12876,10 @@
         <v>30.5</v>
       </c>
       <c r="F311" t="n">
-        <v>36520.5244</v>
+        <v>2882.0327</v>
       </c>
       <c r="G311" t="n">
-        <v>29.72333333333333</v>
+        <v>29.69666666666666</v>
       </c>
       <c r="H311" t="n">
         <v>0</v>
@@ -12915,22 +12899,22 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="C312" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="D312" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="E312" t="n">
-        <v>30.2</v>
+        <v>30.5</v>
       </c>
       <c r="F312" t="n">
-        <v>21889.2165</v>
+        <v>36520.5244</v>
       </c>
       <c r="G312" t="n">
-        <v>29.74499999999999</v>
+        <v>29.72333333333333</v>
       </c>
       <c r="H312" t="n">
         <v>0</v>
@@ -12950,22 +12934,22 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="C313" t="n">
         <v>30.3</v>
       </c>
       <c r="D313" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="E313" t="n">
         <v>30.2</v>
       </c>
       <c r="F313" t="n">
-        <v>8357.920700000001</v>
+        <v>21889.2165</v>
       </c>
       <c r="G313" t="n">
-        <v>29.76666666666666</v>
+        <v>29.74499999999999</v>
       </c>
       <c r="H313" t="n">
         <v>0</v>
@@ -12985,22 +12969,22 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="C314" t="n">
         <v>30.3</v>
       </c>
       <c r="D314" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="E314" t="n">
         <v>30.2</v>
       </c>
       <c r="F314" t="n">
-        <v>22959.9634</v>
+        <v>8357.920700000001</v>
       </c>
       <c r="G314" t="n">
-        <v>29.78666666666666</v>
+        <v>29.76666666666666</v>
       </c>
       <c r="H314" t="n">
         <v>0</v>
@@ -13023,19 +13007,19 @@
         <v>30.3</v>
       </c>
       <c r="C315" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="D315" t="n">
-        <v>30.5</v>
+        <v>30.3</v>
       </c>
       <c r="E315" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="F315" t="n">
-        <v>25008.7445</v>
+        <v>22959.9634</v>
       </c>
       <c r="G315" t="n">
-        <v>29.80833333333333</v>
+        <v>29.78666666666666</v>
       </c>
       <c r="H315" t="n">
         <v>0</v>
@@ -13055,22 +13039,22 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C316" t="n">
         <v>30.4</v>
       </c>
-      <c r="C316" t="n">
-        <v>30.3</v>
-      </c>
       <c r="D316" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="E316" t="n">
         <v>30.3</v>
       </c>
       <c r="F316" t="n">
-        <v>611.7478</v>
+        <v>25008.7445</v>
       </c>
       <c r="G316" t="n">
-        <v>29.82833333333333</v>
+        <v>29.80833333333333</v>
       </c>
       <c r="H316" t="n">
         <v>0</v>
@@ -13090,22 +13074,22 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="C317" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="D317" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="E317" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="F317" t="n">
-        <v>15037.0724</v>
+        <v>611.7478</v>
       </c>
       <c r="G317" t="n">
-        <v>29.845</v>
+        <v>29.82833333333333</v>
       </c>
       <c r="H317" t="n">
         <v>0</v>
@@ -13125,22 +13109,22 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="C318" t="n">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="D318" t="n">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="E318" t="n">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="F318" t="n">
-        <v>100</v>
+        <v>15037.0724</v>
       </c>
       <c r="G318" t="n">
-        <v>29.86666666666666</v>
+        <v>29.845</v>
       </c>
       <c r="H318" t="n">
         <v>0</v>
@@ -13172,10 +13156,10 @@
         <v>30.5</v>
       </c>
       <c r="F319" t="n">
-        <v>16326.1639</v>
+        <v>100</v>
       </c>
       <c r="G319" t="n">
-        <v>29.88833333333333</v>
+        <v>29.86666666666666</v>
       </c>
       <c r="H319" t="n">
         <v>0</v>
@@ -13195,22 +13179,22 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="C320" t="n">
-        <v>30.2</v>
+        <v>30.5</v>
       </c>
       <c r="D320" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="E320" t="n">
-        <v>30.2</v>
+        <v>30.5</v>
       </c>
       <c r="F320" t="n">
-        <v>7217.5756</v>
+        <v>16326.1639</v>
       </c>
       <c r="G320" t="n">
-        <v>29.90666666666666</v>
+        <v>29.88833333333333</v>
       </c>
       <c r="H320" t="n">
         <v>0</v>
@@ -13230,7 +13214,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="C321" t="n">
         <v>30.2</v>
@@ -13242,10 +13226,10 @@
         <v>30.2</v>
       </c>
       <c r="F321" t="n">
-        <v>23320.9242</v>
+        <v>7217.5756</v>
       </c>
       <c r="G321" t="n">
-        <v>29.92333333333333</v>
+        <v>29.90666666666666</v>
       </c>
       <c r="H321" t="n">
         <v>0</v>
@@ -13265,22 +13249,22 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="C322" t="n">
         <v>30.2</v>
       </c>
       <c r="D322" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="E322" t="n">
         <v>30.2</v>
       </c>
       <c r="F322" t="n">
-        <v>9006.211600000001</v>
+        <v>23320.9242</v>
       </c>
       <c r="G322" t="n">
-        <v>29.94</v>
+        <v>29.92333333333333</v>
       </c>
       <c r="H322" t="n">
         <v>0</v>
@@ -13300,7 +13284,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="C323" t="n">
         <v>30.2</v>
@@ -13309,13 +13293,13 @@
         <v>30.2</v>
       </c>
       <c r="E323" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="F323" t="n">
-        <v>7035.94</v>
+        <v>9006.211600000001</v>
       </c>
       <c r="G323" t="n">
-        <v>29.95666666666666</v>
+        <v>29.94</v>
       </c>
       <c r="H323" t="n">
         <v>0</v>
@@ -13335,22 +13319,22 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C324" t="n">
         <v>30.2</v>
       </c>
-      <c r="C324" t="n">
-        <v>30.4</v>
-      </c>
       <c r="D324" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="E324" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="F324" t="n">
-        <v>935.9605</v>
+        <v>7035.94</v>
       </c>
       <c r="G324" t="n">
-        <v>29.97833333333334</v>
+        <v>29.95666666666666</v>
       </c>
       <c r="H324" t="n">
         <v>0</v>
@@ -13370,22 +13354,22 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="C325" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="D325" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="E325" t="n">
-        <v>29.9</v>
+        <v>30.2</v>
       </c>
       <c r="F325" t="n">
-        <v>286775.8201</v>
+        <v>935.9605</v>
       </c>
       <c r="G325" t="n">
-        <v>29.99666666666667</v>
+        <v>29.97833333333334</v>
       </c>
       <c r="H325" t="n">
         <v>0</v>
@@ -13405,22 +13389,22 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="C326" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="D326" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="E326" t="n">
         <v>29.9</v>
       </c>
       <c r="F326" t="n">
-        <v>15229.4425</v>
+        <v>286775.8201</v>
       </c>
       <c r="G326" t="n">
-        <v>30.01333333333333</v>
+        <v>29.99666666666667</v>
       </c>
       <c r="H326" t="n">
         <v>0</v>
@@ -13449,13 +13433,13 @@
         <v>30.2</v>
       </c>
       <c r="E327" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="F327" t="n">
-        <v>12301</v>
+        <v>15229.4425</v>
       </c>
       <c r="G327" t="n">
-        <v>30.02833333333333</v>
+        <v>30.01333333333333</v>
       </c>
       <c r="H327" t="n">
         <v>0</v>
@@ -13487,10 +13471,10 @@
         <v>30.2</v>
       </c>
       <c r="F328" t="n">
-        <v>2690.1986</v>
+        <v>12301</v>
       </c>
       <c r="G328" t="n">
-        <v>30.04333333333334</v>
+        <v>30.02833333333333</v>
       </c>
       <c r="H328" t="n">
         <v>0</v>
@@ -13522,10 +13506,10 @@
         <v>30.2</v>
       </c>
       <c r="F329" t="n">
-        <v>706.4238</v>
+        <v>2690.1986</v>
       </c>
       <c r="G329" t="n">
-        <v>30.05666666666667</v>
+        <v>30.04333333333334</v>
       </c>
       <c r="H329" t="n">
         <v>0</v>
@@ -13557,10 +13541,10 @@
         <v>30.2</v>
       </c>
       <c r="F330" t="n">
-        <v>4006.2091</v>
+        <v>706.4238</v>
       </c>
       <c r="G330" t="n">
-        <v>30.07</v>
+        <v>30.05666666666667</v>
       </c>
       <c r="H330" t="n">
         <v>0</v>
@@ -13592,10 +13576,10 @@
         <v>30.2</v>
       </c>
       <c r="F331" t="n">
-        <v>10126.7511</v>
+        <v>4006.2091</v>
       </c>
       <c r="G331" t="n">
-        <v>30.08333333333333</v>
+        <v>30.07</v>
       </c>
       <c r="H331" t="n">
         <v>0</v>
@@ -13627,10 +13611,10 @@
         <v>30.2</v>
       </c>
       <c r="F332" t="n">
-        <v>23452.1151</v>
+        <v>10126.7511</v>
       </c>
       <c r="G332" t="n">
-        <v>30.095</v>
+        <v>30.08333333333333</v>
       </c>
       <c r="H332" t="n">
         <v>0</v>
@@ -13650,22 +13634,22 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="C333" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="D333" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="E333" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="F333" t="n">
-        <v>1610.0879</v>
+        <v>23452.1151</v>
       </c>
       <c r="G333" t="n">
-        <v>30.11</v>
+        <v>30.095</v>
       </c>
       <c r="H333" t="n">
         <v>0</v>
@@ -13697,10 +13681,10 @@
         <v>30.1</v>
       </c>
       <c r="F334" t="n">
-        <v>6400</v>
+        <v>1610.0879</v>
       </c>
       <c r="G334" t="n">
-        <v>30.12333333333333</v>
+        <v>30.11</v>
       </c>
       <c r="H334" t="n">
         <v>0</v>
@@ -13732,10 +13716,10 @@
         <v>30.1</v>
       </c>
       <c r="F335" t="n">
-        <v>281</v>
+        <v>6400</v>
       </c>
       <c r="G335" t="n">
-        <v>30.13499999999999</v>
+        <v>30.12333333333333</v>
       </c>
       <c r="H335" t="n">
         <v>0</v>
@@ -13755,22 +13739,22 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="C336" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="D336" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="E336" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="F336" t="n">
-        <v>1940.6622</v>
+        <v>281</v>
       </c>
       <c r="G336" t="n">
-        <v>30.14666666666666</v>
+        <v>30.13499999999999</v>
       </c>
       <c r="H336" t="n">
         <v>0</v>
@@ -13802,10 +13786,10 @@
         <v>30.2</v>
       </c>
       <c r="F337" t="n">
-        <v>1581.5644</v>
+        <v>1940.6622</v>
       </c>
       <c r="G337" t="n">
-        <v>30.15999999999999</v>
+        <v>30.14666666666666</v>
       </c>
       <c r="H337" t="n">
         <v>0</v>
@@ -13820,6 +13804,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C338" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="D338" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E338" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="F338" t="n">
+        <v>1581.5644</v>
+      </c>
+      <c r="G338" t="n">
+        <v>30.15999999999999</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="n">
+        <v>0</v>
+      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr"/>
+      <c r="M338" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-16 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-16 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -781,14 +781,10 @@
         <v>-1551692.94</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J12" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -818,7 +814,7 @@
         <v>-1507597.7423</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>28.7</v>
@@ -826,11 +822,7 @@
       <c r="J13" t="n">
         <v>28.7</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -859,7 +851,7 @@
         <v>-1561332.5389</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>28.9</v>
@@ -900,7 +892,7 @@
         <v>-1547534.0726</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>28.7</v>
@@ -941,7 +933,7 @@
         <v>-1547534.0726</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>28.8</v>
@@ -982,7 +974,7 @@
         <v>-1547534.0726</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>28.8</v>
@@ -1023,9 +1015,11 @@
         <v>-1536259.9302</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>28.8</v>
+      </c>
       <c r="J18" t="n">
         <v>28.7</v>
       </c>
@@ -1062,11 +1056,9 @@
         <v>-1536259.9302</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
-      </c>
-      <c r="I19" t="n">
-        <v>28.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
         <v>28.7</v>
       </c>
@@ -2819,9 +2811,11 @@
         <v>-1190952.913400001</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J64" t="n">
         <v>28.7</v>
       </c>
@@ -2858,9 +2852,11 @@
         <v>-1264175.830100001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J65" t="n">
         <v>28.7</v>
       </c>
@@ -2897,9 +2893,11 @@
         <v>-1264175.830100001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J66" t="n">
         <v>28.7</v>
       </c>
@@ -2936,9 +2934,11 @@
         <v>-1271486.830100001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J67" t="n">
         <v>28.7</v>
       </c>
@@ -2975,9 +2975,11 @@
         <v>-1313341.216100001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J68" t="n">
         <v>28.7</v>
       </c>
@@ -3014,9 +3016,11 @@
         <v>-1313341.216100001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I69" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J69" t="n">
         <v>28.7</v>
       </c>
@@ -3053,9 +3057,11 @@
         <v>-1413341.216100001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J70" t="n">
         <v>28.7</v>
       </c>
@@ -3092,9 +3098,11 @@
         <v>-1413331.216100001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J71" t="n">
         <v>28.7</v>
       </c>
@@ -3131,9 +3139,11 @@
         <v>-1413331.216100001</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J72" t="n">
         <v>28.7</v>
       </c>
@@ -3170,9 +3180,11 @@
         <v>-1414112.363800001</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J73" t="n">
         <v>28.7</v>
       </c>
@@ -3209,9 +3221,11 @@
         <v>-1414112.363800001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J74" t="n">
         <v>28.7</v>
       </c>
@@ -3248,9 +3262,11 @@
         <v>-1414112.363800001</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J75" t="n">
         <v>28.7</v>
       </c>
@@ -3287,9 +3303,11 @@
         <v>-1467813.794500001</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J76" t="n">
         <v>28.7</v>
       </c>
@@ -3326,9 +3344,11 @@
         <v>-1464533.634900001</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>28.5</v>
+      </c>
       <c r="J77" t="n">
         <v>28.7</v>
       </c>
@@ -3365,9 +3385,11 @@
         <v>-1464533.634900001</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J78" t="n">
         <v>28.7</v>
       </c>
@@ -3404,9 +3426,11 @@
         <v>-1456221.185600001</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J79" t="n">
         <v>28.7</v>
       </c>
@@ -3443,9 +3467,11 @@
         <v>-1456221.185600001</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J80" t="n">
         <v>28.7</v>
       </c>
@@ -3482,9 +3508,11 @@
         <v>-1456221.185600001</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J81" t="n">
         <v>28.7</v>
       </c>
@@ -3521,9 +3549,11 @@
         <v>-1456221.185600001</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J82" t="n">
         <v>28.7</v>
       </c>
@@ -3560,9 +3590,11 @@
         <v>-1465883.081400001</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J83" t="n">
         <v>28.7</v>
       </c>
@@ -3599,9 +3631,11 @@
         <v>-1465872.081400001</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J84" t="n">
         <v>28.7</v>
       </c>
@@ -3638,9 +3672,11 @@
         <v>-1475547.831400001</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>28.8</v>
+      </c>
       <c r="J85" t="n">
         <v>28.7</v>
       </c>
@@ -3677,9 +3713,11 @@
         <v>-1392264.712800001</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>28.5</v>
+      </c>
       <c r="J86" t="n">
         <v>28.7</v>
       </c>
@@ -3716,9 +3754,11 @@
         <v>-1316187.725000001</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J87" t="n">
         <v>28.7</v>
       </c>
@@ -6056,9 +6096,11 @@
         <v>-1467871.686072204</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J147" t="n">
         <v>28.7</v>
       </c>
@@ -6173,9 +6215,11 @@
         <v>-1434470.571372204</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>28.8</v>
+      </c>
       <c r="J150" t="n">
         <v>28.7</v>
       </c>
@@ -6251,9 +6295,11 @@
         <v>-1474472.677672205</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J152" t="n">
         <v>28.7</v>
       </c>
@@ -6329,9 +6375,11 @@
         <v>-1475170.098772204</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I154" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J154" t="n">
         <v>28.7</v>
       </c>
@@ -6368,9 +6416,11 @@
         <v>-1474402.235472204</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J155" t="n">
         <v>28.7</v>
       </c>
@@ -6407,9 +6457,11 @@
         <v>-1474402.235472204</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>28.8</v>
+      </c>
       <c r="J156" t="n">
         <v>28.7</v>
       </c>
@@ -6563,9 +6615,11 @@
         <v>-1605869.166272204</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J160" t="n">
         <v>28.7</v>
       </c>
@@ -6602,9 +6656,11 @@
         <v>-1605869.166272204</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J161" t="n">
         <v>28.7</v>
       </c>
@@ -6641,9 +6697,11 @@
         <v>-1605869.166272204</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J162" t="n">
         <v>28.7</v>
       </c>
@@ -6680,9 +6738,11 @@
         <v>-1605769.166272204</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J163" t="n">
         <v>28.7</v>
       </c>
@@ -8357,9 +8417,11 @@
         <v>-1672377.611472204</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J206" t="n">
         <v>28.7</v>
       </c>
@@ -8396,9 +8458,11 @@
         <v>-1675967.611472204</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J207" t="n">
         <v>28.7</v>
       </c>
@@ -8435,9 +8499,11 @@
         <v>-1675967.611472204</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J208" t="n">
         <v>28.7</v>
       </c>
@@ -8474,9 +8540,11 @@
         <v>-1604046.171572204</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J209" t="n">
         <v>28.7</v>
       </c>
@@ -8513,9 +8581,11 @@
         <v>-1604046.171572204</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J210" t="n">
         <v>28.7</v>
       </c>
@@ -8552,9 +8622,11 @@
         <v>-1650392.006272204</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J211" t="n">
         <v>28.7</v>
       </c>
@@ -8591,9 +8663,11 @@
         <v>-1653276.006772204</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J212" t="n">
         <v>28.7</v>
       </c>
@@ -8630,9 +8704,11 @@
         <v>-1651850.522272204</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>29</v>
+      </c>
       <c r="J213" t="n">
         <v>28.7</v>
       </c>
@@ -8669,9 +8745,11 @@
         <v>-1633977.960472204</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J214" t="n">
         <v>28.7</v>
       </c>
@@ -8708,9 +8786,11 @@
         <v>-1637386.409072204</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J215" t="n">
         <v>28.7</v>
       </c>
@@ -8747,9 +8827,11 @@
         <v>-1622808.840672204</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J216" t="n">
         <v>28.7</v>
       </c>
@@ -8786,9 +8868,11 @@
         <v>-1622808.840672204</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J217" t="n">
         <v>28.7</v>
       </c>
@@ -8825,9 +8909,11 @@
         <v>-1622808.840672204</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J218" t="n">
         <v>28.7</v>
       </c>
@@ -8864,9 +8950,11 @@
         <v>-1623919.840672204</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J219" t="n">
         <v>28.7</v>
       </c>
@@ -8903,9 +8991,11 @@
         <v>-1623869.840672204</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J220" t="n">
         <v>28.7</v>
       </c>
@@ -8942,9 +9032,11 @@
         <v>-1604168.840672204</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J221" t="n">
         <v>28.7</v>
       </c>
@@ -8981,9 +9073,11 @@
         <v>-1604168.840672204</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J222" t="n">
         <v>28.7</v>
       </c>
@@ -9020,9 +9114,11 @@
         <v>-1605703.455972204</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J223" t="n">
         <v>28.7</v>
       </c>
@@ -9059,9 +9155,11 @@
         <v>-1605703.455972204</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J224" t="n">
         <v>28.7</v>
       </c>
@@ -9098,9 +9196,11 @@
         <v>-1605703.455972204</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J225" t="n">
         <v>28.7</v>
       </c>
@@ -9254,9 +9354,11 @@
         <v>-1549096.848272204</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J229" t="n">
         <v>28.7</v>
       </c>
@@ -9293,9 +9395,11 @@
         <v>-1549096.848272204</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J230" t="n">
         <v>28.7</v>
       </c>
@@ -9332,9 +9436,11 @@
         <v>-1553192.120772204</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J231" t="n">
         <v>28.7</v>
       </c>
@@ -9371,9 +9477,11 @@
         <v>-1571701.649272204</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J232" t="n">
         <v>28.7</v>
       </c>
@@ -9410,9 +9518,11 @@
         <v>-1555321.649272204</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J233" t="n">
         <v>28.7</v>
       </c>
@@ -9449,9 +9559,11 @@
         <v>-1559823.185272204</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J234" t="n">
         <v>28.7</v>
       </c>
@@ -9488,9 +9600,11 @@
         <v>-1559823.185272204</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>29</v>
+      </c>
       <c r="J235" t="n">
         <v>28.7</v>
       </c>
@@ -9527,9 +9641,11 @@
         <v>-1558123.185272204</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>29</v>
+      </c>
       <c r="J236" t="n">
         <v>28.7</v>
       </c>
@@ -9566,9 +9682,11 @@
         <v>-1559440.185272204</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J237" t="n">
         <v>28.7</v>
       </c>
@@ -9605,9 +9723,11 @@
         <v>-1545340.185272204</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J238" t="n">
         <v>28.7</v>
       </c>
@@ -9644,9 +9764,11 @@
         <v>-1610041.937572204</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J239" t="n">
         <v>28.7</v>
       </c>
@@ -9683,9 +9805,11 @@
         <v>-1606582.485372204</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>29</v>
+      </c>
       <c r="J240" t="n">
         <v>28.7</v>
       </c>
@@ -9722,9 +9846,11 @@
         <v>-1606582.485372204</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J241" t="n">
         <v>28.7</v>
       </c>
@@ -9761,9 +9887,11 @@
         <v>-1606582.485372204</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J242" t="n">
         <v>28.7</v>
       </c>
@@ -9800,9 +9928,11 @@
         <v>-1638182.485372204</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J243" t="n">
         <v>28.7</v>
       </c>
@@ -9839,9 +9969,11 @@
         <v>-1636795.528772204</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J244" t="n">
         <v>28.7</v>
       </c>
@@ -9878,9 +10010,11 @@
         <v>-1636795.528772204</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>29</v>
+      </c>
       <c r="J245" t="n">
         <v>28.7</v>
       </c>
@@ -9917,9 +10051,11 @@
         <v>-1703552.510972204</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>29</v>
+      </c>
       <c r="J246" t="n">
         <v>28.7</v>
       </c>
@@ -9956,9 +10092,11 @@
         <v>-1702935.913572204</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>28.8</v>
+      </c>
       <c r="J247" t="n">
         <v>28.7</v>
       </c>
@@ -9995,9 +10133,11 @@
         <v>-1703304.954172204</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J248" t="n">
         <v>28.7</v>
       </c>
@@ -10034,9 +10174,11 @@
         <v>-1686636.490072204</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>28.8</v>
+      </c>
       <c r="J249" t="n">
         <v>28.7</v>
       </c>
@@ -10073,9 +10215,11 @@
         <v>-1677871.507272204</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>29</v>
+      </c>
       <c r="J250" t="n">
         <v>28.7</v>
       </c>
@@ -10112,9 +10256,11 @@
         <v>-1677871.507272204</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J251" t="n">
         <v>28.7</v>
       </c>
@@ -10151,9 +10297,11 @@
         <v>-1706261.794172204</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J252" t="n">
         <v>28.7</v>
       </c>
@@ -10190,9 +10338,11 @@
         <v>-1706261.794172204</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>29</v>
+      </c>
       <c r="J253" t="n">
         <v>28.7</v>
       </c>
@@ -10229,9 +10379,11 @@
         <v>-1706261.794172204</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>29</v>
+      </c>
       <c r="J254" t="n">
         <v>28.7</v>
       </c>
@@ -10268,9 +10420,11 @@
         <v>-1706261.794172204</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>29</v>
+      </c>
       <c r="J255" t="n">
         <v>28.7</v>
       </c>
@@ -10307,9 +10461,11 @@
         <v>-1648734.417772204</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>29</v>
+      </c>
       <c r="J256" t="n">
         <v>28.7</v>
       </c>
@@ -10424,9 +10580,11 @@
         <v>-1652286.981572204</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>29</v>
+      </c>
       <c r="J259" t="n">
         <v>28.7</v>
       </c>
@@ -10502,9 +10660,11 @@
         <v>-1564103.158472204</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J261" t="n">
         <v>28.7</v>
       </c>
@@ -10541,9 +10701,11 @@
         <v>-1640386.178072204</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J262" t="n">
         <v>28.7</v>
       </c>
@@ -10580,9 +10742,11 @@
         <v>-1617284.178072204</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>28.8</v>
+      </c>
       <c r="J263" t="n">
         <v>28.7</v>
       </c>
@@ -10619,9 +10783,11 @@
         <v>-1617917.046572204</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>28.9</v>
+      </c>
       <c r="J264" t="n">
         <v>28.7</v>
       </c>
@@ -10658,9 +10824,11 @@
         <v>-1618097.459572204</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J265" t="n">
         <v>28.7</v>
       </c>
@@ -10697,9 +10865,11 @@
         <v>-1611125.026172204</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J266" t="n">
         <v>28.7</v>
       </c>
@@ -10736,9 +10906,11 @@
         <v>-1611125.026172204</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I267" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J267" t="n">
         <v>28.7</v>
       </c>
@@ -10775,9 +10947,11 @@
         <v>-1611161.522472204</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I268" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J268" t="n">
         <v>28.7</v>
       </c>
@@ -10814,9 +10988,11 @@
         <v>-1600217.522472204</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I269" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J269" t="n">
         <v>28.7</v>
       </c>
@@ -10853,9 +11029,11 @@
         <v>-1600217.522472204</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J270" t="n">
         <v>28.7</v>
       </c>
@@ -10892,9 +11070,11 @@
         <v>-1600217.522472204</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J271" t="n">
         <v>28.7</v>
       </c>
@@ -10931,9 +11111,11 @@
         <v>-1614857.606872204</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I272" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J272" t="n">
         <v>28.7</v>
       </c>
@@ -10970,9 +11152,11 @@
         <v>-1616968.287772204</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J273" t="n">
         <v>28.7</v>
       </c>
@@ -11009,9 +11193,11 @@
         <v>-1616061.583772204</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I274" t="n">
+        <v>28.5</v>
+      </c>
       <c r="J274" t="n">
         <v>28.7</v>
       </c>
@@ -11048,9 +11234,11 @@
         <v>-1616061.583772204</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I275" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J275" t="n">
         <v>28.7</v>
       </c>
@@ -11087,9 +11275,11 @@
         <v>-1711292.466172204</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I276" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J276" t="n">
         <v>28.7</v>
       </c>
@@ -11126,9 +11316,11 @@
         <v>-1711292.466172204</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I277" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J277" t="n">
         <v>28.7</v>
       </c>
@@ -11165,9 +11357,11 @@
         <v>-1709692.466172204</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I278" t="n">
+        <v>28.6</v>
+      </c>
       <c r="J278" t="n">
         <v>28.7</v>
       </c>
@@ -11204,9 +11398,11 @@
         <v>-1643800.755972204</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I279" t="n">
+        <v>28.7</v>
+      </c>
       <c r="J279" t="n">
         <v>28.7</v>
       </c>
@@ -11243,9 +11439,11 @@
         <v>-1614298.135372204</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I280" t="n">
+        <v>28.8</v>
+      </c>
       <c r="J280" t="n">
         <v>28.7</v>
       </c>
@@ -12842,9 +13040,11 @@
         <v>-1421736.607272204</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J321" t="n">
         <v>28.7</v>
       </c>
@@ -12920,9 +13120,11 @@
         <v>-1429460.792772204</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>29.2</v>
+      </c>
       <c r="J323" t="n">
         <v>28.7</v>
       </c>
@@ -12959,9 +13161,11 @@
         <v>-1387952.617372204</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
-      </c>
-      <c r="I324" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I324" t="n">
+        <v>29.1</v>
+      </c>
       <c r="J324" t="n">
         <v>28.7</v>
       </c>
@@ -13895,7 +14099,7 @@
         <v>-1064018.563472204</v>
       </c>
       <c r="H348" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
@@ -13903,11 +14107,11 @@
       </c>
       <c r="K348" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L348" t="n">
-        <v>1.036811846689895</v>
+        <v>1</v>
       </c>
       <c r="M348" t="inlineStr"/>
     </row>
@@ -13934,11 +14138,17 @@
         <v>-397163.8966722041</v>
       </c>
       <c r="H349" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13970,8 +14180,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14000,11 +14216,17 @@
         <v>-238185.0381481118</v>
       </c>
       <c r="H351" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14033,11 +14255,17 @@
         <v>-238185.0381481118</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14066,11 +14294,17 @@
         <v>-136390.2929481117</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14099,11 +14333,17 @@
         <v>24535.30315188825</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14132,11 +14372,17 @@
         <v>-267320.6788481118</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14165,11 +14411,17 @@
         <v>-345918.2266481118</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14198,11 +14450,17 @@
         <v>-272304.0430481118</v>
       </c>
       <c r="H357" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14231,11 +14489,17 @@
         <v>-272304.0430481118</v>
       </c>
       <c r="H358" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14264,11 +14528,17 @@
         <v>-356418.7794481118</v>
       </c>
       <c r="H359" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14297,11 +14567,17 @@
         <v>-368184.6675481118</v>
       </c>
       <c r="H360" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14333,8 +14609,14 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14366,8 +14648,14 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14399,8 +14687,14 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="J363" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14432,8 +14726,14 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="J364" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14465,8 +14765,14 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="J365" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14498,8 +14804,14 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="J366" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14531,8 +14843,14 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="J367" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14564,8 +14882,14 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="J368" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14594,11 +14918,17 @@
         <v>-312568.7602815544</v>
       </c>
       <c r="H369" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="J369" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14630,8 +14960,14 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="J370" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14660,11 +14996,17 @@
         <v>-334457.9767815543</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="J371" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -14693,11 +15035,17 @@
         <v>-334457.9767815543</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="J372" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -14729,8 +15077,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -14759,15 +15113,23 @@
         <v>-309449.2322815544</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+      <c r="J374" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
+        <v>1.054233449477352</v>
+      </c>
+      <c r="M374" t="n">
+        <v>1.013986013986014</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -14792,7 +15154,7 @@
         <v>-310060.9800815544</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14825,7 +15187,7 @@
         <v>-325098.0524815544</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14858,7 +15220,7 @@
         <v>-324998.0524815544</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14891,7 +15253,7 @@
         <v>-324998.0524815544</v>
       </c>
       <c r="H378" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14924,7 +15286,7 @@
         <v>-332215.6280815544</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14957,7 +15319,7 @@
         <v>-332215.6280815544</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -14990,7 +15352,7 @@
         <v>-332215.6280815544</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -15023,7 +15385,7 @@
         <v>-332215.6280815544</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -15056,7 +15418,7 @@
         <v>-331279.6675815544</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -15122,7 +15484,7 @@
         <v>-633284.9301815544</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -15155,7 +15517,7 @@
         <v>-633284.9301815544</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -15254,7 +15616,7 @@
         <v>-633284.9301815544</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -15353,7 +15715,7 @@
         <v>-634895.0180815544</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -15386,7 +15748,7 @@
         <v>-634895.0180815544</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15419,7 +15781,7 @@
         <v>-634895.0180815544</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15452,7 +15814,7 @@
         <v>-632954.3558815544</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15485,7 +15847,7 @@
         <v>-632954.3558815544</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15518,7 +15880,7 @@
         <v>-702563.7983815544</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15551,7 +15913,7 @@
         <v>-989820.5244815545</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15584,7 +15946,7 @@
         <v>-989809.5244815545</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15617,7 +15979,7 @@
         <v>-1003003.443481555</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15650,7 +16012,7 @@
         <v>-1003003.443481555</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15683,7 +16045,7 @@
         <v>-1007856.513681554</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15716,7 +16078,7 @@
         <v>-1007845.513681554</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15749,7 +16111,7 @@
         <v>-1007845.513681554</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15782,7 +16144,7 @@
         <v>-1007845.513681554</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15815,7 +16177,7 @@
         <v>-1007845.513681554</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15826,6 +16188,6 @@
       <c r="M406" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-16 BackTest LOOM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -814,14 +814,10 @@
         <v>-1507597.7423</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J13" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
@@ -851,19 +847,11 @@
         <v>-1561332.5389</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -892,19 +880,11 @@
         <v>-1547534.0726</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J15" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -933,19 +913,11 @@
         <v>-1547534.0726</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J16" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -974,19 +946,11 @@
         <v>-1547534.0726</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J17" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1015,19 +979,11 @@
         <v>-1536259.9302</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J18" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1059,14 +1015,8 @@
         <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1098,14 +1048,8 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1137,14 +1081,8 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1176,14 +1114,8 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1215,14 +1147,8 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1254,14 +1180,8 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1293,14 +1213,8 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1332,14 +1246,8 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1371,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1410,14 +1312,8 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1449,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1488,14 +1378,8 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1527,14 +1411,8 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1566,14 +1444,8 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1605,14 +1477,8 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1641,17 +1507,11 @@
         <v>-1309960.2611</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1680,17 +1540,11 @@
         <v>-1324492.4886</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1719,17 +1573,11 @@
         <v>-1324492.4886</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1758,17 +1606,11 @@
         <v>-1324492.4886</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1797,17 +1639,11 @@
         <v>-1324492.4886</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1836,17 +1672,11 @@
         <v>-1324482.4886</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1875,17 +1705,11 @@
         <v>-1335358.6625</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1914,17 +1738,11 @@
         <v>-1335358.6625</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1953,17 +1771,11 @@
         <v>-1335358.6625</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1992,17 +1804,11 @@
         <v>-1335358.6625</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2031,17 +1837,11 @@
         <v>-1281445.2148</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2070,17 +1870,11 @@
         <v>-1281445.2148</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2109,17 +1903,11 @@
         <v>-1281445.2148</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2148,17 +1936,11 @@
         <v>-1179672.5618</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2187,17 +1969,11 @@
         <v>-1223026.949400001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2226,17 +2002,11 @@
         <v>-1223565.584200001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2265,17 +2035,11 @@
         <v>-1221256.978800001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2304,17 +2068,11 @@
         <v>-1221256.978800001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2343,17 +2101,11 @@
         <v>-1232456.978800001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2382,17 +2134,11 @@
         <v>-1231144.978800001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2421,17 +2167,11 @@
         <v>-1202717.671700001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2460,17 +2200,11 @@
         <v>-1202717.671700001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2499,17 +2233,11 @@
         <v>-1206597.096300001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2538,17 +2266,11 @@
         <v>-1206597.096300001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2577,17 +2299,11 @@
         <v>-1206697.096300001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2616,17 +2332,11 @@
         <v>-1172601.533200001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2655,17 +2365,11 @@
         <v>-1172601.533200001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2694,17 +2398,11 @@
         <v>-1172601.533200001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2733,17 +2431,11 @@
         <v>-1190952.913400001</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2772,17 +2464,11 @@
         <v>-1190952.913400001</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2811,19 +2497,11 @@
         <v>-1190952.913400001</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J64" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2852,19 +2530,11 @@
         <v>-1264175.830100001</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J65" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2893,19 +2563,11 @@
         <v>-1264175.830100001</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J66" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2934,19 +2596,11 @@
         <v>-1271486.830100001</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J67" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2975,19 +2629,11 @@
         <v>-1313341.216100001</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J68" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3016,19 +2662,11 @@
         <v>-1313341.216100001</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3057,19 +2695,11 @@
         <v>-1413341.216100001</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J70" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3098,19 +2728,11 @@
         <v>-1413331.216100001</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J71" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3139,19 +2761,11 @@
         <v>-1413331.216100001</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J72" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3180,19 +2794,11 @@
         <v>-1414112.363800001</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J73" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3221,19 +2827,11 @@
         <v>-1414112.363800001</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J74" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3262,19 +2860,11 @@
         <v>-1414112.363800001</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J75" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3303,19 +2893,11 @@
         <v>-1467813.794500001</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J76" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3344,19 +2926,11 @@
         <v>-1464533.634900001</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="J77" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3385,19 +2959,11 @@
         <v>-1464533.634900001</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J78" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3426,19 +2992,11 @@
         <v>-1456221.185600001</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J79" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3467,19 +3025,11 @@
         <v>-1456221.185600001</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3508,19 +3058,11 @@
         <v>-1456221.185600001</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J81" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3549,19 +3091,11 @@
         <v>-1456221.185600001</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J82" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3590,19 +3124,11 @@
         <v>-1465883.081400001</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J83" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3631,19 +3157,11 @@
         <v>-1465872.081400001</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3672,19 +3190,11 @@
         <v>-1475547.831400001</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J85" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3713,19 +3223,11 @@
         <v>-1392264.712800001</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3754,19 +3256,11 @@
         <v>-1316187.725000001</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J87" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3798,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3837,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3876,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3915,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3954,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3993,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4032,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4071,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4110,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4149,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4188,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4227,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4266,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4305,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4344,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4383,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4422,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4461,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4500,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4539,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4578,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4617,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4656,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4695,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4734,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4773,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4812,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4851,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4890,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4929,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4968,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5007,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5046,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5085,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5124,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5163,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5202,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5241,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5277,17 +4543,11 @@
         <v>-1093315.012672204</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5316,17 +4576,11 @@
         <v>-1093990.825572204</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5355,17 +4609,11 @@
         <v>-1066590.825572204</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5394,17 +4642,11 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5433,17 +4675,11 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5472,17 +4708,11 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5511,17 +4741,11 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5550,17 +4774,11 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5589,17 +4807,11 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5628,17 +4840,11 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5667,17 +4873,11 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5706,17 +4906,11 @@
         <v>-1056727.652572204</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5745,17 +4939,11 @@
         <v>-1053248.735772204</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5784,17 +4972,11 @@
         <v>-1027186.347072204</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5823,17 +5005,11 @@
         <v>-1028616.028472204</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5862,17 +5038,11 @@
         <v>-1249642.383772204</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5901,17 +5071,11 @@
         <v>-1249642.383772204</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5943,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5982,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6021,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6060,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6096,19 +5236,11 @@
         <v>-1467871.686072204</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J147" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6140,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6179,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6215,19 +5335,11 @@
         <v>-1434470.571372204</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J150" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6259,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6295,19 +5401,11 @@
         <v>-1474472.677672205</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J152" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6339,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6375,19 +5467,11 @@
         <v>-1475170.098772204</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J154" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6416,19 +5500,11 @@
         <v>-1474402.235472204</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J155" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6457,19 +5533,11 @@
         <v>-1474402.235472204</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J156" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6501,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6540,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6579,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6615,19 +5665,11 @@
         <v>-1605869.166272204</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J160" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6656,19 +5698,11 @@
         <v>-1605869.166272204</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J161" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6697,19 +5731,11 @@
         <v>-1605869.166272204</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J162" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6738,19 +5764,11 @@
         <v>-1605769.166272204</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J163" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6782,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6821,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6860,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6899,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6938,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6977,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7016,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7055,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7094,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7133,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7172,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7211,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7250,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7289,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7328,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7367,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7406,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7445,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7484,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7523,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7562,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7601,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7640,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7679,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7718,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7757,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7796,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7835,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7874,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7913,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7949,17 +6787,11 @@
         <v>-1554593.378772204</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7988,17 +6820,11 @@
         <v>-1554593.378772204</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8027,17 +6853,11 @@
         <v>-1554593.378772204</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8066,17 +6886,11 @@
         <v>-1752265.378672204</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8105,17 +6919,11 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8144,17 +6952,11 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8183,17 +6985,11 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8222,17 +7018,11 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8261,17 +7051,11 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8300,17 +7084,11 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8339,17 +7117,11 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8378,17 +7150,11 @@
         <v>-1672377.611472204</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8417,19 +7183,11 @@
         <v>-1672377.611472204</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J206" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8458,19 +7216,11 @@
         <v>-1675967.611472204</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J207" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8499,19 +7249,11 @@
         <v>-1675967.611472204</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J208" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8540,19 +7282,11 @@
         <v>-1604046.171572204</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J209" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8581,19 +7315,11 @@
         <v>-1604046.171572204</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J210" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8622,19 +7348,11 @@
         <v>-1650392.006272204</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J211" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8663,19 +7381,11 @@
         <v>-1653276.006772204</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J212" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8704,19 +7414,11 @@
         <v>-1651850.522272204</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>29</v>
-      </c>
-      <c r="J213" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8745,19 +7447,11 @@
         <v>-1633977.960472204</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J214" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8786,19 +7480,11 @@
         <v>-1637386.409072204</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J215" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8827,19 +7513,11 @@
         <v>-1622808.840672204</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J216" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8868,19 +7546,11 @@
         <v>-1622808.840672204</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J217" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8909,19 +7579,11 @@
         <v>-1622808.840672204</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J218" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8950,19 +7612,11 @@
         <v>-1623919.840672204</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J219" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8991,19 +7645,11 @@
         <v>-1623869.840672204</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J220" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9032,19 +7678,11 @@
         <v>-1604168.840672204</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J221" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9073,19 +7711,11 @@
         <v>-1604168.840672204</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J222" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9114,19 +7744,11 @@
         <v>-1605703.455972204</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="J223" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9155,19 +7777,11 @@
         <v>-1605703.455972204</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J224" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9196,19 +7810,11 @@
         <v>-1605703.455972204</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J225" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9240,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9279,14 +7879,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9318,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9354,19 +7942,11 @@
         <v>-1549096.848272204</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J229" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9395,19 +7975,11 @@
         <v>-1549096.848272204</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J230" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9436,19 +8008,11 @@
         <v>-1553192.120772204</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J231" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9477,19 +8041,11 @@
         <v>-1571701.649272204</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J232" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9518,19 +8074,11 @@
         <v>-1555321.649272204</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J233" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9559,19 +8107,11 @@
         <v>-1559823.185272204</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J234" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9600,19 +8140,11 @@
         <v>-1559823.185272204</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>29</v>
-      </c>
-      <c r="J235" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9641,19 +8173,11 @@
         <v>-1558123.185272204</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>29</v>
-      </c>
-      <c r="J236" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9682,19 +8206,11 @@
         <v>-1559440.185272204</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J237" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9723,19 +8239,11 @@
         <v>-1545340.185272204</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J238" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9764,19 +8272,11 @@
         <v>-1610041.937572204</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J239" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9805,19 +8305,11 @@
         <v>-1606582.485372204</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>29</v>
-      </c>
-      <c r="J240" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9846,19 +8338,11 @@
         <v>-1606582.485372204</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J241" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9887,19 +8371,11 @@
         <v>-1606582.485372204</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J242" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9928,19 +8404,11 @@
         <v>-1638182.485372204</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J243" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9969,19 +8437,11 @@
         <v>-1636795.528772204</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J244" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10010,19 +8470,11 @@
         <v>-1636795.528772204</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>29</v>
-      </c>
-      <c r="J245" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10051,19 +8503,11 @@
         <v>-1703552.510972204</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>29</v>
-      </c>
-      <c r="J246" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10092,19 +8536,11 @@
         <v>-1702935.913572204</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J247" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10139,13 +8575,9 @@
         <v>28.9</v>
       </c>
       <c r="J248" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>28.9</v>
+      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10180,11 +8612,11 @@
         <v>28.8</v>
       </c>
       <c r="J249" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L249" t="n">
@@ -10215,17 +8647,15 @@
         <v>-1677871.507272204</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L250" t="n">
@@ -10256,19 +8686,11 @@
         <v>-1677871.507272204</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J251" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10297,19 +8719,11 @@
         <v>-1706261.794172204</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J252" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10338,19 +8752,11 @@
         <v>-1706261.794172204</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>29</v>
-      </c>
-      <c r="J253" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10379,19 +8785,11 @@
         <v>-1706261.794172204</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>29</v>
-      </c>
-      <c r="J254" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10420,19 +8818,11 @@
         <v>-1706261.794172204</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>29</v>
-      </c>
-      <c r="J255" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10461,19 +8851,11 @@
         <v>-1648734.417772204</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>29</v>
-      </c>
-      <c r="J256" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10505,14 +8887,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10544,14 +8920,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10580,19 +8950,11 @@
         <v>-1652286.981572204</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>29</v>
-      </c>
-      <c r="J259" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10624,14 +8986,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10660,19 +9016,11 @@
         <v>-1564103.158472204</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J261" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10701,19 +9049,11 @@
         <v>-1640386.178072204</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J262" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10742,19 +9082,11 @@
         <v>-1617284.178072204</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J263" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10783,19 +9115,11 @@
         <v>-1617917.046572204</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J264" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10832,11 +9156,7 @@
       <c r="J265" t="n">
         <v>28.7</v>
       </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10875,7 +9195,7 @@
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L266" t="n">
@@ -10916,7 +9236,7 @@
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L267" t="n">
@@ -10955,11 +9275,7 @@
       <c r="J268" t="n">
         <v>28.7</v>
       </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10998,7 +9314,7 @@
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L269" t="n">
@@ -11039,7 +9355,7 @@
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L270" t="n">
@@ -11078,11 +9394,7 @@
       <c r="J271" t="n">
         <v>28.7</v>
       </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11121,7 +9433,7 @@
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L272" t="n">
@@ -11162,7 +9474,7 @@
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L273" t="n">
@@ -11199,13 +9511,9 @@
         <v>28.5</v>
       </c>
       <c r="J274" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>28.5</v>
+      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11240,11 +9548,11 @@
         <v>28.7</v>
       </c>
       <c r="J275" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L275" t="n">
@@ -11281,11 +9589,11 @@
         <v>28.7</v>
       </c>
       <c r="J276" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L276" t="n">
@@ -11322,13 +9630,9 @@
         <v>28.6</v>
       </c>
       <c r="J277" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>28.6</v>
+      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11363,11 +9667,11 @@
         <v>28.6</v>
       </c>
       <c r="J278" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L278" t="n">
@@ -11404,11 +9708,11 @@
         <v>28.7</v>
       </c>
       <c r="J279" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L279" t="n">
@@ -11445,13 +9749,9 @@
         <v>28.8</v>
       </c>
       <c r="J280" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>28.8</v>
+      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11484,11 +9784,11 @@
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L281" t="n">
@@ -11523,11 +9823,11 @@
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L282" t="n">
@@ -11561,14 +9861,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11600,14 +9894,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11639,14 +9927,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11678,14 +9960,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11717,14 +9993,8 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11756,14 +10026,8 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11795,14 +10059,8 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11834,14 +10092,8 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11873,14 +10125,8 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11912,14 +10158,8 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11951,14 +10191,8 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11990,14 +10224,8 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -12029,14 +10257,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -12068,14 +10290,8 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -12107,14 +10323,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -12146,14 +10356,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -12185,14 +10389,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12224,14 +10422,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12263,14 +10455,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12302,14 +10488,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12341,14 +10521,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12380,14 +10554,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12419,14 +10587,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12458,14 +10620,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12497,14 +10653,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -12536,14 +10686,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -12575,14 +10719,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -12614,14 +10752,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -12653,14 +10785,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -12692,14 +10818,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -12731,14 +10851,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12767,17 +10881,11 @@
         <v>-1478878.607272204</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12806,17 +10914,11 @@
         <v>-1478878.607272204</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12845,17 +10947,11 @@
         <v>-1470978.607272204</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12884,17 +10980,11 @@
         <v>-1470978.607272204</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12923,17 +11013,11 @@
         <v>-1470978.607272204</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12962,17 +11046,11 @@
         <v>-1478619.607272204</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -13001,17 +11079,11 @@
         <v>-1421736.607272204</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -13040,19 +11112,11 @@
         <v>-1421736.607272204</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J321" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -13081,17 +11145,11 @@
         <v>-1421736.607272204</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -13120,19 +11178,11 @@
         <v>-1429460.792772204</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J323" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -13161,19 +11211,11 @@
         <v>-1387952.617372204</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J324" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -13202,17 +11244,11 @@
         <v>-1387952.617372204</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -13241,17 +11277,11 @@
         <v>-1387852.617372204</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -13280,17 +11310,11 @@
         <v>-1387852.617372204</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -13319,17 +11343,11 @@
         <v>-1372705.576572204</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -13358,17 +11376,11 @@
         <v>-1372705.576572204</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -13397,17 +11409,11 @@
         <v>-1372705.576572204</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -13436,17 +11442,11 @@
         <v>-1372605.576572204</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -13475,17 +11475,11 @@
         <v>-1381705.576572204</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -13514,17 +11508,11 @@
         <v>-1381605.576572204</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -13553,17 +11541,11 @@
         <v>-1379676.322372204</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -13592,17 +11574,11 @@
         <v>-1341654.017372204</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -13631,17 +11607,11 @@
         <v>-1391267.105572204</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -13670,17 +11640,11 @@
         <v>-1391267.105572204</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -13709,17 +11673,11 @@
         <v>-1380253.629172204</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -13748,17 +11706,11 @@
         <v>-1382171.952772204</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -13787,17 +11739,11 @@
         <v>-1382171.952772204</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13826,17 +11772,11 @@
         <v>-1372171.952772204</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13865,17 +11805,11 @@
         <v>-1373638.740672204</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13904,17 +11838,11 @@
         <v>-1366006.858572204</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13943,17 +11871,11 @@
         <v>-1298010.191372204</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13982,17 +11904,11 @@
         <v>-1141499.429872204</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -14021,17 +11937,11 @@
         <v>-1083028.563472204</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -14060,17 +11970,11 @@
         <v>-1083028.563472204</v>
       </c>
       <c r="H347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -14099,17 +12003,11 @@
         <v>-1064018.563472204</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -14138,17 +12036,11 @@
         <v>-397163.8966722041</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -14180,14 +12072,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -14219,14 +12105,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -14258,14 +12138,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -14297,14 +12171,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -14336,14 +12204,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -14375,14 +12237,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -14414,14 +12270,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -14453,14 +12303,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -14492,14 +12336,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -14531,14 +12369,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -14570,14 +12402,8 @@
         <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -14609,14 +12435,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -14648,14 +12468,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -14687,14 +12501,8 @@
         <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -14726,14 +12534,8 @@
         <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -14765,14 +12567,8 @@
         <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -14804,14 +12600,8 @@
         <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -14843,14 +12633,8 @@
         <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J367" t="inlineStr"/>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -14882,14 +12666,8 @@
         <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -14921,14 +12699,8 @@
         <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -14960,14 +12732,8 @@
         <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -14999,14 +12765,8 @@
         <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
-      <c r="J371" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -15038,14 +12798,8 @@
         <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -15077,14 +12831,8 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -15113,23 +12861,15 @@
         <v>-309449.2322815544</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
-      <c r="J374" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
-        <v>1.054233449477352</v>
-      </c>
-      <c r="M374" t="n">
-        <v>1.013986013986014</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
@@ -15154,7 +12894,7 @@
         <v>-310060.9800815544</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -15187,7 +12927,7 @@
         <v>-325098.0524815544</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -15220,7 +12960,7 @@
         <v>-324998.0524815544</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -15253,7 +12993,7 @@
         <v>-324998.0524815544</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -15286,7 +13026,7 @@
         <v>-332215.6280815544</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -15319,7 +13059,7 @@
         <v>-332215.6280815544</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -15352,7 +13092,7 @@
         <v>-332215.6280815544</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -15385,7 +13125,7 @@
         <v>-332215.6280815544</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -15418,7 +13158,7 @@
         <v>-331279.6675815544</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -15715,7 +13455,7 @@
         <v>-634895.0180815544</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -15748,7 +13488,7 @@
         <v>-634895.0180815544</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -15781,7 +13521,7 @@
         <v>-634895.0180815544</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -15814,7 +13554,7 @@
         <v>-632954.3558815544</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -15847,7 +13587,7 @@
         <v>-632954.3558815544</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -15880,7 +13620,7 @@
         <v>-702563.7983815544</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -15913,7 +13653,7 @@
         <v>-989820.5244815545</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15946,7 +13686,7 @@
         <v>-989809.5244815545</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15979,7 +13719,7 @@
         <v>-1003003.443481555</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -16012,7 +13752,7 @@
         <v>-1003003.443481555</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -16045,7 +13785,7 @@
         <v>-1007856.513681554</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -16078,7 +13818,7 @@
         <v>-1007845.513681554</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -16111,7 +13851,7 @@
         <v>-1007845.513681554</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -16144,7 +13884,7 @@
         <v>-1007845.513681554</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -16177,7 +13917,7 @@
         <v>-1007845.513681554</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -16188,6 +13928,6 @@
       <c r="M406" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest LOOM.xlsx
+++ b/BackTest/2019-10-16 BackTest LOOM.xlsx
@@ -1507,7 +1507,7 @@
         <v>-1309960.2611</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-1324492.4886</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,10 +1573,14 @@
         <v>-1324492.4886</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>29.2</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1606,11 +1610,17 @@
         <v>-1324492.4886</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1649,19 @@
         <v>-1324492.4886</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,11 +1690,17 @@
         <v>-1324482.4886</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1705,11 +1729,17 @@
         <v>-1335358.6625</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1768,17 @@
         <v>-1335358.6625</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,11 +1807,17 @@
         <v>-1335358.6625</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1804,11 +1846,17 @@
         <v>-1335358.6625</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1885,17 @@
         <v>-1281445.2148</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1924,17 @@
         <v>-1281445.2148</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +1963,17 @@
         <v>-1281445.2148</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2002,17 @@
         <v>-1179672.5618</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2041,17 @@
         <v>-1223026.949400001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2080,17 @@
         <v>-1223565.584200001</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2119,17 @@
         <v>-1221256.978800001</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2068,11 +2158,17 @@
         <v>-1221256.978800001</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2101,11 +2197,17 @@
         <v>-1232456.978800001</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2236,17 @@
         <v>-1231144.978800001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,11 +2275,17 @@
         <v>-1202717.671700001</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2200,11 +2314,17 @@
         <v>-1202717.671700001</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2353,17 @@
         <v>-1206597.096300001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2392,17 @@
         <v>-1206597.096300001</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2431,17 @@
         <v>-1206697.096300001</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2470,17 @@
         <v>-1172601.533200001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2509,17 @@
         <v>-1172601.533200001</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2548,17 @@
         <v>-1172601.533200001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2431,11 +2587,17 @@
         <v>-1190952.913400001</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2626,17 @@
         <v>-1190952.913400001</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2665,17 @@
         <v>-1190952.913400001</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2704,17 @@
         <v>-1264175.830100001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2743,17 @@
         <v>-1264175.830100001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2596,11 +2782,17 @@
         <v>-1271486.830100001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2629,11 +2821,17 @@
         <v>-1313341.216100001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2860,17 @@
         <v>-1313341.216100001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2695,11 +2899,17 @@
         <v>-1413341.216100001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +2941,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +2980,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3019,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3058,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3097,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3136,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3175,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3214,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3253,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3292,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3331,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3370,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3409,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3448,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3487,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3526,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3565,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3604,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3643,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3682,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3721,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3760,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3799,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3838,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3877,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3916,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3955,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3994,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4033,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4072,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4111,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4150,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4189,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4228,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4267,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4306,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4345,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4384,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4423,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4462,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4501,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4540,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4579,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4618,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4657,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4696,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4735,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4774,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4813,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4852,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4891,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4930,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4969,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +5008,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +5047,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4543,11 +5083,17 @@
         <v>-1093315.012672204</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4576,11 +5122,17 @@
         <v>-1093990.825572204</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4609,11 +5161,17 @@
         <v>-1066590.825572204</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4642,11 +5200,17 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4675,11 +5239,17 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4708,11 +5278,17 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4741,11 +5317,17 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4774,11 +5356,17 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4807,11 +5395,17 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4840,11 +5434,17 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4873,11 +5473,17 @@
         <v>-1045500.586672204</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4906,11 +5512,17 @@
         <v>-1056727.652572204</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4939,11 +5551,17 @@
         <v>-1053248.735772204</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4972,11 +5590,17 @@
         <v>-1027186.347072204</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5005,11 +5629,17 @@
         <v>-1028616.028472204</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5038,11 +5668,17 @@
         <v>-1249642.383772204</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5071,11 +5707,17 @@
         <v>-1249642.383772204</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5749,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5788,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5827,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5866,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5905,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5944,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5983,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +6022,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +6061,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +6100,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +6139,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +6178,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +6217,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +6256,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +6295,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6334,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +6373,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6412,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +6451,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +6490,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6529,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6568,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6607,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6646,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6685,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6724,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6763,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +6802,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6841,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6880,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6919,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +6958,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +6997,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +7036,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6229,8 +7075,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +7114,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +7153,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +7192,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +7231,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +7270,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +7309,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +7348,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +7387,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6526,8 +7426,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6559,8 +7465,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6592,8 +7504,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6625,8 +7543,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6658,8 +7582,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +7621,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +7660,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +7699,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6787,11 +7735,17 @@
         <v>-1554593.378772204</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6820,11 +7774,17 @@
         <v>-1554593.378772204</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6853,11 +7813,17 @@
         <v>-1554593.378772204</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +7852,17 @@
         <v>-1752265.378672204</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +7891,17 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +7930,17 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7969,17 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +8008,17 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +8047,17 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +8086,17 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +8125,17 @@
         <v>-1651136.378672204</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +8164,19 @@
         <v>-1672377.611472204</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J205" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7183,11 +8205,19 @@
         <v>-1672377.611472204</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J206" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +8246,19 @@
         <v>-1675967.611472204</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J207" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +8287,19 @@
         <v>-1675967.611472204</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +8328,19 @@
         <v>-1604046.171572204</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J209" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +8369,19 @@
         <v>-1604046.171572204</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J210" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +8410,19 @@
         <v>-1650392.006272204</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J211" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +8451,19 @@
         <v>-1653276.006772204</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J212" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7414,11 +8492,19 @@
         <v>-1651850.522272204</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>29</v>
+      </c>
+      <c r="J213" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7447,11 +8533,19 @@
         <v>-1633977.960472204</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7480,11 +8574,19 @@
         <v>-1637386.409072204</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J215" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7513,11 +8615,19 @@
         <v>-1622808.840672204</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J216" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7546,11 +8656,19 @@
         <v>-1622808.840672204</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J217" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7579,11 +8697,19 @@
         <v>-1622808.840672204</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J218" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7612,11 +8738,19 @@
         <v>-1623919.840672204</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J219" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7645,11 +8779,19 @@
         <v>-1623869.840672204</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7678,11 +8820,19 @@
         <v>-1604168.840672204</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J221" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7711,11 +8861,19 @@
         <v>-1604168.840672204</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J222" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7744,11 +8902,17 @@
         <v>-1605703.455972204</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7777,11 +8941,19 @@
         <v>-1605703.455972204</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J224" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7810,11 +8982,19 @@
         <v>-1605703.455972204</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J225" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7846,8 +9026,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7879,8 +9065,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +9104,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7945,8 +9143,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -7975,11 +9179,19 @@
         <v>-1549096.848272204</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J230" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8011,8 +9223,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8041,11 +9259,19 @@
         <v>-1571701.649272204</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8074,11 +9300,19 @@
         <v>-1555321.649272204</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J233" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8110,8 +9344,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8143,8 +9383,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8173,11 +9419,19 @@
         <v>-1558123.185272204</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>29</v>
+      </c>
+      <c r="J236" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8209,8 +9463,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8242,8 +9502,14 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8275,8 +9541,14 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8308,8 +9580,14 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8341,8 +9619,14 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8374,8 +9658,14 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +9697,14 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8440,8 +9736,14 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8473,8 +9775,14 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8506,8 +9814,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8536,11 +9850,19 @@
         <v>-1702935.913572204</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J247" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8575,9 +9897,13 @@
         <v>28.9</v>
       </c>
       <c r="J248" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="K248" t="inlineStr"/>
+        <v>29.2</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8612,11 +9938,11 @@
         <v>28.8</v>
       </c>
       <c r="J249" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L249" t="n">
@@ -8647,15 +9973,17 @@
         <v>-1677871.507272204</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>29</v>
+      </c>
       <c r="J250" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L250" t="n">
@@ -8689,8 +10017,14 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8719,11 +10053,19 @@
         <v>-1706261.794172204</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J252" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8752,11 +10094,19 @@
         <v>-1706261.794172204</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>29</v>
+      </c>
+      <c r="J253" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8785,11 +10135,19 @@
         <v>-1706261.794172204</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>29</v>
+      </c>
+      <c r="J254" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8818,11 +10176,19 @@
         <v>-1706261.794172204</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>29</v>
+      </c>
+      <c r="J255" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8851,11 +10217,19 @@
         <v>-1648734.417772204</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>29</v>
+      </c>
+      <c r="J256" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8887,8 +10261,14 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8920,8 +10300,14 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8950,11 +10336,19 @@
         <v>-1652286.981572204</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>29</v>
+      </c>
+      <c r="J259" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -8983,11 +10377,19 @@
         <v>-1666103.158472204</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>29</v>
+      </c>
+      <c r="J260" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9016,11 +10418,19 @@
         <v>-1564103.158472204</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J261" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9049,11 +10459,19 @@
         <v>-1640386.178072204</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J262" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9082,11 +10500,19 @@
         <v>-1617284.178072204</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J263" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9115,11 +10541,19 @@
         <v>-1617917.046572204</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J264" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9154,9 +10588,13 @@
         <v>28.7</v>
       </c>
       <c r="J265" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K265" t="inlineStr"/>
+        <v>29.2</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9191,11 +10629,11 @@
         <v>28.6</v>
       </c>
       <c r="J266" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L266" t="n">
@@ -9232,11 +10670,11 @@
         <v>28.7</v>
       </c>
       <c r="J267" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L267" t="n">
@@ -9273,9 +10711,13 @@
         <v>28.7</v>
       </c>
       <c r="J268" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K268" t="inlineStr"/>
+        <v>29.2</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9310,11 +10752,11 @@
         <v>28.6</v>
       </c>
       <c r="J269" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L269" t="n">
@@ -9351,11 +10793,11 @@
         <v>28.7</v>
       </c>
       <c r="J270" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L270" t="n">
@@ -9392,9 +10834,13 @@
         <v>28.7</v>
       </c>
       <c r="J271" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K271" t="inlineStr"/>
+        <v>29.2</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9429,11 +10875,11 @@
         <v>28.7</v>
       </c>
       <c r="J272" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L272" t="n">
@@ -9470,11 +10916,11 @@
         <v>28.6</v>
       </c>
       <c r="J273" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L273" t="n">
@@ -9511,9 +10957,13 @@
         <v>28.5</v>
       </c>
       <c r="J274" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K274" t="inlineStr"/>
+        <v>29.2</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9548,11 +10998,11 @@
         <v>28.7</v>
       </c>
       <c r="J275" t="n">
-        <v>28.5</v>
+        <v>29.2</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L275" t="n">
@@ -9589,11 +11039,11 @@
         <v>28.7</v>
       </c>
       <c r="J276" t="n">
-        <v>28.5</v>
+        <v>29.2</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L276" t="n">
@@ -9630,9 +11080,13 @@
         <v>28.6</v>
       </c>
       <c r="J277" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K277" t="inlineStr"/>
+        <v>29.2</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9667,11 +11121,11 @@
         <v>28.6</v>
       </c>
       <c r="J278" t="n">
-        <v>28.6</v>
+        <v>29.2</v>
       </c>
       <c r="K278" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L278" t="n">
@@ -9708,11 +11162,11 @@
         <v>28.7</v>
       </c>
       <c r="J279" t="n">
-        <v>28.6</v>
+        <v>29.2</v>
       </c>
       <c r="K279" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L279" t="n">
@@ -9749,9 +11203,13 @@
         <v>28.8</v>
       </c>
       <c r="J280" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K280" t="inlineStr"/>
+        <v>29.2</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9780,15 +11238,17 @@
         <v>-1614298.135372204</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I281" t="n">
+        <v>29</v>
+      </c>
       <c r="J281" t="n">
-        <v>28.8</v>
+        <v>29.2</v>
       </c>
       <c r="K281" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L281" t="n">
@@ -9819,15 +11279,17 @@
         <v>-1614298.135372204</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I282" t="n">
+        <v>29</v>
+      </c>
       <c r="J282" t="n">
-        <v>28.8</v>
+        <v>29.2</v>
       </c>
       <c r="K282" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L282" t="n">
@@ -9858,11 +11320,19 @@
         <v>-1560250.922372204</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I283" t="n">
+        <v>29</v>
+      </c>
+      <c r="J283" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9894,8 +11364,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9924,11 +11400,19 @@
         <v>-1560250.922372204</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I285" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J285" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9957,11 +11441,19 @@
         <v>-1560250.922372204</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I286" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J286" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9990,11 +11482,19 @@
         <v>-1560250.922372204</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I287" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J287" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10023,11 +11523,19 @@
         <v>-1560250.922372204</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I288" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J288" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10056,11 +11564,19 @@
         <v>-1560250.922372204</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I289" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J289" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10089,11 +11605,19 @@
         <v>-1560250.922372204</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I290" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J290" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10122,11 +11646,19 @@
         <v>-1560250.922372204</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I291" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J291" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10155,11 +11687,19 @@
         <v>-1561290.786372204</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I292" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J292" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10188,11 +11728,19 @@
         <v>-1550669.992072204</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I293" t="n">
+        <v>29</v>
+      </c>
+      <c r="J293" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10221,11 +11769,19 @@
         <v>-1490069.992072204</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I294" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J294" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10254,11 +11810,19 @@
         <v>-1490069.992072204</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I295" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J295" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10287,11 +11851,19 @@
         <v>-1490069.992072204</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I296" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J296" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10320,11 +11892,19 @@
         <v>-1490615.144272204</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I297" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J297" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10353,11 +11933,19 @@
         <v>-1490615.144272204</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I298" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J298" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10386,11 +11974,19 @@
         <v>-1490615.144272204</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I299" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J299" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10419,11 +12015,19 @@
         <v>-1490615.144272204</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I300" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J300" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10452,11 +12056,19 @@
         <v>-1490605.144272204</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I301" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J301" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10485,11 +12097,19 @@
         <v>-1578007.799972204</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I302" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J302" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10518,11 +12138,19 @@
         <v>-1578007.799972204</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I303" t="n">
+        <v>29</v>
+      </c>
+      <c r="J303" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10551,11 +12179,19 @@
         <v>-1578007.799972204</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I304" t="n">
+        <v>29</v>
+      </c>
+      <c r="J304" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10584,11 +12220,19 @@
         <v>-1578007.799972204</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
-      </c>
-      <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I305" t="n">
+        <v>29</v>
+      </c>
+      <c r="J305" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10617,11 +12261,19 @@
         <v>-1486225.519872204</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>29</v>
+      </c>
+      <c r="J306" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10650,11 +12302,19 @@
         <v>-1487364.002572204</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J307" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10683,11 +12343,19 @@
         <v>-1477564.002572204</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>29</v>
+      </c>
+      <c r="J308" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10716,11 +12384,19 @@
         <v>-1477564.002572204</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J309" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10752,8 +12428,14 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10782,11 +12464,19 @@
         <v>-1478978.607272204</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J311" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10815,11 +12505,19 @@
         <v>-1478978.607272204</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>29</v>
+      </c>
+      <c r="J312" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10851,8 +12549,14 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -10881,11 +12585,19 @@
         <v>-1478878.607272204</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
-      </c>
-      <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J314" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -10914,11 +12626,19 @@
         <v>-1478878.607272204</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
-      </c>
-      <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J315" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10947,11 +12667,19 @@
         <v>-1470978.607272204</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
-      </c>
-      <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J316" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -10980,11 +12708,19 @@
         <v>-1470978.607272204</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
-      </c>
-      <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I317" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J317" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11013,11 +12749,19 @@
         <v>-1470978.607272204</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
-      </c>
-      <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I318" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J318" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11046,11 +12790,19 @@
         <v>-1478619.607272204</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
-      </c>
-      <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I319" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J319" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11079,11 +12831,19 @@
         <v>-1421736.607272204</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
-      </c>
-      <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I320" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J320" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11112,11 +12872,19 @@
         <v>-1421736.607272204</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
-      </c>
-      <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I321" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J321" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11145,11 +12913,17 @@
         <v>-1421736.607272204</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11178,11 +12952,19 @@
         <v>-1429460.792772204</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
-      </c>
-      <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I323" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J323" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11211,11 +12993,17 @@
         <v>-1387952.617372204</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11244,11 +13032,17 @@
         <v>-1387952.617372204</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11277,11 +13071,17 @@
         <v>-1387852.617372204</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11310,11 +13110,17 @@
         <v>-1387852.617372204</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11343,11 +13149,17 @@
         <v>-1372705.576572204</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11376,11 +13188,17 @@
         <v>-1372705.576572204</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11409,11 +13227,17 @@
         <v>-1372705.576572204</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11442,11 +13266,17 @@
         <v>-1372605.576572204</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11475,11 +13305,17 @@
         <v>-1381705.576572204</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11508,11 +13344,17 @@
         <v>-1381605.576572204</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11541,11 +13383,17 @@
         <v>-1379676.322372204</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11574,11 +13422,17 @@
         <v>-1341654.017372204</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11607,11 +13461,17 @@
         <v>-1391267.105572204</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11640,11 +13500,17 @@
         <v>-1391267.105572204</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -11673,11 +13539,17 @@
         <v>-1380253.629172204</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -11706,11 +13578,17 @@
         <v>-1382171.952772204</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -11739,11 +13617,17 @@
         <v>-1382171.952772204</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -11772,11 +13656,17 @@
         <v>-1372171.952772204</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -11805,11 +13695,17 @@
         <v>-1373638.740672204</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -11838,11 +13734,17 @@
         <v>-1366006.858572204</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -11871,11 +13773,17 @@
         <v>-1298010.191372204</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -11904,11 +13812,17 @@
         <v>-1141499.429872204</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -11937,11 +13851,17 @@
         <v>-1083028.563472204</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -11970,11 +13890,17 @@
         <v>-1083028.563472204</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12003,11 +13929,17 @@
         <v>-1064018.563472204</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12036,11 +13968,17 @@
         <v>-397163.8966722041</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12072,8 +14010,14 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12105,8 +14049,14 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12138,8 +14088,14 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12171,8 +14127,14 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12204,8 +14166,14 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12237,8 +14205,14 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12267,13 +14241,19 @@
         <v>-345918.2266481118</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L356" t="n">
-        <v>1</v>
+        <v>1.036095890410959</v>
       </c>
       <c r="M356" t="inlineStr"/>
     </row>
@@ -12531,7 +14511,7 @@
         <v>-392734.8315481117</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12729,7 +14709,7 @@
         <v>-312568.7602815544</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12762,7 +14742,7 @@
         <v>-334457.9767815543</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12861,7 +14841,7 @@
         <v>-309449.2322815544</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12894,7 +14874,7 @@
         <v>-310060.9800815544</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12927,7 +14907,7 @@
         <v>-325098.0524815544</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12960,7 +14940,7 @@
         <v>-324998.0524815544</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12993,7 +14973,7 @@
         <v>-324998.0524815544</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -13026,7 +15006,7 @@
         <v>-332215.6280815544</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -13059,7 +15039,7 @@
         <v>-332215.6280815544</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -13092,7 +15072,7 @@
         <v>-332215.6280815544</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13125,7 +15105,7 @@
         <v>-332215.6280815544</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13158,7 +15138,7 @@
         <v>-331279.6675815544</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13191,7 +15171,7 @@
         <v>-618055.4876815544</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13224,7 +15204,7 @@
         <v>-633284.9301815544</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
